--- a/raw_data_100087848963_2023-07-21.xlsx
+++ b/raw_data_100087848963_2023-07-21.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0555ED64-1BCD-47F1-AC0F-A03CF06FBEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E093D7DD-5C42-43BC-A6BA-841930969F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="clean_data" sheetId="2" r:id="rId2"/>
+    <sheet name="strata_fee" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">clean_data!$A$1:$G$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$C$1:$C$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -315,6 +318,249 @@
   </si>
   <si>
     <t>Memo Strata share of insurance</t>
+  </si>
+  <si>
+    <t>Desc1</t>
+  </si>
+  <si>
+    <t>Desc2</t>
+  </si>
+  <si>
+    <t>Desc3</t>
+  </si>
+  <si>
+    <t>Desc4</t>
+  </si>
+  <si>
+    <t>DONGLILIU</t>
+  </si>
+  <si>
+    <t>EDWINALBERTIMHOFF</t>
+  </si>
+  <si>
+    <t>XIAOPENGFENG</t>
+  </si>
+  <si>
+    <t>TRACYCARRIER</t>
+  </si>
+  <si>
+    <t>SIDDHARTHSINHA</t>
+  </si>
+  <si>
+    <t>EDWIN ALBERT IMHOFF</t>
+  </si>
+  <si>
+    <t>SIDDHARTH SINHA</t>
+  </si>
+  <si>
+    <t>XIAOPENG FENG</t>
+  </si>
+  <si>
+    <t>TRACY CARRIER</t>
+  </si>
+  <si>
+    <t>DONGLI LIU</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>20230705194805814315</t>
+  </si>
+  <si>
+    <t>20230704154714813333</t>
+  </si>
+  <si>
+    <t>20230701204439814025</t>
+  </si>
+  <si>
+    <t>20230630054126813522</t>
+  </si>
+  <si>
+    <t>20230606083305814404</t>
+  </si>
+  <si>
+    <t>20230530163859814369</t>
+  </si>
+  <si>
+    <t>20230501180206814051</t>
+  </si>
+  <si>
+    <t>20230501145741813217</t>
+  </si>
+  <si>
+    <t>20230501134933813315</t>
+  </si>
+  <si>
+    <t>20230501121028813801</t>
+  </si>
+  <si>
+    <t>20230501120957814861</t>
+  </si>
+  <si>
+    <t>20230501120924814853</t>
+  </si>
+  <si>
+    <t>20230428193105814655</t>
+  </si>
+  <si>
+    <t>20230401134832814898</t>
+  </si>
+  <si>
+    <t>20230331072337813777</t>
+  </si>
+  <si>
+    <t>20230331054355813952</t>
+  </si>
+  <si>
+    <t>20230330142222812860</t>
+  </si>
+  <si>
+    <t>20230302153502814406</t>
+  </si>
+  <si>
+    <t>20230302072719812526</t>
+  </si>
+  <si>
+    <t>20230302072641814718</t>
+  </si>
+  <si>
+    <t>20230301190435812268</t>
+  </si>
+  <si>
+    <t>20230228221740814067</t>
+  </si>
+  <si>
+    <t>20230224112033813292</t>
+  </si>
+  <si>
+    <t>20230201161250812564</t>
+  </si>
+  <si>
+    <t>20230201065125813526</t>
+  </si>
+  <si>
+    <t>20230131215635814230</t>
+  </si>
+  <si>
+    <t>20230131110332814029</t>
+  </si>
+  <si>
+    <t>20230102094259813200</t>
+  </si>
+  <si>
+    <t>20230101140733813853</t>
+  </si>
+  <si>
+    <t>20221231070111814838</t>
+  </si>
+  <si>
+    <t>20221226233450814041</t>
+  </si>
+  <si>
+    <t>20221226233254813811</t>
+  </si>
+  <si>
+    <t>20221205091159812301</t>
+  </si>
+  <si>
+    <t>20221205052515813993</t>
+  </si>
+  <si>
+    <t>20221201102153812851</t>
+  </si>
+  <si>
+    <t>20221201074144812391</t>
+  </si>
+  <si>
+    <t>20221113211305814568</t>
+  </si>
+  <si>
+    <t>20221101105446812447</t>
+  </si>
+  <si>
+    <t>20221101092556413389</t>
+  </si>
+  <si>
+    <t>20221101082525413535</t>
+  </si>
+  <si>
+    <t>20221028203342413005</t>
+  </si>
+  <si>
+    <t>20221003232656203286</t>
+  </si>
+  <si>
+    <t>20221002100802201926</t>
+  </si>
+  <si>
+    <t>20221002053814203736</t>
+  </si>
+  <si>
+    <t>20220930165853202439</t>
+  </si>
+  <si>
+    <t>20220929043741201423</t>
+  </si>
+  <si>
+    <t>20220908233924202662</t>
+  </si>
+  <si>
+    <t>20220901151903203839</t>
+  </si>
+  <si>
+    <t>20220831214519202877</t>
+  </si>
+  <si>
+    <t>20220831164741203790</t>
+  </si>
+  <si>
+    <t>20220801153101201465</t>
+  </si>
+  <si>
+    <t>20220801103412201168</t>
+  </si>
+  <si>
+    <t>20220731110626668921</t>
+  </si>
+  <si>
+    <t>20220730090736203088</t>
+  </si>
+  <si>
+    <t>20220729074647203140</t>
+  </si>
+  <si>
+    <t>20220701112019203867</t>
+  </si>
+  <si>
+    <t>20220701081603201499</t>
+  </si>
+  <si>
+    <t>20220629224708202856</t>
+  </si>
+  <si>
+    <t>20220629162419203595</t>
+  </si>
+  <si>
+    <t>20220629150729201494</t>
+  </si>
+  <si>
+    <t>20220603154529666891</t>
+  </si>
+  <si>
+    <t>20220603095407666866</t>
+  </si>
+  <si>
+    <t>20220602084104666385</t>
+  </si>
+  <si>
+    <t>20220531130341666708</t>
+  </si>
+  <si>
+    <t>20220527095424662054</t>
   </si>
 </sst>
 </file>
@@ -324,7 +570,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +593,12 @@
       <sz val="8"/>
       <color rgb="FFCA1905"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -461,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -508,15 +760,40 @@
     <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -829,2212 +1106,2422 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="16">
         <v>45118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="25">
         <v>-2310</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="18">
         <v>7705</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A3" s="8"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999">
-      <c r="A6" s="11">
+      <c r="A6" s="19">
         <v>45112</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12">
-        <v>150</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="26">
+        <v>150</v>
+      </c>
+      <c r="D6" s="23">
         <v>10015</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999">
-      <c r="A8" s="11"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999">
-      <c r="A9" s="8">
+      <c r="A9" s="16">
         <v>45111</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="17">
         <v>300</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="18">
         <v>9865</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.6">
-      <c r="A10" s="8"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="30.6">
-      <c r="A11" s="8"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999">
-      <c r="A12" s="11">
+      <c r="A12" s="19">
         <v>45108</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12">
-        <v>150</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="26">
+        <v>150</v>
+      </c>
+      <c r="D12" s="23">
         <v>9565</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.6">
-      <c r="A13" s="11"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="30.6">
-      <c r="A14" s="11"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="20.399999999999999">
-      <c r="A15" s="8">
+      <c r="A15" s="16">
         <v>45107</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="14">
-        <v>150</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="17">
+        <v>150</v>
+      </c>
+      <c r="D15" s="18">
         <v>9415</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.6">
-      <c r="A16" s="8"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="30.6">
-      <c r="A17" s="8"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" ht="20.399999999999999">
-      <c r="A18" s="11">
+      <c r="A18" s="19">
         <v>45083</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="12">
-        <v>150</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="26">
+        <v>150</v>
+      </c>
+      <c r="D18" s="23">
         <v>9265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.6">
-      <c r="A19" s="11"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="20.399999999999999">
-      <c r="A20" s="11"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="20.399999999999999">
-      <c r="A21" s="8">
+      <c r="A21" s="16">
         <v>45076</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="14">
-        <v>150</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="17">
+        <v>150</v>
+      </c>
+      <c r="D21" s="18">
         <v>9115</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30.6">
-      <c r="A22" s="8"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="30.6">
-      <c r="A23" s="8"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="20.399999999999999">
-      <c r="A24" s="11">
+      <c r="A24" s="19">
         <v>45047</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="26">
         <v>300</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="23">
         <v>8965</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30.6">
-      <c r="A25" s="11"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" ht="30.6">
-      <c r="A26" s="11"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="20.399999999999999">
-      <c r="A27" s="8">
+      <c r="A27" s="16">
         <v>45047</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="14">
-        <v>150</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C27" s="17">
+        <v>150</v>
+      </c>
+      <c r="D27" s="18">
         <v>8665</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30.6">
-      <c r="A28" s="8"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="20.399999999999999">
-      <c r="A29" s="8"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="20.399999999999999">
-      <c r="A30" s="11">
+      <c r="A30" s="19">
         <v>45047</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="12">
-        <v>150</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="26">
+        <v>150</v>
+      </c>
+      <c r="D30" s="23">
         <v>8515</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30.6">
-      <c r="A31" s="11"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" ht="30.6">
-      <c r="A32" s="11"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="20.399999999999999">
-      <c r="A33" s="8">
+      <c r="A33" s="16">
         <v>45047</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="14">
-        <v>150</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="17">
+        <v>150</v>
+      </c>
+      <c r="D33" s="18">
         <v>8365</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30.6">
-      <c r="A34" s="8"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="30.6">
-      <c r="A35" s="8"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="20.399999999999999">
-      <c r="A36" s="11">
+      <c r="A36" s="19">
         <v>45047</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="12">
-        <v>150</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="C36" s="26">
+        <v>150</v>
+      </c>
+      <c r="D36" s="23">
         <v>8215</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30.6">
-      <c r="A37" s="11"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="30.6">
-      <c r="A38" s="11"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="20.399999999999999">
-      <c r="A39" s="8">
+      <c r="A39" s="16">
         <v>45047</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="14">
-        <v>150</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="C39" s="17">
+        <v>150</v>
+      </c>
+      <c r="D39" s="18">
         <v>8065</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30.6">
-      <c r="A40" s="8"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="30.6">
-      <c r="A41" s="8"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" ht="20.399999999999999">
-      <c r="A42" s="11">
+      <c r="A42" s="19">
         <v>45044</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="12">
-        <v>150</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="C42" s="26">
+        <v>150</v>
+      </c>
+      <c r="D42" s="23">
         <v>7915</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30.6">
-      <c r="A43" s="11"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" ht="30.6">
-      <c r="A44" s="11"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" ht="20.399999999999999">
-      <c r="A45" s="8">
+      <c r="A45" s="16">
         <v>45017</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="14">
-        <v>150</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="C45" s="17">
+        <v>150</v>
+      </c>
+      <c r="D45" s="18">
         <v>7765</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.6">
-      <c r="A46" s="8"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="30.6">
-      <c r="A47" s="8"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="20.399999999999999">
-      <c r="A48" s="11">
+      <c r="A48" s="19">
         <v>45016</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="12">
-        <v>150</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="C48" s="26">
+        <v>150</v>
+      </c>
+      <c r="D48" s="23">
         <v>7615</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30.6">
-      <c r="A49" s="11"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="30.6">
-      <c r="A50" s="11"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" ht="20.399999999999999">
-      <c r="A51" s="8">
+      <c r="A51" s="16">
         <v>45016</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="17">
         <v>300</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="18">
         <v>7465</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30.6">
-      <c r="A52" s="8"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="30.6">
-      <c r="A53" s="8"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="20.399999999999999">
-      <c r="A54" s="11">
+      <c r="A54" s="19">
         <v>45015</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="12">
-        <v>150</v>
-      </c>
-      <c r="D54" s="13">
+      <c r="C54" s="26">
+        <v>150</v>
+      </c>
+      <c r="D54" s="23">
         <v>7165</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30.6">
-      <c r="A55" s="11"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" ht="20.399999999999999">
-      <c r="A56" s="11"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="20.399999999999999">
-      <c r="A57" s="8">
+      <c r="A57" s="16">
         <v>44987</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="14">
-        <v>150</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="C57" s="17">
+        <v>150</v>
+      </c>
+      <c r="D57" s="18">
         <v>7015</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30.6">
-      <c r="A58" s="8"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="10"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="1:4" ht="20.399999999999999">
-      <c r="A59" s="8"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="10"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" ht="20.399999999999999">
-      <c r="A60" s="11">
+      <c r="A60" s="19">
         <v>44987</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="12">
-        <v>150</v>
-      </c>
-      <c r="D60" s="13">
+      <c r="C60" s="26">
+        <v>150</v>
+      </c>
+      <c r="D60" s="23">
         <v>6865</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30.6">
-      <c r="A61" s="11"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="30.6">
-      <c r="A62" s="11"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" ht="20.399999999999999">
-      <c r="A63" s="8">
+      <c r="A63" s="16">
         <v>44987</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="14">
-        <v>150</v>
-      </c>
-      <c r="D63" s="10">
+      <c r="C63" s="17">
+        <v>150</v>
+      </c>
+      <c r="D63" s="18">
         <v>6715</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30.6">
-      <c r="A64" s="8"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:4" ht="30.6">
-      <c r="A65" s="8"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" ht="20.399999999999999">
-      <c r="A66" s="11">
+      <c r="A66" s="19">
         <v>44986</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="12">
-        <v>150</v>
-      </c>
-      <c r="D66" s="13">
+      <c r="C66" s="26">
+        <v>150</v>
+      </c>
+      <c r="D66" s="23">
         <v>6565</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30.6">
-      <c r="A67" s="11"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" ht="30.6">
-      <c r="A68" s="11"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" ht="20.399999999999999">
-      <c r="A69" s="8">
+      <c r="A69" s="16">
         <v>44986</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="14">
-        <v>150</v>
-      </c>
-      <c r="D69" s="10">
+      <c r="C69" s="17">
+        <v>150</v>
+      </c>
+      <c r="D69" s="18">
         <v>6415</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30.6">
-      <c r="A70" s="8"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="10"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" ht="30.6">
-      <c r="A71" s="8"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="10"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="1:4" ht="20.399999999999999">
-      <c r="A72" s="11">
+      <c r="A72" s="19">
         <v>44981</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="12">
-        <v>150</v>
-      </c>
-      <c r="D72" s="13">
+      <c r="C72" s="26">
+        <v>150</v>
+      </c>
+      <c r="D72" s="23">
         <v>6265</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30.6">
-      <c r="A73" s="11"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="1:4" ht="30.6">
-      <c r="A74" s="11"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" ht="20.399999999999999">
-      <c r="A75" s="8">
+      <c r="A75" s="16">
         <v>44958</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="14">
-        <v>150</v>
-      </c>
-      <c r="D75" s="10">
+      <c r="C75" s="17">
+        <v>150</v>
+      </c>
+      <c r="D75" s="18">
         <v>6115</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30.6">
-      <c r="A76" s="8"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="10"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4" ht="30.6">
-      <c r="A77" s="8"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="10"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" ht="20.399999999999999">
-      <c r="A78" s="11">
+      <c r="A78" s="19">
         <v>44958</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="26">
         <v>300</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="23">
         <v>5965</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30.6">
-      <c r="A79" s="11"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="23"/>
     </row>
     <row r="80" spans="1:4" ht="30.6">
-      <c r="A80" s="11"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="23"/>
     </row>
     <row r="81" spans="1:4" ht="20.399999999999999">
-      <c r="A81" s="8">
+      <c r="A81" s="16">
         <v>44958</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="14">
-        <v>150</v>
-      </c>
-      <c r="D81" s="10">
+      <c r="C81" s="17">
+        <v>150</v>
+      </c>
+      <c r="D81" s="18">
         <v>5665</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30.6">
-      <c r="A82" s="8"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="10"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" ht="20.399999999999999">
-      <c r="A83" s="8"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="10"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" ht="20.399999999999999">
-      <c r="A84" s="11">
+      <c r="A84" s="19">
         <v>44957</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="12">
-        <v>150</v>
-      </c>
-      <c r="D84" s="13">
+      <c r="C84" s="26">
+        <v>150</v>
+      </c>
+      <c r="D84" s="23">
         <v>5515</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30.6">
-      <c r="A85" s="11"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="23"/>
     </row>
     <row r="86" spans="1:4" ht="30.6">
-      <c r="A86" s="11"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="23"/>
     </row>
     <row r="87" spans="1:4" ht="20.399999999999999">
-      <c r="A87" s="8">
+      <c r="A87" s="16">
         <v>44928</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="14">
-        <v>150</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="C87" s="17">
+        <v>150</v>
+      </c>
+      <c r="D87" s="18">
         <v>5365</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30.6">
-      <c r="A88" s="8"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="10"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
     </row>
     <row r="89" spans="1:4" ht="30.6">
-      <c r="A89" s="8"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="10"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4" ht="20.399999999999999">
-      <c r="A90" s="11">
+      <c r="A90" s="19">
         <v>44927</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="12">
-        <v>150</v>
-      </c>
-      <c r="D90" s="13">
+      <c r="C90" s="26">
+        <v>150</v>
+      </c>
+      <c r="D90" s="23">
         <v>5215</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30.6">
-      <c r="A91" s="11"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="1:4" ht="20.399999999999999">
-      <c r="A92" s="11"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="1:4" ht="20.399999999999999">
-      <c r="A93" s="8">
+      <c r="A93" s="16">
         <v>44926</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="14">
-        <v>150</v>
-      </c>
-      <c r="D93" s="10">
+      <c r="C93" s="17">
+        <v>150</v>
+      </c>
+      <c r="D93" s="18">
         <v>5065</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30.6">
-      <c r="A94" s="8"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="10"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" ht="30.6">
-      <c r="A95" s="8"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="10"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="18"/>
     </row>
     <row r="96" spans="1:4" ht="20.399999999999999">
-      <c r="A96" s="11">
+      <c r="A96" s="19">
         <v>44922</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="12">
-        <v>150</v>
-      </c>
-      <c r="D96" s="13">
+      <c r="C96" s="26">
+        <v>150</v>
+      </c>
+      <c r="D96" s="23">
         <v>4915</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30.6">
-      <c r="A97" s="11"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="23"/>
     </row>
     <row r="98" spans="1:4" ht="30.6">
-      <c r="A98" s="11"/>
+      <c r="A98" s="19"/>
       <c r="B98" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="23"/>
     </row>
     <row r="99" spans="1:4" ht="20.399999999999999">
-      <c r="A99" s="8">
+      <c r="A99" s="16">
         <v>44922</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="14">
-        <v>150</v>
-      </c>
-      <c r="D99" s="10">
+      <c r="C99" s="17">
+        <v>150</v>
+      </c>
+      <c r="D99" s="18">
         <v>4765</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30.6">
-      <c r="A100" s="8"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="10"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="30.6">
-      <c r="A101" s="8"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="10"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" ht="20.399999999999999">
-      <c r="A102" s="11">
+      <c r="A102" s="19">
         <v>44900</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="12">
-        <v>150</v>
-      </c>
-      <c r="D102" s="13">
+      <c r="C102" s="26">
+        <v>150</v>
+      </c>
+      <c r="D102" s="23">
         <v>4615</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30.6">
-      <c r="A103" s="11"/>
+      <c r="A103" s="19"/>
       <c r="B103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="23"/>
     </row>
     <row r="104" spans="1:4" ht="20.399999999999999">
-      <c r="A104" s="11"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="23"/>
     </row>
     <row r="105" spans="1:4" ht="20.399999999999999">
-      <c r="A105" s="8">
+      <c r="A105" s="16">
         <v>44900</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="17">
         <v>300</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="18">
         <v>4465</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30.6">
-      <c r="A106" s="8"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="10"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="18"/>
     </row>
     <row r="107" spans="1:4" ht="30.6">
-      <c r="A107" s="8"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="10"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4" ht="20.399999999999999">
-      <c r="A108" s="11">
+      <c r="A108" s="19">
         <v>44896</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="12">
-        <v>150</v>
-      </c>
-      <c r="D108" s="13">
+      <c r="C108" s="26">
+        <v>150</v>
+      </c>
+      <c r="D108" s="23">
         <v>4165</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30.6">
-      <c r="A109" s="11"/>
+      <c r="A109" s="19"/>
       <c r="B109" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="23"/>
     </row>
     <row r="110" spans="1:4" ht="30.6">
-      <c r="A110" s="11"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="13"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="23"/>
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999">
-      <c r="A111" s="8">
+      <c r="A111" s="16">
         <v>44896</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="14">
-        <v>150</v>
-      </c>
-      <c r="D111" s="10">
+      <c r="C111" s="17">
+        <v>150</v>
+      </c>
+      <c r="D111" s="18">
         <v>4015</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30.6">
-      <c r="A112" s="8"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="10"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="30.6">
-      <c r="A113" s="8"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="10"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="20.399999999999999">
-      <c r="A114" s="11">
+      <c r="A114" s="19">
         <v>44879</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="12">
-        <v>150</v>
-      </c>
-      <c r="D114" s="13">
+      <c r="C114" s="26">
+        <v>150</v>
+      </c>
+      <c r="D114" s="23">
         <v>3865</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30.6">
-      <c r="A115" s="11"/>
+      <c r="A115" s="19"/>
       <c r="B115" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="23"/>
     </row>
     <row r="116" spans="1:4" ht="30.6">
-      <c r="A116" s="11"/>
+      <c r="A116" s="19"/>
       <c r="B116" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="23"/>
     </row>
     <row r="117" spans="1:4" ht="20.399999999999999">
-      <c r="A117" s="8">
+      <c r="A117" s="16">
         <v>44866</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="14">
-        <v>150</v>
-      </c>
-      <c r="D117" s="10">
+      <c r="C117" s="17">
+        <v>150</v>
+      </c>
+      <c r="D117" s="18">
         <v>3715</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="30.6">
-      <c r="A118" s="8"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="10"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="30.6">
-      <c r="A119" s="8"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="10"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="20.399999999999999">
-      <c r="A120" s="11">
+      <c r="A120" s="19">
         <v>44866</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="26">
         <v>300</v>
       </c>
-      <c r="D120" s="13">
+      <c r="D120" s="23">
         <v>3565</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30.6">
-      <c r="A121" s="11"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="23"/>
     </row>
     <row r="122" spans="1:4" ht="30.6">
-      <c r="A122" s="11"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="23"/>
     </row>
     <row r="123" spans="1:4" ht="20.399999999999999">
-      <c r="A123" s="8">
+      <c r="A123" s="16">
         <v>44866</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="14">
-        <v>150</v>
-      </c>
-      <c r="D123" s="10">
+      <c r="C123" s="17">
+        <v>150</v>
+      </c>
+      <c r="D123" s="18">
         <v>3265</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="30.6">
-      <c r="A124" s="8"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="10"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="18"/>
     </row>
     <row r="125" spans="1:4" ht="20.399999999999999">
-      <c r="A125" s="8"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="10"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="18"/>
     </row>
     <row r="126" spans="1:4" ht="20.399999999999999">
-      <c r="A126" s="11">
+      <c r="A126" s="19">
         <v>44862</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="12">
-        <v>150</v>
-      </c>
-      <c r="D126" s="13">
+      <c r="C126" s="26">
+        <v>150</v>
+      </c>
+      <c r="D126" s="23">
         <v>3115</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30.6">
-      <c r="A127" s="11"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="23"/>
     </row>
     <row r="128" spans="1:4" ht="30.6">
-      <c r="A128" s="11"/>
+      <c r="A128" s="19"/>
       <c r="B128" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="23"/>
     </row>
     <row r="129" spans="1:4" ht="20.399999999999999">
-      <c r="A129" s="8">
+      <c r="A129" s="16">
         <v>44838</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="14">
-        <v>150</v>
-      </c>
-      <c r="D129" s="10">
+      <c r="C129" s="17">
+        <v>150</v>
+      </c>
+      <c r="D129" s="18">
         <v>2965</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="30.6">
-      <c r="A130" s="8"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="10"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" spans="1:4" ht="30.6">
-      <c r="A131" s="8"/>
+      <c r="A131" s="16"/>
       <c r="B131" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C131" s="14"/>
-      <c r="D131" s="10"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="18"/>
     </row>
     <row r="132" spans="1:4" ht="20.399999999999999">
-      <c r="A132" s="11">
+      <c r="A132" s="19">
         <v>44836</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="12">
-        <v>150</v>
-      </c>
-      <c r="D132" s="13">
+      <c r="C132" s="26">
+        <v>150</v>
+      </c>
+      <c r="D132" s="23">
         <v>2815</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="30.6">
-      <c r="A133" s="11"/>
+      <c r="A133" s="19"/>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="23"/>
     </row>
     <row r="134" spans="1:4" ht="30.6">
-      <c r="A134" s="11"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="23"/>
     </row>
     <row r="135" spans="1:4" ht="20.399999999999999">
-      <c r="A135" s="8">
+      <c r="A135" s="16">
         <v>44836</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="14">
-        <v>150</v>
-      </c>
-      <c r="D135" s="10">
+      <c r="C135" s="17">
+        <v>150</v>
+      </c>
+      <c r="D135" s="18">
         <v>2665</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="30.6">
-      <c r="A136" s="8"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="10"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="18"/>
     </row>
     <row r="137" spans="1:4" ht="20.399999999999999">
-      <c r="A137" s="8"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="10"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="18"/>
     </row>
     <row r="138" spans="1:4" ht="20.399999999999999">
-      <c r="A138" s="11">
+      <c r="A138" s="19">
         <v>44834</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="12">
-        <v>150</v>
-      </c>
-      <c r="D138" s="13">
+      <c r="C138" s="26">
+        <v>150</v>
+      </c>
+      <c r="D138" s="23">
         <v>2515</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="30.6">
-      <c r="A139" s="11"/>
+      <c r="A139" s="19"/>
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="23"/>
     </row>
     <row r="140" spans="1:4" ht="30.6">
-      <c r="A140" s="11"/>
+      <c r="A140" s="19"/>
       <c r="B140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="23"/>
     </row>
     <row r="141" spans="1:4" ht="20.399999999999999">
-      <c r="A141" s="8">
+      <c r="A141" s="16">
         <v>44833</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="14">
+      <c r="C141" s="17">
         <v>600</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="18">
         <v>2365</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="30.6">
-      <c r="A142" s="8"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="10"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="18"/>
     </row>
     <row r="143" spans="1:4" ht="30.6">
-      <c r="A143" s="8"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="10"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4" ht="20.399999999999999">
-      <c r="A144" s="11">
+      <c r="A144" s="19">
         <v>44813</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="12">
-        <v>150</v>
-      </c>
-      <c r="D144" s="13">
+      <c r="C144" s="26">
+        <v>150</v>
+      </c>
+      <c r="D144" s="23">
         <v>1765</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="30.6">
-      <c r="A145" s="11"/>
+      <c r="A145" s="19"/>
       <c r="B145" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="23"/>
     </row>
     <row r="146" spans="1:4" ht="30.6">
-      <c r="A146" s="11"/>
+      <c r="A146" s="19"/>
       <c r="B146" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="23"/>
     </row>
     <row r="147" spans="1:4" ht="20.399999999999999">
-      <c r="A147" s="8">
+      <c r="A147" s="16">
         <v>44805</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="14">
-        <v>150</v>
-      </c>
-      <c r="D147" s="10">
+      <c r="C147" s="17">
+        <v>150</v>
+      </c>
+      <c r="D147" s="18">
         <v>1615</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="30.6">
-      <c r="A148" s="8"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="10"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="18"/>
     </row>
     <row r="149" spans="1:4" ht="30.6">
-      <c r="A149" s="8"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="10"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="18"/>
     </row>
     <row r="150" spans="1:4" ht="20.399999999999999">
-      <c r="A150" s="11">
+      <c r="A150" s="19">
         <v>44805</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="12">
-        <v>150</v>
-      </c>
-      <c r="D150" s="13">
+      <c r="C150" s="26">
+        <v>150</v>
+      </c>
+      <c r="D150" s="23">
         <v>1465</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="30.6">
-      <c r="A151" s="11"/>
+      <c r="A151" s="19"/>
       <c r="B151" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="13"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="23"/>
     </row>
     <row r="152" spans="1:4" ht="30.6">
-      <c r="A152" s="11"/>
+      <c r="A152" s="19"/>
       <c r="B152" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="13"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="23"/>
     </row>
     <row r="153" spans="1:4" ht="30.6">
-      <c r="A153" s="8">
+      <c r="A153" s="16">
         <v>44804</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="25">
         <v>-6.5</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="18">
         <v>1315</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="30.6">
-      <c r="A154" s="8"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="10"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="18"/>
     </row>
     <row r="155" spans="1:4" ht="20.399999999999999">
-      <c r="A155" s="11">
+      <c r="A155" s="19">
         <v>44804</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="12">
-        <v>150</v>
-      </c>
-      <c r="D155" s="13">
+      <c r="C155" s="26">
+        <v>150</v>
+      </c>
+      <c r="D155" s="23">
         <v>1321.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="30.6">
-      <c r="A156" s="11"/>
+      <c r="A156" s="19"/>
       <c r="B156" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="13"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="23"/>
     </row>
     <row r="157" spans="1:4" ht="20.399999999999999">
-      <c r="A157" s="11"/>
+      <c r="A157" s="19"/>
       <c r="B157" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="13"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="23"/>
     </row>
     <row r="158" spans="1:4" ht="20.399999999999999">
-      <c r="A158" s="8">
+      <c r="A158" s="16">
         <v>44774</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="14">
-        <v>150</v>
-      </c>
-      <c r="D158" s="10">
+      <c r="C158" s="17">
+        <v>150</v>
+      </c>
+      <c r="D158" s="18">
         <v>1171.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="30.6">
-      <c r="A159" s="8"/>
+      <c r="A159" s="16"/>
       <c r="B159" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="10"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="18"/>
     </row>
     <row r="160" spans="1:4" ht="30.6">
-      <c r="A160" s="8"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="10"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="18"/>
     </row>
     <row r="161" spans="1:4" ht="20.399999999999999">
-      <c r="A161" s="11">
+      <c r="A161" s="19">
         <v>44774</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="12">
-        <v>150</v>
-      </c>
-      <c r="D161" s="13">
+      <c r="C161" s="26">
+        <v>150</v>
+      </c>
+      <c r="D161" s="23">
         <v>1021.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="30.6">
-      <c r="A162" s="11"/>
+      <c r="A162" s="19"/>
       <c r="B162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="13"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="23"/>
     </row>
     <row r="163" spans="1:4" ht="30.6">
-      <c r="A163" s="11"/>
+      <c r="A163" s="19"/>
       <c r="B163" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="13"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="23"/>
     </row>
     <row r="164" spans="1:4" ht="30.6">
-      <c r="A164" s="8">
+      <c r="A164" s="16">
         <v>44773</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="25">
         <v>-6.5</v>
       </c>
-      <c r="D164" s="10">
+      <c r="D164" s="18">
         <v>871.5</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="30.6">
-      <c r="A165" s="8"/>
+      <c r="A165" s="16"/>
       <c r="B165" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="10"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:4" ht="30.6">
-      <c r="A166" s="11">
+      <c r="A166" s="19">
         <v>44773</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C166" s="15">
+      <c r="C166" s="21">
         <v>-0.6</v>
       </c>
-      <c r="D166" s="13">
+      <c r="D166" s="23">
         <v>878</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30.6">
-      <c r="A167" s="11"/>
+      <c r="A167" s="19"/>
       <c r="B167" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C167" s="15"/>
-      <c r="D167" s="13"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="23"/>
     </row>
     <row r="168" spans="1:4" ht="20.399999999999999">
-      <c r="A168" s="8">
+      <c r="A168" s="16">
         <v>44773</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="17">
         <v>300</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D168" s="18">
         <v>878.6</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30.6">
-      <c r="A169" s="8"/>
+      <c r="A169" s="16"/>
       <c r="B169" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C169" s="14"/>
-      <c r="D169" s="10"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="18"/>
     </row>
     <row r="170" spans="1:4" ht="40.799999999999997">
-      <c r="A170" s="8"/>
+      <c r="A170" s="16"/>
       <c r="B170" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="10"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="18"/>
     </row>
     <row r="171" spans="1:4" ht="20.399999999999999">
-      <c r="A171" s="11">
+      <c r="A171" s="19">
         <v>44772</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="12">
-        <v>150</v>
-      </c>
-      <c r="D171" s="13">
+      <c r="C171" s="26">
+        <v>150</v>
+      </c>
+      <c r="D171" s="23">
         <v>578.6</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30.6">
-      <c r="A172" s="11"/>
+      <c r="A172" s="19"/>
       <c r="B172" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C172" s="12"/>
-      <c r="D172" s="13"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="23"/>
     </row>
     <row r="173" spans="1:4" ht="30.6">
-      <c r="A173" s="11"/>
+      <c r="A173" s="19"/>
       <c r="B173" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="12"/>
-      <c r="D173" s="13"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="23"/>
     </row>
     <row r="174" spans="1:4" ht="20.399999999999999">
-      <c r="A174" s="8">
+      <c r="A174" s="16">
         <v>44771</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="25">
         <v>-2050</v>
       </c>
-      <c r="D174" s="10">
+      <c r="D174" s="18">
         <v>428.6</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="40.799999999999997" customHeight="1">
-      <c r="A175" s="8"/>
+      <c r="A175" s="16"/>
       <c r="B175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="10"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="18"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="8"/>
+      <c r="A176" s="16"/>
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="10"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="18"/>
     </row>
     <row r="177" spans="1:4" ht="20.399999999999999">
-      <c r="A177" s="8"/>
+      <c r="A177" s="16"/>
       <c r="B177" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="10"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="18"/>
     </row>
     <row r="178" spans="1:4" ht="20.399999999999999">
-      <c r="A178" s="11">
+      <c r="A178" s="19">
         <v>44771</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C178" s="12">
-        <v>150</v>
-      </c>
-      <c r="D178" s="13">
+      <c r="C178" s="26">
+        <v>150</v>
+      </c>
+      <c r="D178" s="23">
         <v>2478.6</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="30.6">
-      <c r="A179" s="11"/>
+      <c r="A179" s="19"/>
       <c r="B179" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C179" s="12"/>
-      <c r="D179" s="13"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="23"/>
     </row>
     <row r="180" spans="1:4" ht="20.399999999999999">
-      <c r="A180" s="11"/>
+      <c r="A180" s="19"/>
       <c r="B180" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="12"/>
-      <c r="D180" s="13"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="23"/>
     </row>
     <row r="181" spans="1:4" ht="20.399999999999999">
-      <c r="A181" s="8">
+      <c r="A181" s="16">
         <v>44743</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="14">
-        <v>150</v>
-      </c>
-      <c r="D181" s="10">
+      <c r="C181" s="17">
+        <v>150</v>
+      </c>
+      <c r="D181" s="18">
         <v>2328.6</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="30.6">
-      <c r="A182" s="8"/>
+      <c r="A182" s="16"/>
       <c r="B182" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C182" s="14"/>
-      <c r="D182" s="10"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="18"/>
     </row>
     <row r="183" spans="1:4" ht="30.6">
-      <c r="A183" s="8"/>
+      <c r="A183" s="16"/>
       <c r="B183" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C183" s="14"/>
-      <c r="D183" s="10"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="18"/>
     </row>
     <row r="184" spans="1:4" ht="20.399999999999999">
-      <c r="A184" s="11">
+      <c r="A184" s="19">
         <v>44743</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="12">
-        <v>150</v>
-      </c>
-      <c r="D184" s="13">
+      <c r="C184" s="26">
+        <v>150</v>
+      </c>
+      <c r="D184" s="23">
         <v>2178.6</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="30.6">
-      <c r="A185" s="11"/>
+      <c r="A185" s="19"/>
       <c r="B185" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="13"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="23"/>
     </row>
     <row r="186" spans="1:4" ht="30.6">
-      <c r="A186" s="11"/>
+      <c r="A186" s="19"/>
       <c r="B186" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="13"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="23"/>
     </row>
     <row r="187" spans="1:4" ht="30.6">
-      <c r="A187" s="8">
+      <c r="A187" s="16">
         <v>44742</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="25">
         <v>-6.5</v>
       </c>
-      <c r="D187" s="10">
+      <c r="D187" s="18">
         <v>2028.6</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="30.6">
-      <c r="A188" s="8"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="10"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="18"/>
     </row>
     <row r="189" spans="1:4" ht="20.399999999999999">
-      <c r="A189" s="11">
+      <c r="A189" s="19">
         <v>44742</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="12">
-        <v>150</v>
-      </c>
-      <c r="D189" s="13">
+      <c r="C189" s="26">
+        <v>150</v>
+      </c>
+      <c r="D189" s="23">
         <v>2035.1</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="30.6">
-      <c r="A190" s="11"/>
+      <c r="A190" s="19"/>
       <c r="B190" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="13"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="23"/>
     </row>
     <row r="191" spans="1:4" ht="30.6">
-      <c r="A191" s="11"/>
+      <c r="A191" s="19"/>
       <c r="B191" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="13"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="23"/>
     </row>
     <row r="192" spans="1:4" ht="20.399999999999999">
-      <c r="A192" s="8">
+      <c r="A192" s="16">
         <v>44741</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="14">
+      <c r="C192" s="17">
         <v>300</v>
       </c>
-      <c r="D192" s="10">
+      <c r="D192" s="18">
         <v>1885.1</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="30.6">
-      <c r="A193" s="8"/>
+      <c r="A193" s="16"/>
       <c r="B193" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C193" s="14"/>
-      <c r="D193" s="10"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="18"/>
     </row>
     <row r="194" spans="1:4" ht="30.6">
-      <c r="A194" s="8"/>
+      <c r="A194" s="16"/>
       <c r="B194" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="14"/>
-      <c r="D194" s="10"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="18"/>
     </row>
     <row r="195" spans="1:4" ht="20.399999999999999">
-      <c r="A195" s="11">
+      <c r="A195" s="19">
         <v>44741</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C195" s="12">
-        <v>150</v>
-      </c>
-      <c r="D195" s="13">
+      <c r="C195" s="26">
+        <v>150</v>
+      </c>
+      <c r="D195" s="23">
         <v>1585.1</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30.6">
-      <c r="A196" s="11"/>
+      <c r="A196" s="19"/>
       <c r="B196" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C196" s="12"/>
-      <c r="D196" s="13"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="23"/>
     </row>
     <row r="197" spans="1:4" ht="20.399999999999999">
-      <c r="A197" s="11"/>
+      <c r="A197" s="19"/>
       <c r="B197" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="12"/>
-      <c r="D197" s="13"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="23"/>
     </row>
     <row r="198" spans="1:4" ht="20.399999999999999">
-      <c r="A198" s="8">
+      <c r="A198" s="16">
         <v>44715</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C198" s="14">
-        <v>150</v>
-      </c>
-      <c r="D198" s="10">
+      <c r="C198" s="17">
+        <v>150</v>
+      </c>
+      <c r="D198" s="18">
         <v>1435.1</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="30.6">
-      <c r="A199" s="8"/>
+      <c r="A199" s="16"/>
       <c r="B199" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="10"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="18"/>
     </row>
     <row r="200" spans="1:4" ht="30.6">
-      <c r="A200" s="8"/>
+      <c r="A200" s="16"/>
       <c r="B200" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C200" s="14"/>
-      <c r="D200" s="10"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="18"/>
     </row>
     <row r="201" spans="1:4" ht="20.399999999999999">
-      <c r="A201" s="11">
+      <c r="A201" s="19">
         <v>44715</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C201" s="12">
+      <c r="C201" s="26">
         <v>300</v>
       </c>
-      <c r="D201" s="13">
+      <c r="D201" s="23">
         <v>1285.0999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="30.6">
-      <c r="A202" s="11"/>
+      <c r="A202" s="19"/>
       <c r="B202" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="12"/>
-      <c r="D202" s="13"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="23"/>
     </row>
     <row r="203" spans="1:4" ht="40.799999999999997">
-      <c r="A203" s="11"/>
+      <c r="A203" s="19"/>
       <c r="B203" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C203" s="12"/>
-      <c r="D203" s="13"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="23"/>
     </row>
     <row r="204" spans="1:4" ht="20.399999999999999">
-      <c r="A204" s="8">
+      <c r="A204" s="16">
         <v>44714</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="14">
-        <v>150</v>
-      </c>
-      <c r="D204" s="10">
+      <c r="C204" s="17">
+        <v>150</v>
+      </c>
+      <c r="D204" s="18">
         <v>985.1</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="30.6">
-      <c r="A205" s="8"/>
+      <c r="A205" s="16"/>
       <c r="B205" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C205" s="14"/>
-      <c r="D205" s="10"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="18"/>
     </row>
     <row r="206" spans="1:4" ht="30.6">
-      <c r="A206" s="8"/>
+      <c r="A206" s="16"/>
       <c r="B206" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C206" s="14"/>
-      <c r="D206" s="10"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="18"/>
     </row>
     <row r="207" spans="1:4" ht="30.6">
-      <c r="A207" s="11">
+      <c r="A207" s="19">
         <v>44712</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C207" s="15">
+      <c r="C207" s="21">
         <v>-6.5</v>
       </c>
-      <c r="D207" s="13">
+      <c r="D207" s="23">
         <v>835.1</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="30.6">
-      <c r="A208" s="11"/>
+      <c r="A208" s="19"/>
       <c r="B208" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C208" s="15"/>
-      <c r="D208" s="13"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="23"/>
     </row>
     <row r="209" spans="1:4" ht="30.6">
-      <c r="A209" s="8">
+      <c r="A209" s="16">
         <v>44712</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="25">
         <v>-2.1</v>
       </c>
-      <c r="D209" s="10">
+      <c r="D209" s="18">
         <v>841.6</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30.6">
-      <c r="A210" s="8"/>
+      <c r="A210" s="16"/>
       <c r="B210" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="10"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="18"/>
     </row>
     <row r="211" spans="1:4" ht="20.399999999999999">
-      <c r="A211" s="11">
+      <c r="A211" s="19">
         <v>44712</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C211" s="12">
-        <v>150</v>
-      </c>
-      <c r="D211" s="13">
+      <c r="C211" s="26">
+        <v>150</v>
+      </c>
+      <c r="D211" s="23">
         <v>843.7</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30.6">
-      <c r="A212" s="11"/>
+      <c r="A212" s="19"/>
       <c r="B212" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C212" s="12"/>
-      <c r="D212" s="13"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="23"/>
     </row>
     <row r="213" spans="1:4" ht="30.6">
-      <c r="A213" s="11"/>
+      <c r="A213" s="19"/>
       <c r="B213" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C213" s="12"/>
-      <c r="D213" s="13"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="23"/>
     </row>
     <row r="214" spans="1:4" ht="20.399999999999999">
-      <c r="A214" s="8">
+      <c r="A214" s="16">
         <v>44708</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="14">
-        <v>150</v>
-      </c>
-      <c r="D214" s="10">
+      <c r="C214" s="17">
+        <v>150</v>
+      </c>
+      <c r="D214" s="18">
         <v>693.7</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="30.6">
-      <c r="A215" s="8"/>
+      <c r="A215" s="16"/>
       <c r="B215" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C215" s="14"/>
-      <c r="D215" s="10"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:4" ht="20.399999999999999">
-      <c r="A216" s="8"/>
+      <c r="A216" s="16"/>
       <c r="B216" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C216" s="14"/>
-      <c r="D216" s="10"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="18"/>
     </row>
     <row r="217" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A217" s="11">
+      <c r="A217" s="19">
         <v>44705</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C217" s="15">
+      <c r="C217" s="21">
         <v>-341.67</v>
       </c>
-      <c r="D217" s="13">
+      <c r="D217" s="23">
         <v>543.70000000000005</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="11"/>
+      <c r="A218" s="19"/>
       <c r="B218" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C218" s="15"/>
-      <c r="D218" s="13"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="23"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="11"/>
+      <c r="A219" s="19"/>
       <c r="B219" s="2">
         <v>10100086160634</v>
       </c>
-      <c r="C219" s="15"/>
-      <c r="D219" s="13"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="23"/>
     </row>
     <row r="220" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A220" s="11"/>
+      <c r="A220" s="19"/>
       <c r="B220" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C220" s="15"/>
-      <c r="D220" s="13"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="23"/>
     </row>
     <row r="221" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A221" s="16"/>
+      <c r="A221" s="20"/>
       <c r="B221" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C221" s="17"/>
-      <c r="D221" s="18"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C221" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="222">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="D201:D203"/>
     <mergeCell ref="A214:A216"/>
     <mergeCell ref="C214:C216"/>
     <mergeCell ref="D214:D216"/>
@@ -3047,217 +3534,2869 @@
     <mergeCell ref="A211:A213"/>
     <mergeCell ref="C211:C213"/>
     <mergeCell ref="D211:D213"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B2" s="9">
+        <v>-2310</v>
+      </c>
+      <c r="C2" s="10">
+        <v>7705</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11">
+        <v>45112</v>
+      </c>
+      <c r="B3" s="12">
+        <v>150</v>
+      </c>
+      <c r="C3" s="13">
+        <v>10015</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>45111</v>
+      </c>
+      <c r="B4" s="14">
+        <v>300</v>
+      </c>
+      <c r="C4" s="10">
+        <v>9865</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B5" s="12">
+        <v>150</v>
+      </c>
+      <c r="C5" s="13">
+        <v>9565</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B6" s="14">
+        <v>150</v>
+      </c>
+      <c r="C6" s="10">
+        <v>9415</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11">
+        <v>45083</v>
+      </c>
+      <c r="B7" s="12">
+        <v>150</v>
+      </c>
+      <c r="C7" s="13">
+        <v>9265</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>45076</v>
+      </c>
+      <c r="B8" s="14">
+        <v>150</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11">
+        <v>45047</v>
+      </c>
+      <c r="B9" s="12">
+        <v>300</v>
+      </c>
+      <c r="C9" s="13">
+        <v>8965</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B10" s="14">
+        <v>150</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8665</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11">
+        <v>45047</v>
+      </c>
+      <c r="B11" s="12">
+        <v>150</v>
+      </c>
+      <c r="C11" s="13">
+        <v>8515</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B12" s="14">
+        <v>150</v>
+      </c>
+      <c r="C12" s="10">
+        <v>8365</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11">
+        <v>45047</v>
+      </c>
+      <c r="B13" s="12">
+        <v>150</v>
+      </c>
+      <c r="C13" s="13">
+        <v>8215</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B14" s="14">
+        <v>150</v>
+      </c>
+      <c r="C14" s="10">
+        <v>8065</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11">
+        <v>45044</v>
+      </c>
+      <c r="B15" s="12">
+        <v>150</v>
+      </c>
+      <c r="C15" s="13">
+        <v>7915</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>45017</v>
+      </c>
+      <c r="B16" s="14">
+        <v>150</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7765</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11">
+        <v>45016</v>
+      </c>
+      <c r="B17" s="12">
+        <v>150</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7615</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>45016</v>
+      </c>
+      <c r="B18" s="14">
+        <v>300</v>
+      </c>
+      <c r="C18" s="10">
+        <v>7465</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11">
+        <v>45015</v>
+      </c>
+      <c r="B19" s="12">
+        <v>150</v>
+      </c>
+      <c r="C19" s="13">
+        <v>7165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>44987</v>
+      </c>
+      <c r="B20" s="14">
+        <v>150</v>
+      </c>
+      <c r="C20" s="10">
+        <v>7015</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11">
+        <v>44987</v>
+      </c>
+      <c r="B21" s="12">
+        <v>150</v>
+      </c>
+      <c r="C21" s="13">
+        <v>6865</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>44987</v>
+      </c>
+      <c r="B22" s="14">
+        <v>150</v>
+      </c>
+      <c r="C22" s="10">
+        <v>6715</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11">
+        <v>44986</v>
+      </c>
+      <c r="B23" s="12">
+        <v>150</v>
+      </c>
+      <c r="C23" s="13">
+        <v>6565</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>44986</v>
+      </c>
+      <c r="B24" s="14">
+        <v>150</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6415</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11">
+        <v>44981</v>
+      </c>
+      <c r="B25" s="12">
+        <v>150</v>
+      </c>
+      <c r="C25" s="13">
+        <v>6265</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B26" s="14">
+        <v>150</v>
+      </c>
+      <c r="C26" s="10">
+        <v>6115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11">
+        <v>44958</v>
+      </c>
+      <c r="B27" s="12">
+        <v>300</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5965</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B28" s="14">
+        <v>150</v>
+      </c>
+      <c r="C28" s="10">
+        <v>5665</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11">
+        <v>44957</v>
+      </c>
+      <c r="B29" s="12">
+        <v>150</v>
+      </c>
+      <c r="C29" s="13">
+        <v>5515</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>44928</v>
+      </c>
+      <c r="B30" s="14">
+        <v>150</v>
+      </c>
+      <c r="C30" s="10">
+        <v>5365</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11">
+        <v>44927</v>
+      </c>
+      <c r="B31" s="12">
+        <v>150</v>
+      </c>
+      <c r="C31" s="13">
+        <v>5215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>44926</v>
+      </c>
+      <c r="B32" s="14">
+        <v>150</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5065</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="11">
+        <v>44922</v>
+      </c>
+      <c r="B33" s="12">
+        <v>150</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4915</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>44922</v>
+      </c>
+      <c r="B34" s="14">
+        <v>150</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4765</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="11">
+        <v>44900</v>
+      </c>
+      <c r="B35" s="12">
+        <v>150</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4615</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>44900</v>
+      </c>
+      <c r="B36" s="14">
+        <v>300</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4465</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="11">
+        <v>44896</v>
+      </c>
+      <c r="B37" s="12">
+        <v>150</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4165</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8">
+        <v>44896</v>
+      </c>
+      <c r="B38" s="14">
+        <v>150</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4015</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11">
+        <v>44879</v>
+      </c>
+      <c r="B39" s="12">
+        <v>150</v>
+      </c>
+      <c r="C39" s="13">
+        <v>3865</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8">
+        <v>44866</v>
+      </c>
+      <c r="B40" s="14">
+        <v>150</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3715</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11">
+        <v>44866</v>
+      </c>
+      <c r="B41" s="12">
+        <v>300</v>
+      </c>
+      <c r="C41" s="13">
+        <v>3565</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>44866</v>
+      </c>
+      <c r="B42" s="14">
+        <v>150</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3265</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="11">
+        <v>44862</v>
+      </c>
+      <c r="B43" s="12">
+        <v>150</v>
+      </c>
+      <c r="C43" s="13">
+        <v>3115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>44838</v>
+      </c>
+      <c r="B44" s="14">
+        <v>150</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2965</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="11">
+        <v>44836</v>
+      </c>
+      <c r="B45" s="12">
+        <v>150</v>
+      </c>
+      <c r="C45" s="13">
+        <v>2815</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>44836</v>
+      </c>
+      <c r="B46" s="14">
+        <v>150</v>
+      </c>
+      <c r="C46" s="10">
+        <v>2665</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="11">
+        <v>44834</v>
+      </c>
+      <c r="B47" s="12">
+        <v>150</v>
+      </c>
+      <c r="C47" s="13">
+        <v>2515</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8">
+        <v>44833</v>
+      </c>
+      <c r="B48" s="14">
+        <v>600</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2365</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="11">
+        <v>44813</v>
+      </c>
+      <c r="B49" s="12">
+        <v>150</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1765</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8">
+        <v>44805</v>
+      </c>
+      <c r="B50" s="14">
+        <v>150</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1615</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="11">
+        <v>44805</v>
+      </c>
+      <c r="B51" s="12">
+        <v>150</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1465</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8">
+        <v>44804</v>
+      </c>
+      <c r="B52" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1315</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="11">
+        <v>44804</v>
+      </c>
+      <c r="B53" s="12">
+        <v>150</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1321.5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="8">
+        <v>44774</v>
+      </c>
+      <c r="B54" s="14">
+        <v>150</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1171.5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="11">
+        <v>44774</v>
+      </c>
+      <c r="B55" s="12">
+        <v>150</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1021.5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="8">
+        <v>44773</v>
+      </c>
+      <c r="B56" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="C56" s="10">
+        <v>871.5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11">
+        <v>44773</v>
+      </c>
+      <c r="B57" s="15">
+        <v>-0.6</v>
+      </c>
+      <c r="C57" s="13">
+        <v>878</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="8">
+        <v>44773</v>
+      </c>
+      <c r="B58" s="14">
+        <v>300</v>
+      </c>
+      <c r="C58" s="10">
+        <v>878.6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11">
+        <v>44772</v>
+      </c>
+      <c r="B59" s="12">
+        <v>150</v>
+      </c>
+      <c r="C59" s="13">
+        <v>578.6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="8">
+        <v>44771</v>
+      </c>
+      <c r="B60" s="9">
+        <v>-2050</v>
+      </c>
+      <c r="C60" s="10">
+        <v>428.6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11">
+        <v>44771</v>
+      </c>
+      <c r="B61" s="12">
+        <v>150</v>
+      </c>
+      <c r="C61" s="13">
+        <v>2478.6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="8">
+        <v>44743</v>
+      </c>
+      <c r="B62" s="14">
+        <v>150</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2328.6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="11">
+        <v>44743</v>
+      </c>
+      <c r="B63" s="12">
+        <v>150</v>
+      </c>
+      <c r="C63" s="13">
+        <v>2178.6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="8">
+        <v>44742</v>
+      </c>
+      <c r="B64" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2028.6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="11">
+        <v>44742</v>
+      </c>
+      <c r="B65" s="12">
+        <v>150</v>
+      </c>
+      <c r="C65" s="13">
+        <v>2035.1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="8">
+        <v>44741</v>
+      </c>
+      <c r="B66" s="14">
+        <v>300</v>
+      </c>
+      <c r="C66" s="10">
+        <v>1885.1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="11">
+        <v>44741</v>
+      </c>
+      <c r="B67" s="12">
+        <v>150</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1585.1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="8">
+        <v>44715</v>
+      </c>
+      <c r="B68" s="14">
+        <v>150</v>
+      </c>
+      <c r="C68" s="10">
+        <v>1435.1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="11">
+        <v>44715</v>
+      </c>
+      <c r="B69" s="12">
+        <v>300</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1285.0999999999999</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="8">
+        <v>44714</v>
+      </c>
+      <c r="B70" s="14">
+        <v>150</v>
+      </c>
+      <c r="C70" s="10">
+        <v>985.1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="11">
+        <v>44712</v>
+      </c>
+      <c r="B71" s="15">
+        <v>-6.5</v>
+      </c>
+      <c r="C71" s="13">
+        <v>835.1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="8">
+        <v>44712</v>
+      </c>
+      <c r="B72" s="9">
+        <v>-2.1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>841.6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="11">
+        <v>44712</v>
+      </c>
+      <c r="B73" s="12">
+        <v>150</v>
+      </c>
+      <c r="C73" s="13">
+        <v>843.7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="8">
+        <v>44708</v>
+      </c>
+      <c r="B74" s="14">
+        <v>150</v>
+      </c>
+      <c r="C74" s="10">
+        <v>693.7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="11">
+        <v>44705</v>
+      </c>
+      <c r="B75" s="15">
+        <v>-341.67</v>
+      </c>
+      <c r="C75" s="13">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="27">
+        <v>10100086160634</v>
+      </c>
+      <c r="G75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G75" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA793499-2F87-4161-B660-7261413A1647}">
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11">
+        <v>45112</v>
+      </c>
+      <c r="B2" s="12">
+        <v>150</v>
+      </c>
+      <c r="C2" s="13">
+        <v>10015</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>45111</v>
+      </c>
+      <c r="B3" s="14">
+        <v>300</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9865</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B4" s="12">
+        <v>150</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9565</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B5" s="14">
+        <v>150</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11">
+        <v>45083</v>
+      </c>
+      <c r="B6" s="12">
+        <v>150</v>
+      </c>
+      <c r="C6" s="13">
+        <v>9265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>45076</v>
+      </c>
+      <c r="B7" s="14">
+        <v>150</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11">
+        <v>45047</v>
+      </c>
+      <c r="B8" s="12">
+        <v>300</v>
+      </c>
+      <c r="C8" s="13">
+        <v>8965</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B9" s="14">
+        <v>150</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8665</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
+        <v>45047</v>
+      </c>
+      <c r="B10" s="12">
+        <v>150</v>
+      </c>
+      <c r="C10" s="13">
+        <v>8515</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B11" s="14">
+        <v>150</v>
+      </c>
+      <c r="C11" s="10">
+        <v>8365</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11">
+        <v>45047</v>
+      </c>
+      <c r="B12" s="12">
+        <v>150</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8215</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B13" s="14">
+        <v>150</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8065</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11">
+        <v>45044</v>
+      </c>
+      <c r="B14" s="12">
+        <v>150</v>
+      </c>
+      <c r="C14" s="13">
+        <v>7915</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>45017</v>
+      </c>
+      <c r="B15" s="14">
+        <v>150</v>
+      </c>
+      <c r="C15" s="10">
+        <v>7765</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11">
+        <v>45016</v>
+      </c>
+      <c r="B16" s="12">
+        <v>150</v>
+      </c>
+      <c r="C16" s="13">
+        <v>7615</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>45016</v>
+      </c>
+      <c r="B17" s="14">
+        <v>300</v>
+      </c>
+      <c r="C17" s="10">
+        <v>7465</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11">
+        <v>45015</v>
+      </c>
+      <c r="B18" s="12">
+        <v>150</v>
+      </c>
+      <c r="C18" s="13">
+        <v>7165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>44987</v>
+      </c>
+      <c r="B19" s="14">
+        <v>150</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7015</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11">
+        <v>44987</v>
+      </c>
+      <c r="B20" s="12">
+        <v>150</v>
+      </c>
+      <c r="C20" s="13">
+        <v>6865</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>44987</v>
+      </c>
+      <c r="B21" s="14">
+        <v>150</v>
+      </c>
+      <c r="C21" s="10">
+        <v>6715</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11">
+        <v>44986</v>
+      </c>
+      <c r="B22" s="12">
+        <v>150</v>
+      </c>
+      <c r="C22" s="13">
+        <v>6565</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>44986</v>
+      </c>
+      <c r="B23" s="14">
+        <v>150</v>
+      </c>
+      <c r="C23" s="10">
+        <v>6415</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11">
+        <v>44981</v>
+      </c>
+      <c r="B24" s="12">
+        <v>150</v>
+      </c>
+      <c r="C24" s="13">
+        <v>6265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B25" s="14">
+        <v>150</v>
+      </c>
+      <c r="C25" s="10">
+        <v>6115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11">
+        <v>44958</v>
+      </c>
+      <c r="B26" s="12">
+        <v>300</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5965</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B27" s="14">
+        <v>150</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5665</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11">
+        <v>44957</v>
+      </c>
+      <c r="B28" s="12">
+        <v>150</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5515</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>44928</v>
+      </c>
+      <c r="B29" s="14">
+        <v>150</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5365</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11">
+        <v>44927</v>
+      </c>
+      <c r="B30" s="12">
+        <v>150</v>
+      </c>
+      <c r="C30" s="13">
+        <v>5215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>44926</v>
+      </c>
+      <c r="B31" s="14">
+        <v>150</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5065</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="11">
+        <v>44922</v>
+      </c>
+      <c r="B32" s="12">
+        <v>150</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4915</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8">
+        <v>44922</v>
+      </c>
+      <c r="B33" s="14">
+        <v>150</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4765</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11">
+        <v>44900</v>
+      </c>
+      <c r="B34" s="12">
+        <v>150</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4615</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>44900</v>
+      </c>
+      <c r="B35" s="14">
+        <v>300</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4465</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11">
+        <v>44896</v>
+      </c>
+      <c r="B36" s="12">
+        <v>150</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4165</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>44896</v>
+      </c>
+      <c r="B37" s="14">
+        <v>150</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4015</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11">
+        <v>44879</v>
+      </c>
+      <c r="B38" s="12">
+        <v>150</v>
+      </c>
+      <c r="C38" s="13">
+        <v>3865</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>44866</v>
+      </c>
+      <c r="B39" s="14">
+        <v>150</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3715</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11">
+        <v>44866</v>
+      </c>
+      <c r="B40" s="12">
+        <v>300</v>
+      </c>
+      <c r="C40" s="13">
+        <v>3565</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8">
+        <v>44866</v>
+      </c>
+      <c r="B41" s="14">
+        <v>150</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3265</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="11">
+        <v>44862</v>
+      </c>
+      <c r="B42" s="12">
+        <v>150</v>
+      </c>
+      <c r="C42" s="13">
+        <v>3115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8">
+        <v>44838</v>
+      </c>
+      <c r="B43" s="14">
+        <v>150</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2965</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11">
+        <v>44836</v>
+      </c>
+      <c r="B44" s="12">
+        <v>150</v>
+      </c>
+      <c r="C44" s="13">
+        <v>2815</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44836</v>
+      </c>
+      <c r="B45" s="14">
+        <v>150</v>
+      </c>
+      <c r="C45" s="10">
+        <v>2665</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="11">
+        <v>44834</v>
+      </c>
+      <c r="B46" s="12">
+        <v>150</v>
+      </c>
+      <c r="C46" s="13">
+        <v>2515</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8">
+        <v>44833</v>
+      </c>
+      <c r="B47" s="14">
+        <v>600</v>
+      </c>
+      <c r="C47" s="10">
+        <v>2365</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="11">
+        <v>44813</v>
+      </c>
+      <c r="B48" s="12">
+        <v>150</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1765</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>44805</v>
+      </c>
+      <c r="B49" s="14">
+        <v>150</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1615</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="11">
+        <v>44805</v>
+      </c>
+      <c r="B50" s="12">
+        <v>150</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1465</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="11">
+        <v>44804</v>
+      </c>
+      <c r="B51" s="12">
+        <v>150</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1321.5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8">
+        <v>44774</v>
+      </c>
+      <c r="B52" s="14">
+        <v>150</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1171.5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="11">
+        <v>44774</v>
+      </c>
+      <c r="B53" s="12">
+        <v>150</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1021.5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8">
+        <v>44773</v>
+      </c>
+      <c r="B54" s="14">
+        <v>300</v>
+      </c>
+      <c r="C54" s="10">
+        <v>878.6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="11">
+        <v>44772</v>
+      </c>
+      <c r="B55" s="12">
+        <v>150</v>
+      </c>
+      <c r="C55" s="13">
+        <v>578.6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="11">
+        <v>44771</v>
+      </c>
+      <c r="B56" s="12">
+        <v>150</v>
+      </c>
+      <c r="C56" s="13">
+        <v>2478.6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8">
+        <v>44743</v>
+      </c>
+      <c r="B57" s="14">
+        <v>150</v>
+      </c>
+      <c r="C57" s="10">
+        <v>2328.6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="11">
+        <v>44743</v>
+      </c>
+      <c r="B58" s="12">
+        <v>150</v>
+      </c>
+      <c r="C58" s="13">
+        <v>2178.6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="11">
+        <v>44742</v>
+      </c>
+      <c r="B59" s="12">
+        <v>150</v>
+      </c>
+      <c r="C59" s="13">
+        <v>2035.1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8">
+        <v>44741</v>
+      </c>
+      <c r="B60" s="14">
+        <v>300</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1885.1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="11">
+        <v>44741</v>
+      </c>
+      <c r="B61" s="12">
+        <v>150</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1585.1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8">
+        <v>44715</v>
+      </c>
+      <c r="B62" s="14">
+        <v>150</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1435.1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="11">
+        <v>44715</v>
+      </c>
+      <c r="B63" s="12">
+        <v>300</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1285.0999999999999</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8">
+        <v>44714</v>
+      </c>
+      <c r="B64" s="14">
+        <v>150</v>
+      </c>
+      <c r="C64" s="10">
+        <v>985.1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="11">
+        <v>44712</v>
+      </c>
+      <c r="B65" s="12">
+        <v>150</v>
+      </c>
+      <c r="C65" s="13">
+        <v>843.7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8">
+        <v>44708</v>
+      </c>
+      <c r="B66" s="14">
+        <v>150</v>
+      </c>
+      <c r="C66" s="10">
+        <v>693.7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/raw_data_100087848963_2023-07-21.xlsx
+++ b/raw_data_100087848963_2023-07-21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E093D7DD-5C42-43BC-A6BA-841930969F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A7817-CCFD-4D5D-A9DF-2D1A4A76B33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,16 @@
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
     <sheet name="clean_data" sheetId="2" r:id="rId2"/>
     <sheet name="strata_fee" sheetId="4" r:id="rId3"/>
+    <sheet name="sf_pivot" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">clean_data!$A$1:$G$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$C$1:$C$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -561,6 +565,21 @@
   </si>
   <si>
     <t>20220527095424662054</t>
+  </si>
+  <si>
+    <t>Pay Method</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>EDWINALBERT IMHOFF</t>
   </si>
 </sst>
 </file>
@@ -713,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -760,10 +779,11 @@
     <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,28 +792,33 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,6 +834,574 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dongli" refreshedDate="45128.478500231482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="65" xr:uid="{E93254BA-6910-4E43-8DBD-AF066E9BDCAC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E66" sheet="strata_fee"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Date" numFmtId="15">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-05-27T00:00:00" maxDate="2023-07-06T00:00:00"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="150" maxValue="600"/>
+    </cacheField>
+    <cacheField name="Pay Method" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Ref" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Payer" numFmtId="0">
+      <sharedItems count="11">
+        <s v="DONGLI LIU"/>
+        <s v="EDWINALBERT IMHOFF"/>
+        <s v="XIAOPENG FENG"/>
+        <s v="TRACY CARRIER"/>
+        <s v="SIDDHARTH SINHA"/>
+        <s v="DONGLILIU" u="1"/>
+        <s v="XIAOPENGFENG" u="1"/>
+        <s v="TRACYCARRIER" u="1"/>
+        <s v="EDWINALBERTIMHOFF" u="1"/>
+        <s v="SIDDHARTHSINHA" u="1"/>
+        <s v="EDWIN ALBERT IMHOFF" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="65">
+  <r>
+    <d v="2023-07-05T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230705194805814315"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-07-04T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230704154714813333"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-07-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230701204439814025"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-06-30T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230630054126813522"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-06-06T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230606083305814404"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-05-30T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230530163859814369"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230501180206814051"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230501145741813217"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230501134933813315"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230501121028813801"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230501120957814861"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230501120924814853"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-04-28T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230428193105814655"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-04-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230401134832814898"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-03-31T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230331072337813777"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-03-31T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230331054355813952"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-03-30T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230330142222812860"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-03-02T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230302153502814406"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-03-02T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230302072719812526"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-03-02T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230302072641814718"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-03-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230301190435812268"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-03-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230228221740814067"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-02-24T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230224112033813292"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-02-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230201161250812564"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-02-01T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230201065125813526"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-02-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230131215635814230"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-01-31T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230131110332814029"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-01-02T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230102094259813200"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-01-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20230101140733813853"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2022-12-31T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221231070111814838"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-12-27T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221226233450814041"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-12-27T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221226233254813811"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-12-05T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221205091159812301"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2022-12-05T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221205052515813993"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2022-12-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221201102153812851"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2022-12-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221201074144812391"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-11-14T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221113211305814568"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-11-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221101105446812447"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2022-11-01T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221101092556413389"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2022-11-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221101082525413535"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2022-10-28T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221028203342413005"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-10-04T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221003232656203286"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-10-02T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221002100802201926"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2022-10-02T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20221002053814203736"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2022-09-30T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220930165853202439"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-09-29T00:00:00"/>
+    <n v="600"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220929043741201423"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2022-09-09T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220908233924202662"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-09-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220901151903203839"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2022-09-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220831214519202877"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-08-31T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220831164741203790"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2022-08-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220801153101201465"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-08-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220801103412201168"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2022-07-31T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220731110626668921"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2022-07-30T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220730090736203088"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-07-29T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220729074647203140"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2022-07-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220701112019203867"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2022-07-01T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220701081603201499"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-06-30T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220629224708202856"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-06-29T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220629162419203595"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2022-06-29T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220629150729201494"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2022-06-03T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220603154529666891"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2022-06-03T00:00:00"/>
+    <n v="300"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220603095407666866"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2022-06-02T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220602084104666385"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2022-05-31T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220531130341666708"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2022-05-27T00:00:00"/>
+    <n v="150"/>
+    <s v="e-Transfer credit"/>
+    <s v="20220527095424662054"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF19025F-1016-4A7A-A2B4-7153ABDA26AA}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item x="4"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1106,2230 +1699,2404 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>45118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="18">
         <v>-2310</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="19">
         <v>7705</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>45112</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26">
-        <v>150</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" s="21">
+        <v>150</v>
+      </c>
+      <c r="D6" s="22">
         <v>10015</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.6">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>45111</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="23">
         <v>300</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="19">
         <v>9865</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.6">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="30.6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>45108</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26">
-        <v>150</v>
-      </c>
-      <c r="D12" s="23">
+      <c r="C12" s="21">
+        <v>150</v>
+      </c>
+      <c r="D12" s="22">
         <v>9565</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.6">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" ht="30.6">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="20.399999999999999">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <v>45107</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="17">
-        <v>150</v>
-      </c>
-      <c r="D15" s="18">
+      <c r="C15" s="23">
+        <v>150</v>
+      </c>
+      <c r="D15" s="19">
         <v>9415</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.6">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="30.6">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="20.399999999999999">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>45083</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="26">
-        <v>150</v>
-      </c>
-      <c r="D18" s="23">
+      <c r="C18" s="21">
+        <v>150</v>
+      </c>
+      <c r="D18" s="22">
         <v>9265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.6">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="20.399999999999999">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="20.399999999999999">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>45076</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="17">
-        <v>150</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="C21" s="23">
+        <v>150</v>
+      </c>
+      <c r="D21" s="19">
         <v>9115</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30.6">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="30.6">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="20.399999999999999">
-      <c r="A24" s="19">
+      <c r="A24" s="20">
         <v>45047</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="21">
         <v>300</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>8965</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30.6">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="30.6">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="20.399999999999999">
-      <c r="A27" s="16">
+      <c r="A27" s="17">
         <v>45047</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="17">
-        <v>150</v>
-      </c>
-      <c r="D27" s="18">
+      <c r="C27" s="23">
+        <v>150</v>
+      </c>
+      <c r="D27" s="19">
         <v>8665</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30.6">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="20.399999999999999">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="20.399999999999999">
-      <c r="A30" s="19">
+      <c r="A30" s="20">
         <v>45047</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="26">
-        <v>150</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="C30" s="21">
+        <v>150</v>
+      </c>
+      <c r="D30" s="22">
         <v>8515</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30.6">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" ht="30.6">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="20.399999999999999">
-      <c r="A33" s="16">
+      <c r="A33" s="17">
         <v>45047</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="17">
-        <v>150</v>
-      </c>
-      <c r="D33" s="18">
+      <c r="C33" s="23">
+        <v>150</v>
+      </c>
+      <c r="D33" s="19">
         <v>8365</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30.6">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="30.6">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="20.399999999999999">
-      <c r="A36" s="19">
+      <c r="A36" s="20">
         <v>45047</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="26">
-        <v>150</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="C36" s="21">
+        <v>150</v>
+      </c>
+      <c r="D36" s="22">
         <v>8215</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30.6">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="30.6">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="20.399999999999999">
-      <c r="A39" s="16">
+      <c r="A39" s="17">
         <v>45047</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="17">
-        <v>150</v>
-      </c>
-      <c r="D39" s="18">
+      <c r="C39" s="23">
+        <v>150</v>
+      </c>
+      <c r="D39" s="19">
         <v>8065</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30.6">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="30.6">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="20.399999999999999">
-      <c r="A42" s="19">
+      <c r="A42" s="20">
         <v>45044</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="26">
-        <v>150</v>
-      </c>
-      <c r="D42" s="23">
+      <c r="C42" s="21">
+        <v>150</v>
+      </c>
+      <c r="D42" s="22">
         <v>7915</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30.6">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" ht="30.6">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" ht="20.399999999999999">
-      <c r="A45" s="16">
+      <c r="A45" s="17">
         <v>45017</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="17">
-        <v>150</v>
-      </c>
-      <c r="D45" s="18">
+      <c r="C45" s="23">
+        <v>150</v>
+      </c>
+      <c r="D45" s="19">
         <v>7765</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.6">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="30.6">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="20.399999999999999">
-      <c r="A48" s="19">
+      <c r="A48" s="20">
         <v>45016</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="26">
-        <v>150</v>
-      </c>
-      <c r="D48" s="23">
+      <c r="C48" s="21">
+        <v>150</v>
+      </c>
+      <c r="D48" s="22">
         <v>7615</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30.6">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" ht="30.6">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="23"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="20.399999999999999">
-      <c r="A51" s="16">
+      <c r="A51" s="17">
         <v>45016</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="23">
         <v>300</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="19">
         <v>7465</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30.6">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="30.6">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" ht="20.399999999999999">
-      <c r="A54" s="19">
+      <c r="A54" s="20">
         <v>45015</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="26">
-        <v>150</v>
-      </c>
-      <c r="D54" s="23">
+      <c r="C54" s="21">
+        <v>150</v>
+      </c>
+      <c r="D54" s="22">
         <v>7165</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30.6">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="20.399999999999999">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="20.399999999999999">
-      <c r="A57" s="16">
+      <c r="A57" s="17">
         <v>44987</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="17">
-        <v>150</v>
-      </c>
-      <c r="D57" s="18">
+      <c r="C57" s="23">
+        <v>150</v>
+      </c>
+      <c r="D57" s="19">
         <v>7015</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30.6">
-      <c r="A58" s="16"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" ht="20.399999999999999">
-      <c r="A59" s="16"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" ht="20.399999999999999">
-      <c r="A60" s="19">
+      <c r="A60" s="20">
         <v>44987</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="26">
-        <v>150</v>
-      </c>
-      <c r="D60" s="23">
+      <c r="C60" s="21">
+        <v>150</v>
+      </c>
+      <c r="D60" s="22">
         <v>6865</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30.6">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="30.6">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="20.399999999999999">
-      <c r="A63" s="16">
+      <c r="A63" s="17">
         <v>44987</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="17">
-        <v>150</v>
-      </c>
-      <c r="D63" s="18">
+      <c r="C63" s="23">
+        <v>150</v>
+      </c>
+      <c r="D63" s="19">
         <v>6715</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30.6">
-      <c r="A64" s="16"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="30.6">
-      <c r="A65" s="16"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="20.399999999999999">
-      <c r="A66" s="19">
+      <c r="A66" s="20">
         <v>44986</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="26">
-        <v>150</v>
-      </c>
-      <c r="D66" s="23">
+      <c r="C66" s="21">
+        <v>150</v>
+      </c>
+      <c r="D66" s="22">
         <v>6565</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30.6">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" ht="30.6">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="23"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="20.399999999999999">
-      <c r="A69" s="16">
+      <c r="A69" s="17">
         <v>44986</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="17">
-        <v>150</v>
-      </c>
-      <c r="D69" s="18">
+      <c r="C69" s="23">
+        <v>150</v>
+      </c>
+      <c r="D69" s="19">
         <v>6415</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30.6">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="30.6">
-      <c r="A71" s="16"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="20.399999999999999">
-      <c r="A72" s="19">
+      <c r="A72" s="20">
         <v>44981</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="26">
-        <v>150</v>
-      </c>
-      <c r="D72" s="23">
+      <c r="C72" s="21">
+        <v>150</v>
+      </c>
+      <c r="D72" s="22">
         <v>6265</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30.6">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="23"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:4" ht="30.6">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" ht="20.399999999999999">
-      <c r="A75" s="16">
+      <c r="A75" s="17">
         <v>44958</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="17">
-        <v>150</v>
-      </c>
-      <c r="D75" s="18">
+      <c r="C75" s="23">
+        <v>150</v>
+      </c>
+      <c r="D75" s="19">
         <v>6115</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30.6">
-      <c r="A76" s="16"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" ht="30.6">
-      <c r="A77" s="16"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" ht="20.399999999999999">
-      <c r="A78" s="19">
+      <c r="A78" s="20">
         <v>44958</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C78" s="21">
         <v>300</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="22">
         <v>5965</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30.6">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="23"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="1:4" ht="30.6">
-      <c r="A80" s="19"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4" ht="20.399999999999999">
-      <c r="A81" s="16">
+      <c r="A81" s="17">
         <v>44958</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="17">
-        <v>150</v>
-      </c>
-      <c r="D81" s="18">
+      <c r="C81" s="23">
+        <v>150</v>
+      </c>
+      <c r="D81" s="19">
         <v>5665</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30.6">
-      <c r="A82" s="16"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="18"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4" ht="20.399999999999999">
-      <c r="A83" s="16"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:4" ht="20.399999999999999">
-      <c r="A84" s="19">
+      <c r="A84" s="20">
         <v>44957</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="26">
-        <v>150</v>
-      </c>
-      <c r="D84" s="23">
+      <c r="C84" s="21">
+        <v>150</v>
+      </c>
+      <c r="D84" s="22">
         <v>5515</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30.6">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="23"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4" ht="30.6">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="23"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4" ht="20.399999999999999">
-      <c r="A87" s="16">
+      <c r="A87" s="17">
         <v>44928</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="17">
-        <v>150</v>
-      </c>
-      <c r="D87" s="18">
+      <c r="C87" s="23">
+        <v>150</v>
+      </c>
+      <c r="D87" s="19">
         <v>5365</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30.6">
-      <c r="A88" s="16"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4" ht="30.6">
-      <c r="A89" s="16"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="18"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4" ht="20.399999999999999">
-      <c r="A90" s="19">
+      <c r="A90" s="20">
         <v>44927</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="26">
-        <v>150</v>
-      </c>
-      <c r="D90" s="23">
+      <c r="C90" s="21">
+        <v>150</v>
+      </c>
+      <c r="D90" s="22">
         <v>5215</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30.6">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="23"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4" ht="20.399999999999999">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="23"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4" ht="20.399999999999999">
-      <c r="A93" s="16">
+      <c r="A93" s="17">
         <v>44926</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="17">
-        <v>150</v>
-      </c>
-      <c r="D93" s="18">
+      <c r="C93" s="23">
+        <v>150</v>
+      </c>
+      <c r="D93" s="19">
         <v>5065</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30.6">
-      <c r="A94" s="16"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="18"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" ht="30.6">
-      <c r="A95" s="16"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="18"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" ht="20.399999999999999">
-      <c r="A96" s="19">
+      <c r="A96" s="20">
         <v>44922</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="26">
-        <v>150</v>
-      </c>
-      <c r="D96" s="23">
+      <c r="C96" s="21">
+        <v>150</v>
+      </c>
+      <c r="D96" s="22">
         <v>4915</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30.6">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="23"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4" ht="30.6">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="23"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4" ht="20.399999999999999">
-      <c r="A99" s="16">
+      <c r="A99" s="17">
         <v>44922</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="17">
-        <v>150</v>
-      </c>
-      <c r="D99" s="18">
+      <c r="C99" s="23">
+        <v>150</v>
+      </c>
+      <c r="D99" s="19">
         <v>4765</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30.6">
-      <c r="A100" s="16"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="18"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="19"/>
     </row>
     <row r="101" spans="1:4" ht="30.6">
-      <c r="A101" s="16"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="18"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="19"/>
     </row>
     <row r="102" spans="1:4" ht="20.399999999999999">
-      <c r="A102" s="19">
+      <c r="A102" s="20">
         <v>44900</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="26">
-        <v>150</v>
-      </c>
-      <c r="D102" s="23">
+      <c r="C102" s="21">
+        <v>150</v>
+      </c>
+      <c r="D102" s="22">
         <v>4615</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30.6">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="23"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
     </row>
     <row r="104" spans="1:4" ht="20.399999999999999">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="23"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" spans="1:4" ht="20.399999999999999">
-      <c r="A105" s="16">
+      <c r="A105" s="17">
         <v>44900</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="17">
+      <c r="C105" s="23">
         <v>300</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="19">
         <v>4465</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30.6">
-      <c r="A106" s="16"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="18"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" ht="30.6">
-      <c r="A107" s="16"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="18"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="19"/>
     </row>
     <row r="108" spans="1:4" ht="20.399999999999999">
-      <c r="A108" s="19">
+      <c r="A108" s="20">
         <v>44896</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="26">
-        <v>150</v>
-      </c>
-      <c r="D108" s="23">
+      <c r="C108" s="21">
+        <v>150</v>
+      </c>
+      <c r="D108" s="22">
         <v>4165</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30.6">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="23"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="22"/>
     </row>
     <row r="110" spans="1:4" ht="30.6">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="23"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999">
-      <c r="A111" s="16">
+      <c r="A111" s="17">
         <v>44896</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="17">
-        <v>150</v>
-      </c>
-      <c r="D111" s="18">
+      <c r="C111" s="23">
+        <v>150</v>
+      </c>
+      <c r="D111" s="19">
         <v>4015</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30.6">
-      <c r="A112" s="16"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="30.6">
-      <c r="A113" s="16"/>
+      <c r="A113" s="17"/>
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="18"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" ht="20.399999999999999">
-      <c r="A114" s="19">
+      <c r="A114" s="20">
         <v>44879</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="26">
-        <v>150</v>
-      </c>
-      <c r="D114" s="23">
+      <c r="C114" s="21">
+        <v>150</v>
+      </c>
+      <c r="D114" s="22">
         <v>3865</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30.6">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="26"/>
-      <c r="D115" s="23"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" ht="30.6">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="26"/>
-      <c r="D116" s="23"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" spans="1:4" ht="20.399999999999999">
-      <c r="A117" s="16">
+      <c r="A117" s="17">
         <v>44866</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="17">
-        <v>150</v>
-      </c>
-      <c r="D117" s="18">
+      <c r="C117" s="23">
+        <v>150</v>
+      </c>
+      <c r="D117" s="19">
         <v>3715</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="30.6">
-      <c r="A118" s="16"/>
+      <c r="A118" s="17"/>
       <c r="B118" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="18"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:4" ht="30.6">
-      <c r="A119" s="16"/>
+      <c r="A119" s="17"/>
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="18"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="19"/>
     </row>
     <row r="120" spans="1:4" ht="20.399999999999999">
-      <c r="A120" s="19">
+      <c r="A120" s="20">
         <v>44866</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="26">
+      <c r="C120" s="21">
         <v>300</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D120" s="22">
         <v>3565</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30.6">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="26"/>
-      <c r="D121" s="23"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="22"/>
     </row>
     <row r="122" spans="1:4" ht="30.6">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="26"/>
-      <c r="D122" s="23"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" spans="1:4" ht="20.399999999999999">
-      <c r="A123" s="16">
+      <c r="A123" s="17">
         <v>44866</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="17">
-        <v>150</v>
-      </c>
-      <c r="D123" s="18">
+      <c r="C123" s="23">
+        <v>150</v>
+      </c>
+      <c r="D123" s="19">
         <v>3265</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="30.6">
-      <c r="A124" s="16"/>
+      <c r="A124" s="17"/>
       <c r="B124" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="18"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:4" ht="20.399999999999999">
-      <c r="A125" s="16"/>
+      <c r="A125" s="17"/>
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="18"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" ht="20.399999999999999">
-      <c r="A126" s="19">
+      <c r="A126" s="20">
         <v>44862</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="26">
-        <v>150</v>
-      </c>
-      <c r="D126" s="23">
+      <c r="C126" s="21">
+        <v>150</v>
+      </c>
+      <c r="D126" s="22">
         <v>3115</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30.6">
-      <c r="A127" s="19"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="26"/>
-      <c r="D127" s="23"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="22"/>
     </row>
     <row r="128" spans="1:4" ht="30.6">
-      <c r="A128" s="19"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="26"/>
-      <c r="D128" s="23"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="22"/>
     </row>
     <row r="129" spans="1:4" ht="20.399999999999999">
-      <c r="A129" s="16">
+      <c r="A129" s="17">
         <v>44838</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="17">
-        <v>150</v>
-      </c>
-      <c r="D129" s="18">
+      <c r="C129" s="23">
+        <v>150</v>
+      </c>
+      <c r="D129" s="19">
         <v>2965</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="30.6">
-      <c r="A130" s="16"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="18"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="19"/>
     </row>
     <row r="131" spans="1:4" ht="30.6">
-      <c r="A131" s="16"/>
+      <c r="A131" s="17"/>
       <c r="B131" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="18"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="19"/>
     </row>
     <row r="132" spans="1:4" ht="20.399999999999999">
-      <c r="A132" s="19">
+      <c r="A132" s="20">
         <v>44836</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="26">
-        <v>150</v>
-      </c>
-      <c r="D132" s="23">
+      <c r="C132" s="21">
+        <v>150</v>
+      </c>
+      <c r="D132" s="22">
         <v>2815</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="30.6">
-      <c r="A133" s="19"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C133" s="26"/>
-      <c r="D133" s="23"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="22"/>
     </row>
     <row r="134" spans="1:4" ht="30.6">
-      <c r="A134" s="19"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C134" s="26"/>
-      <c r="D134" s="23"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="22"/>
     </row>
     <row r="135" spans="1:4" ht="20.399999999999999">
-      <c r="A135" s="16">
+      <c r="A135" s="17">
         <v>44836</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="17">
-        <v>150</v>
-      </c>
-      <c r="D135" s="18">
+      <c r="C135" s="23">
+        <v>150</v>
+      </c>
+      <c r="D135" s="19">
         <v>2665</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="30.6">
-      <c r="A136" s="16"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="18"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="19"/>
     </row>
     <row r="137" spans="1:4" ht="20.399999999999999">
-      <c r="A137" s="16"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="18"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="19"/>
     </row>
     <row r="138" spans="1:4" ht="20.399999999999999">
-      <c r="A138" s="19">
+      <c r="A138" s="20">
         <v>44834</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="26">
-        <v>150</v>
-      </c>
-      <c r="D138" s="23">
+      <c r="C138" s="21">
+        <v>150</v>
+      </c>
+      <c r="D138" s="22">
         <v>2515</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="30.6">
-      <c r="A139" s="19"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C139" s="26"/>
-      <c r="D139" s="23"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="22"/>
     </row>
     <row r="140" spans="1:4" ht="30.6">
-      <c r="A140" s="19"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="26"/>
-      <c r="D140" s="23"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="22"/>
     </row>
     <row r="141" spans="1:4" ht="20.399999999999999">
-      <c r="A141" s="16">
+      <c r="A141" s="17">
         <v>44833</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="17">
+      <c r="C141" s="23">
         <v>600</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="19">
         <v>2365</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="30.6">
-      <c r="A142" s="16"/>
+      <c r="A142" s="17"/>
       <c r="B142" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="18"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="19"/>
     </row>
     <row r="143" spans="1:4" ht="30.6">
-      <c r="A143" s="16"/>
+      <c r="A143" s="17"/>
       <c r="B143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="18"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="19"/>
     </row>
     <row r="144" spans="1:4" ht="20.399999999999999">
-      <c r="A144" s="19">
+      <c r="A144" s="20">
         <v>44813</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="26">
-        <v>150</v>
-      </c>
-      <c r="D144" s="23">
+      <c r="C144" s="21">
+        <v>150</v>
+      </c>
+      <c r="D144" s="22">
         <v>1765</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="30.6">
-      <c r="A145" s="19"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C145" s="26"/>
-      <c r="D145" s="23"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="22"/>
     </row>
     <row r="146" spans="1:4" ht="30.6">
-      <c r="A146" s="19"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="23"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="22"/>
     </row>
     <row r="147" spans="1:4" ht="20.399999999999999">
-      <c r="A147" s="16">
+      <c r="A147" s="17">
         <v>44805</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="17">
-        <v>150</v>
-      </c>
-      <c r="D147" s="18">
+      <c r="C147" s="23">
+        <v>150</v>
+      </c>
+      <c r="D147" s="19">
         <v>1615</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="30.6">
-      <c r="A148" s="16"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="18"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" ht="30.6">
-      <c r="A149" s="16"/>
+      <c r="A149" s="17"/>
       <c r="B149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="18"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" ht="20.399999999999999">
-      <c r="A150" s="19">
+      <c r="A150" s="20">
         <v>44805</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="26">
-        <v>150</v>
-      </c>
-      <c r="D150" s="23">
+      <c r="C150" s="21">
+        <v>150</v>
+      </c>
+      <c r="D150" s="22">
         <v>1465</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="30.6">
-      <c r="A151" s="19"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="26"/>
-      <c r="D151" s="23"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="22"/>
     </row>
     <row r="152" spans="1:4" ht="30.6">
-      <c r="A152" s="19"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="26"/>
-      <c r="D152" s="23"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="22"/>
     </row>
     <row r="153" spans="1:4" ht="30.6">
-      <c r="A153" s="16">
+      <c r="A153" s="17">
         <v>44804</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C153" s="25">
+      <c r="C153" s="18">
         <v>-6.5</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="19">
         <v>1315</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="30.6">
-      <c r="A154" s="16"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C154" s="25"/>
-      <c r="D154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" ht="20.399999999999999">
-      <c r="A155" s="19">
+      <c r="A155" s="20">
         <v>44804</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="26">
-        <v>150</v>
-      </c>
-      <c r="D155" s="23">
+      <c r="C155" s="21">
+        <v>150</v>
+      </c>
+      <c r="D155" s="22">
         <v>1321.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="30.6">
-      <c r="A156" s="19"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C156" s="26"/>
-      <c r="D156" s="23"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="22"/>
     </row>
     <row r="157" spans="1:4" ht="20.399999999999999">
-      <c r="A157" s="19"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="26"/>
-      <c r="D157" s="23"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="22"/>
     </row>
     <row r="158" spans="1:4" ht="20.399999999999999">
-      <c r="A158" s="16">
+      <c r="A158" s="17">
         <v>44774</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="17">
-        <v>150</v>
-      </c>
-      <c r="D158" s="18">
+      <c r="C158" s="23">
+        <v>150</v>
+      </c>
+      <c r="D158" s="19">
         <v>1171.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="30.6">
-      <c r="A159" s="16"/>
+      <c r="A159" s="17"/>
       <c r="B159" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="18"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="19"/>
     </row>
     <row r="160" spans="1:4" ht="30.6">
-      <c r="A160" s="16"/>
+      <c r="A160" s="17"/>
       <c r="B160" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="18"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="19"/>
     </row>
     <row r="161" spans="1:4" ht="20.399999999999999">
-      <c r="A161" s="19">
+      <c r="A161" s="20">
         <v>44774</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="26">
-        <v>150</v>
-      </c>
-      <c r="D161" s="23">
+      <c r="C161" s="21">
+        <v>150</v>
+      </c>
+      <c r="D161" s="22">
         <v>1021.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="30.6">
-      <c r="A162" s="19"/>
+      <c r="A162" s="20"/>
       <c r="B162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C162" s="26"/>
-      <c r="D162" s="23"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="22"/>
     </row>
     <row r="163" spans="1:4" ht="30.6">
-      <c r="A163" s="19"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="26"/>
-      <c r="D163" s="23"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="22"/>
     </row>
     <row r="164" spans="1:4" ht="30.6">
-      <c r="A164" s="16">
+      <c r="A164" s="17">
         <v>44773</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C164" s="25">
+      <c r="C164" s="18">
         <v>-6.5</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="19">
         <v>871.5</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="30.6">
-      <c r="A165" s="16"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C165" s="25"/>
-      <c r="D165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="19"/>
     </row>
     <row r="166" spans="1:4" ht="30.6">
-      <c r="A166" s="19">
+      <c r="A166" s="20">
         <v>44773</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C166" s="21">
+      <c r="C166" s="24">
         <v>-0.6</v>
       </c>
-      <c r="D166" s="23">
+      <c r="D166" s="22">
         <v>878</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30.6">
-      <c r="A167" s="19"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C167" s="21"/>
-      <c r="D167" s="23"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="22"/>
     </row>
     <row r="168" spans="1:4" ht="20.399999999999999">
-      <c r="A168" s="16">
+      <c r="A168" s="17">
         <v>44773</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="17">
+      <c r="C168" s="23">
         <v>300</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="19">
         <v>878.6</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30.6">
-      <c r="A169" s="16"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C169" s="17"/>
-      <c r="D169" s="18"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="19"/>
     </row>
     <row r="170" spans="1:4" ht="40.799999999999997">
-      <c r="A170" s="16"/>
+      <c r="A170" s="17"/>
       <c r="B170" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="18"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="19"/>
     </row>
     <row r="171" spans="1:4" ht="20.399999999999999">
-      <c r="A171" s="19">
+      <c r="A171" s="20">
         <v>44772</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="26">
-        <v>150</v>
-      </c>
-      <c r="D171" s="23">
+      <c r="C171" s="21">
+        <v>150</v>
+      </c>
+      <c r="D171" s="22">
         <v>578.6</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30.6">
-      <c r="A172" s="19"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C172" s="26"/>
-      <c r="D172" s="23"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="22"/>
     </row>
     <row r="173" spans="1:4" ht="30.6">
-      <c r="A173" s="19"/>
+      <c r="A173" s="20"/>
       <c r="B173" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="26"/>
-      <c r="D173" s="23"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="22"/>
     </row>
     <row r="174" spans="1:4" ht="20.399999999999999">
-      <c r="A174" s="16">
+      <c r="A174" s="17">
         <v>44771</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="25">
+      <c r="C174" s="18">
         <v>-2050</v>
       </c>
-      <c r="D174" s="18">
+      <c r="D174" s="19">
         <v>428.6</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="40.799999999999997" customHeight="1">
-      <c r="A175" s="16"/>
+      <c r="A175" s="17"/>
       <c r="B175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C175" s="25"/>
-      <c r="D175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="19"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="16"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="25"/>
-      <c r="D176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="19"/>
     </row>
     <row r="177" spans="1:4" ht="20.399999999999999">
-      <c r="A177" s="16"/>
+      <c r="A177" s="17"/>
       <c r="B177" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C177" s="25"/>
-      <c r="D177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="19"/>
     </row>
     <row r="178" spans="1:4" ht="20.399999999999999">
-      <c r="A178" s="19">
+      <c r="A178" s="20">
         <v>44771</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C178" s="26">
-        <v>150</v>
-      </c>
-      <c r="D178" s="23">
+      <c r="C178" s="21">
+        <v>150</v>
+      </c>
+      <c r="D178" s="22">
         <v>2478.6</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="30.6">
-      <c r="A179" s="19"/>
+      <c r="A179" s="20"/>
       <c r="B179" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C179" s="26"/>
-      <c r="D179" s="23"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="22"/>
     </row>
     <row r="180" spans="1:4" ht="20.399999999999999">
-      <c r="A180" s="19"/>
+      <c r="A180" s="20"/>
       <c r="B180" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="26"/>
-      <c r="D180" s="23"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="22"/>
     </row>
     <row r="181" spans="1:4" ht="20.399999999999999">
-      <c r="A181" s="16">
+      <c r="A181" s="17">
         <v>44743</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="17">
-        <v>150</v>
-      </c>
-      <c r="D181" s="18">
+      <c r="C181" s="23">
+        <v>150</v>
+      </c>
+      <c r="D181" s="19">
         <v>2328.6</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="30.6">
-      <c r="A182" s="16"/>
+      <c r="A182" s="17"/>
       <c r="B182" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C182" s="17"/>
-      <c r="D182" s="18"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="19"/>
     </row>
     <row r="183" spans="1:4" ht="30.6">
-      <c r="A183" s="16"/>
+      <c r="A183" s="17"/>
       <c r="B183" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C183" s="17"/>
-      <c r="D183" s="18"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="19"/>
     </row>
     <row r="184" spans="1:4" ht="20.399999999999999">
-      <c r="A184" s="19">
+      <c r="A184" s="20">
         <v>44743</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="26">
-        <v>150</v>
-      </c>
-      <c r="D184" s="23">
+      <c r="C184" s="21">
+        <v>150</v>
+      </c>
+      <c r="D184" s="22">
         <v>2178.6</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="30.6">
-      <c r="A185" s="19"/>
+      <c r="A185" s="20"/>
       <c r="B185" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C185" s="26"/>
-      <c r="D185" s="23"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="22"/>
     </row>
     <row r="186" spans="1:4" ht="30.6">
-      <c r="A186" s="19"/>
+      <c r="A186" s="20"/>
       <c r="B186" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="26"/>
-      <c r="D186" s="23"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="22"/>
     </row>
     <row r="187" spans="1:4" ht="30.6">
-      <c r="A187" s="16">
+      <c r="A187" s="17">
         <v>44742</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C187" s="25">
+      <c r="C187" s="18">
         <v>-6.5</v>
       </c>
-      <c r="D187" s="18">
+      <c r="D187" s="19">
         <v>2028.6</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="30.6">
-      <c r="A188" s="16"/>
+      <c r="A188" s="17"/>
       <c r="B188" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C188" s="25"/>
-      <c r="D188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="19"/>
     </row>
     <row r="189" spans="1:4" ht="20.399999999999999">
-      <c r="A189" s="19">
+      <c r="A189" s="20">
         <v>44742</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="26">
-        <v>150</v>
-      </c>
-      <c r="D189" s="23">
+      <c r="C189" s="21">
+        <v>150</v>
+      </c>
+      <c r="D189" s="22">
         <v>2035.1</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="30.6">
-      <c r="A190" s="19"/>
+      <c r="A190" s="20"/>
       <c r="B190" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="26"/>
-      <c r="D190" s="23"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="22"/>
     </row>
     <row r="191" spans="1:4" ht="30.6">
-      <c r="A191" s="19"/>
+      <c r="A191" s="20"/>
       <c r="B191" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C191" s="26"/>
-      <c r="D191" s="23"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="22"/>
     </row>
     <row r="192" spans="1:4" ht="20.399999999999999">
-      <c r="A192" s="16">
+      <c r="A192" s="17">
         <v>44741</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="23">
         <v>300</v>
       </c>
-      <c r="D192" s="18">
+      <c r="D192" s="19">
         <v>1885.1</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="30.6">
-      <c r="A193" s="16"/>
+      <c r="A193" s="17"/>
       <c r="B193" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C193" s="17"/>
-      <c r="D193" s="18"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="19"/>
     </row>
     <row r="194" spans="1:4" ht="30.6">
-      <c r="A194" s="16"/>
+      <c r="A194" s="17"/>
       <c r="B194" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="17"/>
-      <c r="D194" s="18"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="19"/>
     </row>
     <row r="195" spans="1:4" ht="20.399999999999999">
-      <c r="A195" s="19">
+      <c r="A195" s="20">
         <v>44741</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C195" s="26">
-        <v>150</v>
-      </c>
-      <c r="D195" s="23">
+      <c r="C195" s="21">
+        <v>150</v>
+      </c>
+      <c r="D195" s="22">
         <v>1585.1</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30.6">
-      <c r="A196" s="19"/>
+      <c r="A196" s="20"/>
       <c r="B196" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C196" s="26"/>
-      <c r="D196" s="23"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="22"/>
     </row>
     <row r="197" spans="1:4" ht="20.399999999999999">
-      <c r="A197" s="19"/>
+      <c r="A197" s="20"/>
       <c r="B197" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="26"/>
-      <c r="D197" s="23"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="22"/>
     </row>
     <row r="198" spans="1:4" ht="20.399999999999999">
-      <c r="A198" s="16">
+      <c r="A198" s="17">
         <v>44715</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C198" s="17">
-        <v>150</v>
-      </c>
-      <c r="D198" s="18">
+      <c r="C198" s="23">
+        <v>150</v>
+      </c>
+      <c r="D198" s="19">
         <v>1435.1</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="30.6">
-      <c r="A199" s="16"/>
+      <c r="A199" s="17"/>
       <c r="B199" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C199" s="17"/>
-      <c r="D199" s="18"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" ht="30.6">
-      <c r="A200" s="16"/>
+      <c r="A200" s="17"/>
       <c r="B200" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C200" s="17"/>
-      <c r="D200" s="18"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" ht="20.399999999999999">
-      <c r="A201" s="19">
+      <c r="A201" s="20">
         <v>44715</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C201" s="26">
+      <c r="C201" s="21">
         <v>300</v>
       </c>
-      <c r="D201" s="23">
+      <c r="D201" s="22">
         <v>1285.0999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="30.6">
-      <c r="A202" s="19"/>
+      <c r="A202" s="20"/>
       <c r="B202" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="26"/>
-      <c r="D202" s="23"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="22"/>
     </row>
     <row r="203" spans="1:4" ht="40.799999999999997">
-      <c r="A203" s="19"/>
+      <c r="A203" s="20"/>
       <c r="B203" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C203" s="26"/>
-      <c r="D203" s="23"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="22"/>
     </row>
     <row r="204" spans="1:4" ht="20.399999999999999">
-      <c r="A204" s="16">
+      <c r="A204" s="17">
         <v>44714</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="17">
-        <v>150</v>
-      </c>
-      <c r="D204" s="18">
+      <c r="C204" s="23">
+        <v>150</v>
+      </c>
+      <c r="D204" s="19">
         <v>985.1</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="30.6">
-      <c r="A205" s="16"/>
+      <c r="A205" s="17"/>
       <c r="B205" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C205" s="17"/>
-      <c r="D205" s="18"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="19"/>
     </row>
     <row r="206" spans="1:4" ht="30.6">
-      <c r="A206" s="16"/>
+      <c r="A206" s="17"/>
       <c r="B206" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C206" s="17"/>
-      <c r="D206" s="18"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="19"/>
     </row>
     <row r="207" spans="1:4" ht="30.6">
-      <c r="A207" s="19">
+      <c r="A207" s="20">
         <v>44712</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C207" s="21">
+      <c r="C207" s="24">
         <v>-6.5</v>
       </c>
-      <c r="D207" s="23">
+      <c r="D207" s="22">
         <v>835.1</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="30.6">
-      <c r="A208" s="19"/>
+      <c r="A208" s="20"/>
       <c r="B208" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C208" s="21"/>
-      <c r="D208" s="23"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="22"/>
     </row>
     <row r="209" spans="1:4" ht="30.6">
-      <c r="A209" s="16">
+      <c r="A209" s="17">
         <v>44712</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C209" s="25">
+      <c r="C209" s="18">
         <v>-2.1</v>
       </c>
-      <c r="D209" s="18">
+      <c r="D209" s="19">
         <v>841.6</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30.6">
-      <c r="A210" s="16"/>
+      <c r="A210" s="17"/>
       <c r="B210" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C210" s="25"/>
-      <c r="D210" s="18"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="19"/>
     </row>
     <row r="211" spans="1:4" ht="20.399999999999999">
-      <c r="A211" s="19">
+      <c r="A211" s="20">
         <v>44712</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C211" s="26">
-        <v>150</v>
-      </c>
-      <c r="D211" s="23">
+      <c r="C211" s="21">
+        <v>150</v>
+      </c>
+      <c r="D211" s="22">
         <v>843.7</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30.6">
-      <c r="A212" s="19"/>
+      <c r="A212" s="20"/>
       <c r="B212" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C212" s="26"/>
-      <c r="D212" s="23"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="22"/>
     </row>
     <row r="213" spans="1:4" ht="30.6">
-      <c r="A213" s="19"/>
+      <c r="A213" s="20"/>
       <c r="B213" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C213" s="26"/>
-      <c r="D213" s="23"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="22"/>
     </row>
     <row r="214" spans="1:4" ht="20.399999999999999">
-      <c r="A214" s="16">
+      <c r="A214" s="17">
         <v>44708</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="17">
-        <v>150</v>
-      </c>
-      <c r="D214" s="18">
+      <c r="C214" s="23">
+        <v>150</v>
+      </c>
+      <c r="D214" s="19">
         <v>693.7</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="30.6">
-      <c r="A215" s="16"/>
+      <c r="A215" s="17"/>
       <c r="B215" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C215" s="17"/>
-      <c r="D215" s="18"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="19"/>
     </row>
     <row r="216" spans="1:4" ht="20.399999999999999">
-      <c r="A216" s="16"/>
+      <c r="A216" s="17"/>
       <c r="B216" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C216" s="17"/>
-      <c r="D216" s="18"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="19"/>
     </row>
     <row r="217" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A217" s="19">
+      <c r="A217" s="20">
         <v>44705</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C217" s="21">
+      <c r="C217" s="24">
         <v>-341.67</v>
       </c>
-      <c r="D217" s="23">
+      <c r="D217" s="22">
         <v>543.70000000000005</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="19"/>
+      <c r="A218" s="20"/>
       <c r="B218" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C218" s="21"/>
-      <c r="D218" s="23"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="22"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="19"/>
+      <c r="A219" s="20"/>
       <c r="B219" s="2">
         <v>10100086160634</v>
       </c>
-      <c r="C219" s="21"/>
-      <c r="D219" s="23"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="22"/>
     </row>
     <row r="220" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A220" s="19"/>
+      <c r="A220" s="20"/>
       <c r="B220" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C220" s="21"/>
-      <c r="D220" s="23"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="22"/>
     </row>
     <row r="221" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A221" s="20"/>
+      <c r="A221" s="25"/>
       <c r="B221" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C221" s="22"/>
-      <c r="D221" s="24"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C221" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="222">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="C217:C221"/>
+    <mergeCell ref="D217:D221"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="D201:D203"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
@@ -3342,198 +4109,24 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="C217:C221"/>
-    <mergeCell ref="D217:D221"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3541,10 +4134,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3580,7 +4174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="8">
         <v>45118</v>
       </c>
@@ -4583,7 +5177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="8">
         <v>44804</v>
       </c>
@@ -4660,7 +5254,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="8">
         <v>44773</v>
       </c>
@@ -4677,7 +5271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="11">
         <v>44773</v>
       </c>
@@ -4734,7 +5328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="8">
         <v>44771</v>
       </c>
@@ -4817,7 +5411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="8">
         <v>44742</v>
       </c>
@@ -4954,7 +5548,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="11">
         <v>44712</v>
       </c>
@@ -4971,7 +5565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="8">
         <v>44712</v>
       </c>
@@ -5028,7 +5622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="11">
         <v>44705</v>
       </c>
@@ -5044,7 +5638,7 @@
       <c r="E75" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="27">
+      <c r="F75" s="16">
         <v>10100086160634</v>
       </c>
       <c r="G75" t="s">
@@ -5052,7 +5646,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G75" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}"/>
+  <autoFilter ref="A1:G75" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="$150.00"/>
+        <filter val="$300.00"/>
+        <filter val="$600.00"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5060,1340 +5662,1217 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA793499-2F87-4161-B660-7261413A1647}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
+      <c r="C1" t="s">
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="11">
         <v>45112</v>
       </c>
       <c r="B2" s="12">
         <v>150</v>
       </c>
-      <c r="C2" s="13">
-        <v>10015</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>45111</v>
       </c>
       <c r="B3" s="14">
         <v>300</v>
       </c>
-      <c r="C3" s="10">
-        <v>9865</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="11">
         <v>45108</v>
       </c>
       <c r="B4" s="12">
         <v>150</v>
       </c>
-      <c r="C4" s="13">
-        <v>9565</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8">
         <v>45107</v>
       </c>
       <c r="B5" s="14">
         <v>150</v>
       </c>
-      <c r="C5" s="10">
-        <v>9415</v>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
         <v>111</v>
       </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="11">
         <v>45083</v>
       </c>
       <c r="B6" s="12">
         <v>150</v>
       </c>
-      <c r="C6" s="13">
-        <v>9265</v>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="8">
         <v>45076</v>
       </c>
       <c r="B7" s="14">
         <v>150</v>
       </c>
-      <c r="C7" s="10">
-        <v>9115</v>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="11">
         <v>45047</v>
       </c>
       <c r="B8" s="12">
         <v>300</v>
       </c>
-      <c r="C8" s="13">
-        <v>8965</v>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="8">
         <v>45047</v>
       </c>
       <c r="B9" s="14">
         <v>150</v>
       </c>
-      <c r="C9" s="10">
-        <v>8665</v>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
         <v>115</v>
       </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="11">
         <v>45047</v>
       </c>
       <c r="B10" s="12">
         <v>150</v>
       </c>
-      <c r="C10" s="13">
-        <v>8515</v>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
         <v>116</v>
       </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="8">
         <v>45047</v>
       </c>
       <c r="B11" s="14">
         <v>150</v>
       </c>
-      <c r="C11" s="10">
-        <v>8365</v>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
         <v>117</v>
       </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="11">
         <v>45047</v>
       </c>
       <c r="B12" s="12">
         <v>150</v>
       </c>
-      <c r="C12" s="13">
-        <v>8215</v>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
         <v>118</v>
       </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="8">
         <v>45047</v>
       </c>
       <c r="B13" s="14">
         <v>150</v>
       </c>
-      <c r="C13" s="10">
-        <v>8065</v>
+      <c r="C13" t="s">
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="11">
         <v>45044</v>
       </c>
       <c r="B14" s="12">
         <v>150</v>
       </c>
-      <c r="C14" s="13">
-        <v>7915</v>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8">
         <v>45017</v>
       </c>
       <c r="B15" s="14">
         <v>150</v>
       </c>
-      <c r="C15" s="10">
-        <v>7765</v>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
         <v>121</v>
       </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="11">
         <v>45016</v>
       </c>
       <c r="B16" s="12">
         <v>150</v>
       </c>
-      <c r="C16" s="13">
-        <v>7615</v>
+      <c r="C16" t="s">
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
         <v>122</v>
       </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8">
         <v>45016</v>
       </c>
       <c r="B17" s="14">
         <v>300</v>
       </c>
-      <c r="C17" s="10">
-        <v>7465</v>
+      <c r="C17" t="s">
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="11">
         <v>45015</v>
       </c>
       <c r="B18" s="12">
         <v>150</v>
       </c>
-      <c r="C18" s="13">
-        <v>7165</v>
+      <c r="C18" t="s">
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
         <v>124</v>
       </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="E18" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="8">
         <v>44987</v>
       </c>
       <c r="B19" s="14">
         <v>150</v>
       </c>
-      <c r="C19" s="10">
-        <v>7015</v>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="11">
         <v>44987</v>
       </c>
       <c r="B20" s="12">
         <v>150</v>
       </c>
-      <c r="C20" s="13">
-        <v>6865</v>
+      <c r="C20" t="s">
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
         <v>126</v>
       </c>
-      <c r="F20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="8">
         <v>44987</v>
       </c>
       <c r="B21" s="14">
         <v>150</v>
       </c>
-      <c r="C21" s="10">
-        <v>6715</v>
+      <c r="C21" t="s">
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
         <v>127</v>
       </c>
-      <c r="F21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="11">
         <v>44986</v>
       </c>
       <c r="B22" s="12">
         <v>150</v>
       </c>
-      <c r="C22" s="13">
-        <v>6565</v>
+      <c r="C22" t="s">
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
         <v>128</v>
       </c>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="8">
         <v>44986</v>
       </c>
       <c r="B23" s="14">
         <v>150</v>
       </c>
-      <c r="C23" s="10">
-        <v>6415</v>
+      <c r="C23" t="s">
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
         <v>129</v>
       </c>
-      <c r="F23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="11">
         <v>44981</v>
       </c>
       <c r="B24" s="12">
         <v>150</v>
       </c>
-      <c r="C24" s="13">
-        <v>6265</v>
+      <c r="C24" t="s">
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
         <v>130</v>
       </c>
-      <c r="F24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8">
         <v>44958</v>
       </c>
       <c r="B25" s="14">
         <v>150</v>
       </c>
-      <c r="C25" s="10">
-        <v>6115</v>
+      <c r="C25" t="s">
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
         <v>131</v>
       </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="11">
         <v>44958</v>
       </c>
       <c r="B26" s="12">
         <v>300</v>
       </c>
-      <c r="C26" s="13">
-        <v>5965</v>
+      <c r="C26" t="s">
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
         <v>132</v>
       </c>
-      <c r="F26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="8">
         <v>44958</v>
       </c>
       <c r="B27" s="14">
         <v>150</v>
       </c>
-      <c r="C27" s="10">
-        <v>5665</v>
+      <c r="C27" t="s">
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
         <v>133</v>
       </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="11">
         <v>44957</v>
       </c>
       <c r="B28" s="12">
         <v>150</v>
       </c>
-      <c r="C28" s="13">
-        <v>5515</v>
+      <c r="C28" t="s">
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
         <v>134</v>
       </c>
-      <c r="F28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="8">
         <v>44928</v>
       </c>
       <c r="B29" s="14">
         <v>150</v>
       </c>
-      <c r="C29" s="10">
-        <v>5365</v>
+      <c r="C29" t="s">
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
         <v>135</v>
       </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="11">
         <v>44927</v>
       </c>
       <c r="B30" s="12">
         <v>150</v>
       </c>
-      <c r="C30" s="13">
-        <v>5215</v>
+      <c r="C30" t="s">
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
         <v>136</v>
       </c>
-      <c r="F30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="8">
         <v>44926</v>
       </c>
       <c r="B31" s="14">
         <v>150</v>
       </c>
-      <c r="C31" s="10">
-        <v>5065</v>
+      <c r="C31" t="s">
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
         <v>137</v>
       </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="11">
         <v>44922</v>
       </c>
       <c r="B32" s="12">
         <v>150</v>
       </c>
-      <c r="C32" s="13">
-        <v>4915</v>
+      <c r="C32" t="s">
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
         <v>138</v>
       </c>
-      <c r="F32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="E32" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="8">
         <v>44922</v>
       </c>
       <c r="B33" s="14">
         <v>150</v>
       </c>
-      <c r="C33" s="10">
-        <v>4765</v>
+      <c r="C33" t="s">
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
         <v>139</v>
       </c>
-      <c r="F33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="E33" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="11">
         <v>44900</v>
       </c>
       <c r="B34" s="12">
         <v>150</v>
       </c>
-      <c r="C34" s="13">
-        <v>4615</v>
+      <c r="C34" t="s">
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
         <v>140</v>
       </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="8">
         <v>44900</v>
       </c>
       <c r="B35" s="14">
         <v>300</v>
       </c>
-      <c r="C35" s="10">
-        <v>4465</v>
+      <c r="C35" t="s">
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
         <v>141</v>
       </c>
-      <c r="F35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="E35" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="11">
         <v>44896</v>
       </c>
       <c r="B36" s="12">
         <v>150</v>
       </c>
-      <c r="C36" s="13">
-        <v>4165</v>
+      <c r="C36" t="s">
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
         <v>142</v>
       </c>
-      <c r="F36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="8">
         <v>44896</v>
       </c>
       <c r="B37" s="14">
         <v>150</v>
       </c>
-      <c r="C37" s="10">
-        <v>4015</v>
+      <c r="C37" t="s">
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
         <v>143</v>
       </c>
-      <c r="F37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="E37" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="11">
         <v>44879</v>
       </c>
       <c r="B38" s="12">
         <v>150</v>
       </c>
-      <c r="C38" s="13">
-        <v>3865</v>
+      <c r="C38" t="s">
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
         <v>144</v>
       </c>
-      <c r="F38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E38" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="8">
         <v>44866</v>
       </c>
       <c r="B39" s="14">
         <v>150</v>
       </c>
-      <c r="C39" s="10">
-        <v>3715</v>
+      <c r="C39" t="s">
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
         <v>145</v>
       </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="11">
         <v>44866</v>
       </c>
       <c r="B40" s="12">
         <v>300</v>
       </c>
-      <c r="C40" s="13">
-        <v>3565</v>
+      <c r="C40" t="s">
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
         <v>146</v>
       </c>
-      <c r="F40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="E40" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="8">
         <v>44866</v>
       </c>
       <c r="B41" s="14">
         <v>150</v>
       </c>
-      <c r="C41" s="10">
-        <v>3265</v>
+      <c r="C41" t="s">
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
         <v>147</v>
       </c>
-      <c r="F41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="E41" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="11">
         <v>44862</v>
       </c>
       <c r="B42" s="12">
         <v>150</v>
       </c>
-      <c r="C42" s="13">
-        <v>3115</v>
+      <c r="C42" t="s">
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
         <v>148</v>
       </c>
-      <c r="F42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="E42" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="8">
         <v>44838</v>
       </c>
       <c r="B43" s="14">
         <v>150</v>
       </c>
-      <c r="C43" s="10">
-        <v>2965</v>
+      <c r="C43" t="s">
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
         <v>149</v>
       </c>
-      <c r="F43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="11">
         <v>44836</v>
       </c>
       <c r="B44" s="12">
         <v>150</v>
       </c>
-      <c r="C44" s="13">
-        <v>2815</v>
+      <c r="C44" t="s">
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="8">
         <v>44836</v>
       </c>
       <c r="B45" s="14">
         <v>150</v>
       </c>
-      <c r="C45" s="10">
-        <v>2665</v>
+      <c r="C45" t="s">
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
         <v>151</v>
       </c>
-      <c r="F45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="11">
         <v>44834</v>
       </c>
       <c r="B46" s="12">
         <v>150</v>
       </c>
-      <c r="C46" s="13">
-        <v>2515</v>
+      <c r="C46" t="s">
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
         <v>152</v>
       </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="8">
         <v>44833</v>
       </c>
       <c r="B47" s="14">
         <v>600</v>
       </c>
-      <c r="C47" s="10">
-        <v>2365</v>
+      <c r="C47" t="s">
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
         <v>153</v>
       </c>
-      <c r="F47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="E47" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="11">
         <v>44813</v>
       </c>
       <c r="B48" s="12">
         <v>150</v>
       </c>
-      <c r="C48" s="13">
-        <v>1765</v>
+      <c r="C48" t="s">
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
         <v>154</v>
       </c>
-      <c r="F48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="E48" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="8">
         <v>44805</v>
       </c>
       <c r="B49" s="14">
         <v>150</v>
       </c>
-      <c r="C49" s="10">
-        <v>1615</v>
+      <c r="C49" t="s">
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
         <v>155</v>
       </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="E49" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="11">
         <v>44805</v>
       </c>
       <c r="B50" s="12">
         <v>150</v>
       </c>
-      <c r="C50" s="13">
-        <v>1465</v>
+      <c r="C50" t="s">
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
         <v>156</v>
       </c>
-      <c r="F50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="E50" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="11">
         <v>44804</v>
       </c>
       <c r="B51" s="12">
         <v>150</v>
       </c>
-      <c r="C51" s="13">
-        <v>1321.5</v>
+      <c r="C51" t="s">
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
         <v>157</v>
       </c>
-      <c r="F51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="E51" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="8">
         <v>44774</v>
       </c>
       <c r="B52" s="14">
         <v>150</v>
       </c>
-      <c r="C52" s="10">
-        <v>1171.5</v>
+      <c r="C52" t="s">
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
         <v>158</v>
       </c>
-      <c r="F52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="E52" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="11">
         <v>44774</v>
       </c>
       <c r="B53" s="12">
         <v>150</v>
       </c>
-      <c r="C53" s="13">
-        <v>1021.5</v>
+      <c r="C53" t="s">
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
         <v>159</v>
       </c>
-      <c r="F53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="E53" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="8">
         <v>44773</v>
       </c>
       <c r="B54" s="14">
         <v>300</v>
       </c>
-      <c r="C54" s="10">
-        <v>878.6</v>
+      <c r="C54" t="s">
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
         <v>160</v>
       </c>
-      <c r="F54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="E54" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="11">
         <v>44772</v>
       </c>
       <c r="B55" s="12">
         <v>150</v>
       </c>
-      <c r="C55" s="13">
-        <v>578.6</v>
+      <c r="C55" t="s">
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
         <v>161</v>
       </c>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="E55" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="11">
         <v>44771</v>
       </c>
       <c r="B56" s="12">
         <v>150</v>
       </c>
-      <c r="C56" s="13">
-        <v>2478.6</v>
+      <c r="C56" t="s">
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
         <v>162</v>
       </c>
-      <c r="F56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="E56" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="8">
         <v>44743</v>
       </c>
       <c r="B57" s="14">
         <v>150</v>
       </c>
-      <c r="C57" s="10">
-        <v>2328.6</v>
+      <c r="C57" t="s">
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
         <v>163</v>
       </c>
-      <c r="F57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="E57" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="11">
         <v>44743</v>
       </c>
       <c r="B58" s="12">
         <v>150</v>
       </c>
-      <c r="C58" s="13">
-        <v>2178.6</v>
+      <c r="C58" t="s">
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
         <v>164</v>
       </c>
-      <c r="F58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="E58" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="11">
         <v>44742</v>
       </c>
       <c r="B59" s="12">
         <v>150</v>
       </c>
-      <c r="C59" s="13">
-        <v>2035.1</v>
+      <c r="C59" t="s">
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
         <v>165</v>
       </c>
-      <c r="F59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="E59" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="8">
         <v>44741</v>
       </c>
       <c r="B60" s="14">
         <v>300</v>
       </c>
-      <c r="C60" s="10">
-        <v>1885.1</v>
+      <c r="C60" t="s">
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
         <v>166</v>
       </c>
-      <c r="F60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="E60" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="11">
         <v>44741</v>
       </c>
       <c r="B61" s="12">
         <v>150</v>
       </c>
-      <c r="C61" s="13">
-        <v>1585.1</v>
+      <c r="C61" t="s">
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
         <v>167</v>
       </c>
-      <c r="F61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="E61" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="8">
         <v>44715</v>
       </c>
       <c r="B62" s="14">
         <v>150</v>
       </c>
-      <c r="C62" s="10">
-        <v>1435.1</v>
+      <c r="C62" t="s">
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
-      </c>
-      <c r="F62" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5">
       <c r="A63" s="11">
         <v>44715</v>
       </c>
       <c r="B63" s="12">
         <v>300</v>
       </c>
-      <c r="C63" s="13">
-        <v>1285.0999999999999</v>
+      <c r="C63" t="s">
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
         <v>169</v>
       </c>
-      <c r="F63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="E63" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="8">
         <v>44714</v>
       </c>
       <c r="B64" s="14">
         <v>150</v>
       </c>
-      <c r="C64" s="10">
-        <v>985.1</v>
+      <c r="C64" t="s">
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
-      </c>
-      <c r="F64" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:5">
       <c r="A65" s="11">
         <v>44712</v>
       </c>
       <c r="B65" s="12">
         <v>150</v>
       </c>
-      <c r="C65" s="13">
-        <v>843.7</v>
+      <c r="C65" t="s">
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
-      </c>
-      <c r="F65" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:5">
       <c r="A66" s="8">
         <v>44708</v>
       </c>
       <c r="B66" s="14">
         <v>150</v>
       </c>
-      <c r="C66" s="10">
-        <v>693.7</v>
+      <c r="C66" t="s">
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66" t="s">
         <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F580CDC-3659-4457-B801-C0F2976CA71C}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="29">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="29">
+        <v>11550</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data_100087848963_2023-07-21.xlsx
+++ b/raw_data_100087848963_2023-07-21.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A7817-CCFD-4D5D-A9DF-2D1A4A76B33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43206B60-629D-4509-99D9-E11DD44A838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
     <sheet name="clean_data" sheetId="2" r:id="rId2"/>
-    <sheet name="strata_fee" sheetId="4" r:id="rId3"/>
-    <sheet name="sf_pivot" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">clean_data!$A$1:$G$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$C$1:$C$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -364,222 +359,6 @@
   </si>
   <si>
     <t>DONGLI LIU</t>
-  </si>
-  <si>
-    <t>Payer</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>20230705194805814315</t>
-  </si>
-  <si>
-    <t>20230704154714813333</t>
-  </si>
-  <si>
-    <t>20230701204439814025</t>
-  </si>
-  <si>
-    <t>20230630054126813522</t>
-  </si>
-  <si>
-    <t>20230606083305814404</t>
-  </si>
-  <si>
-    <t>20230530163859814369</t>
-  </si>
-  <si>
-    <t>20230501180206814051</t>
-  </si>
-  <si>
-    <t>20230501145741813217</t>
-  </si>
-  <si>
-    <t>20230501134933813315</t>
-  </si>
-  <si>
-    <t>20230501121028813801</t>
-  </si>
-  <si>
-    <t>20230501120957814861</t>
-  </si>
-  <si>
-    <t>20230501120924814853</t>
-  </si>
-  <si>
-    <t>20230428193105814655</t>
-  </si>
-  <si>
-    <t>20230401134832814898</t>
-  </si>
-  <si>
-    <t>20230331072337813777</t>
-  </si>
-  <si>
-    <t>20230331054355813952</t>
-  </si>
-  <si>
-    <t>20230330142222812860</t>
-  </si>
-  <si>
-    <t>20230302153502814406</t>
-  </si>
-  <si>
-    <t>20230302072719812526</t>
-  </si>
-  <si>
-    <t>20230302072641814718</t>
-  </si>
-  <si>
-    <t>20230301190435812268</t>
-  </si>
-  <si>
-    <t>20230228221740814067</t>
-  </si>
-  <si>
-    <t>20230224112033813292</t>
-  </si>
-  <si>
-    <t>20230201161250812564</t>
-  </si>
-  <si>
-    <t>20230201065125813526</t>
-  </si>
-  <si>
-    <t>20230131215635814230</t>
-  </si>
-  <si>
-    <t>20230131110332814029</t>
-  </si>
-  <si>
-    <t>20230102094259813200</t>
-  </si>
-  <si>
-    <t>20230101140733813853</t>
-  </si>
-  <si>
-    <t>20221231070111814838</t>
-  </si>
-  <si>
-    <t>20221226233450814041</t>
-  </si>
-  <si>
-    <t>20221226233254813811</t>
-  </si>
-  <si>
-    <t>20221205091159812301</t>
-  </si>
-  <si>
-    <t>20221205052515813993</t>
-  </si>
-  <si>
-    <t>20221201102153812851</t>
-  </si>
-  <si>
-    <t>20221201074144812391</t>
-  </si>
-  <si>
-    <t>20221113211305814568</t>
-  </si>
-  <si>
-    <t>20221101105446812447</t>
-  </si>
-  <si>
-    <t>20221101092556413389</t>
-  </si>
-  <si>
-    <t>20221101082525413535</t>
-  </si>
-  <si>
-    <t>20221028203342413005</t>
-  </si>
-  <si>
-    <t>20221003232656203286</t>
-  </si>
-  <si>
-    <t>20221002100802201926</t>
-  </si>
-  <si>
-    <t>20221002053814203736</t>
-  </si>
-  <si>
-    <t>20220930165853202439</t>
-  </si>
-  <si>
-    <t>20220929043741201423</t>
-  </si>
-  <si>
-    <t>20220908233924202662</t>
-  </si>
-  <si>
-    <t>20220901151903203839</t>
-  </si>
-  <si>
-    <t>20220831214519202877</t>
-  </si>
-  <si>
-    <t>20220831164741203790</t>
-  </si>
-  <si>
-    <t>20220801153101201465</t>
-  </si>
-  <si>
-    <t>20220801103412201168</t>
-  </si>
-  <si>
-    <t>20220731110626668921</t>
-  </si>
-  <si>
-    <t>20220730090736203088</t>
-  </si>
-  <si>
-    <t>20220729074647203140</t>
-  </si>
-  <si>
-    <t>20220701112019203867</t>
-  </si>
-  <si>
-    <t>20220701081603201499</t>
-  </si>
-  <si>
-    <t>20220629224708202856</t>
-  </si>
-  <si>
-    <t>20220629162419203595</t>
-  </si>
-  <si>
-    <t>20220629150729201494</t>
-  </si>
-  <si>
-    <t>20220603154529666891</t>
-  </si>
-  <si>
-    <t>20220603095407666866</t>
-  </si>
-  <si>
-    <t>20220602084104666385</t>
-  </si>
-  <si>
-    <t>20220531130341666708</t>
-  </si>
-  <si>
-    <t>20220527095424662054</t>
-  </si>
-  <si>
-    <t>Pay Method</t>
-  </si>
-  <si>
-    <t>Sum of Amount</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>EDWINALBERT IMHOFF</t>
   </si>
 </sst>
 </file>
@@ -732,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -783,7 +562,7 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,32 +571,26 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,574 +607,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dongli" refreshedDate="45128.478500231482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="65" xr:uid="{E93254BA-6910-4E43-8DBD-AF066E9BDCAC}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E66" sheet="strata_fee"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Date" numFmtId="15">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-05-27T00:00:00" maxDate="2023-07-06T00:00:00"/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="8">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="150" maxValue="600"/>
-    </cacheField>
-    <cacheField name="Pay Method" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Ref" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Payer" numFmtId="0">
-      <sharedItems count="11">
-        <s v="DONGLI LIU"/>
-        <s v="EDWINALBERT IMHOFF"/>
-        <s v="XIAOPENG FENG"/>
-        <s v="TRACY CARRIER"/>
-        <s v="SIDDHARTH SINHA"/>
-        <s v="DONGLILIU" u="1"/>
-        <s v="XIAOPENGFENG" u="1"/>
-        <s v="TRACYCARRIER" u="1"/>
-        <s v="EDWINALBERTIMHOFF" u="1"/>
-        <s v="SIDDHARTHSINHA" u="1"/>
-        <s v="EDWIN ALBERT IMHOFF" u="1"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="65">
-  <r>
-    <d v="2023-07-05T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230705194805814315"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2023-07-04T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230704154714813333"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2023-07-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230701204439814025"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2023-06-30T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230630054126813522"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2023-06-06T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230606083305814404"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2023-05-30T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230530163859814369"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2023-05-01T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230501180206814051"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2023-05-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230501145741813217"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2023-05-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230501134933813315"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2023-05-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230501121028813801"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2023-05-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230501120957814861"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2023-05-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230501120924814853"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2023-04-28T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230428193105814655"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2023-04-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230401134832814898"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2023-03-31T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230331072337813777"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2023-03-31T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230331054355813952"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2023-03-30T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230330142222812860"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2023-03-02T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230302153502814406"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2023-03-02T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230302072719812526"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2023-03-02T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230302072641814718"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2023-03-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230301190435812268"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2023-03-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230228221740814067"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2023-02-24T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230224112033813292"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2023-02-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230201161250812564"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2023-02-01T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230201065125813526"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2023-02-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230131215635814230"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2023-01-31T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230131110332814029"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2023-01-02T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230102094259813200"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2023-01-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20230101140733813853"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-12-31T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221231070111814838"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-12-27T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221226233450814041"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-12-27T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221226233254813811"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-12-05T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221205091159812301"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-12-05T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221205052515813993"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-12-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221201102153812851"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-12-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221201074144812391"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-11-14T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221113211305814568"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-11-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221101105446812447"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-11-01T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221101092556413389"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-11-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221101082525413535"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-10-28T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221028203342413005"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-10-04T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221003232656203286"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-10-02T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221002100802201926"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-10-02T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20221002053814203736"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-09-30T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220930165853202439"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-09-29T00:00:00"/>
-    <n v="600"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220929043741201423"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-09-09T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220908233924202662"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-09-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220901151903203839"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-09-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220831214519202877"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-08-31T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220831164741203790"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-08-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220801153101201465"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-08-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220801103412201168"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-07-31T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220731110626668921"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-07-30T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220730090736203088"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-07-29T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220729074647203140"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-07-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220701112019203867"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-07-01T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220701081603201499"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-06-30T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220629224708202856"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220629162419203595"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220629150729201494"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220603154529666891"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="300"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220603095407666866"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-06-02T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220602084104666385"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-05-31T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220531130341666708"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-05-27T00:00:00"/>
-    <n v="150"/>
-    <s v="e-Transfer credit"/>
-    <s v="20220527095424662054"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF19025F-1016-4A7A-A2B4-7153ABDA26AA}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item x="4"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1705,7 +910,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="26">
         <v>-2310</v>
       </c>
       <c r="D2" s="19">
@@ -1717,7 +922,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4">
@@ -1725,7 +930,7 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1">
@@ -1733,7 +938,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999">
@@ -1743,10 +948,10 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21">
-        <v>150</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="27">
+        <v>150</v>
+      </c>
+      <c r="D6" s="24">
         <v>10015</v>
       </c>
     </row>
@@ -1755,16 +960,16 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999">
       <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999">
       <c r="A9" s="17">
@@ -1773,7 +978,7 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <v>300</v>
       </c>
       <c r="D9" s="19">
@@ -1785,7 +990,7 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="30.6">
@@ -1793,7 +998,7 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999">
@@ -1803,10 +1008,10 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="21">
-        <v>150</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="27">
+        <v>150</v>
+      </c>
+      <c r="D12" s="24">
         <v>9565</v>
       </c>
     </row>
@@ -1815,16 +1020,16 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="30.6">
       <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="20.399999999999999">
       <c r="A15" s="17">
@@ -1833,7 +1038,7 @@
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="18">
         <v>150</v>
       </c>
       <c r="D15" s="19">
@@ -1845,7 +1050,7 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="30.6">
@@ -1853,7 +1058,7 @@
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="20.399999999999999">
@@ -1863,10 +1068,10 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="21">
-        <v>150</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="27">
+        <v>150</v>
+      </c>
+      <c r="D18" s="24">
         <v>9265</v>
       </c>
     </row>
@@ -1875,16 +1080,16 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="20.399999999999999">
       <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="20.399999999999999">
       <c r="A21" s="17">
@@ -1893,7 +1098,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="18">
         <v>150</v>
       </c>
       <c r="D21" s="19">
@@ -1905,7 +1110,7 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="30.6">
@@ -1913,7 +1118,7 @@
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="20.399999999999999">
@@ -1923,10 +1128,10 @@
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <v>300</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="24">
         <v>8965</v>
       </c>
     </row>
@@ -1935,16 +1140,16 @@
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30.6">
       <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="20.399999999999999">
       <c r="A27" s="17">
@@ -1953,7 +1158,7 @@
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="18">
         <v>150</v>
       </c>
       <c r="D27" s="19">
@@ -1965,7 +1170,7 @@
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="20.399999999999999">
@@ -1973,7 +1178,7 @@
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="20.399999999999999">
@@ -1983,10 +1188,10 @@
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="21">
-        <v>150</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="C30" s="27">
+        <v>150</v>
+      </c>
+      <c r="D30" s="24">
         <v>8515</v>
       </c>
     </row>
@@ -1995,16 +1200,16 @@
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" ht="30.6">
       <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" ht="20.399999999999999">
       <c r="A33" s="17">
@@ -2013,7 +1218,7 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="18">
         <v>150</v>
       </c>
       <c r="D33" s="19">
@@ -2025,7 +1230,7 @@
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="30.6">
@@ -2033,7 +1238,7 @@
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="20.399999999999999">
@@ -2043,10 +1248,10 @@
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="21">
-        <v>150</v>
-      </c>
-      <c r="D36" s="22">
+      <c r="C36" s="27">
+        <v>150</v>
+      </c>
+      <c r="D36" s="24">
         <v>8215</v>
       </c>
     </row>
@@ -2055,16 +1260,16 @@
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="30.6">
       <c r="A38" s="20"/>
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" ht="20.399999999999999">
       <c r="A39" s="17">
@@ -2073,7 +1278,7 @@
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="18">
         <v>150</v>
       </c>
       <c r="D39" s="19">
@@ -2085,7 +1290,7 @@
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="30.6">
@@ -2093,7 +1298,7 @@
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="20.399999999999999">
@@ -2103,10 +1308,10 @@
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="21">
-        <v>150</v>
-      </c>
-      <c r="D42" s="22">
+      <c r="C42" s="27">
+        <v>150</v>
+      </c>
+      <c r="D42" s="24">
         <v>7915</v>
       </c>
     </row>
@@ -2115,16 +1320,16 @@
       <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" ht="30.6">
       <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" ht="20.399999999999999">
       <c r="A45" s="17">
@@ -2133,7 +1338,7 @@
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="18">
         <v>150</v>
       </c>
       <c r="D45" s="19">
@@ -2145,7 +1350,7 @@
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="30.6">
@@ -2153,7 +1358,7 @@
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="20.399999999999999">
@@ -2163,10 +1368,10 @@
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="21">
-        <v>150</v>
-      </c>
-      <c r="D48" s="22">
+      <c r="C48" s="27">
+        <v>150</v>
+      </c>
+      <c r="D48" s="24">
         <v>7615</v>
       </c>
     </row>
@@ -2175,16 +1380,16 @@
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" ht="30.6">
       <c r="A50" s="20"/>
       <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="20.399999999999999">
       <c r="A51" s="17">
@@ -2193,7 +1398,7 @@
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="18">
         <v>300</v>
       </c>
       <c r="D51" s="19">
@@ -2205,7 +1410,7 @@
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="30.6">
@@ -2213,7 +1418,7 @@
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" ht="20.399999999999999">
@@ -2223,10 +1428,10 @@
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="21">
-        <v>150</v>
-      </c>
-      <c r="D54" s="22">
+      <c r="C54" s="27">
+        <v>150</v>
+      </c>
+      <c r="D54" s="24">
         <v>7165</v>
       </c>
     </row>
@@ -2235,16 +1440,16 @@
       <c r="B55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="20.399999999999999">
       <c r="A56" s="20"/>
       <c r="B56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" ht="20.399999999999999">
       <c r="A57" s="17">
@@ -2253,7 +1458,7 @@
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="18">
         <v>150</v>
       </c>
       <c r="D57" s="19">
@@ -2265,7 +1470,7 @@
       <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" ht="20.399999999999999">
@@ -2273,7 +1478,7 @@
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" ht="20.399999999999999">
@@ -2283,10 +1488,10 @@
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="21">
-        <v>150</v>
-      </c>
-      <c r="D60" s="22">
+      <c r="C60" s="27">
+        <v>150</v>
+      </c>
+      <c r="D60" s="24">
         <v>6865</v>
       </c>
     </row>
@@ -2295,16 +1500,16 @@
       <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="30.6">
       <c r="A62" s="20"/>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="20.399999999999999">
       <c r="A63" s="17">
@@ -2313,7 +1518,7 @@
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="18">
         <v>150</v>
       </c>
       <c r="D63" s="19">
@@ -2325,7 +1530,7 @@
       <c r="B64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="30.6">
@@ -2333,7 +1538,7 @@
       <c r="B65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="23"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="20.399999999999999">
@@ -2343,10 +1548,10 @@
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="21">
-        <v>150</v>
-      </c>
-      <c r="D66" s="22">
+      <c r="C66" s="27">
+        <v>150</v>
+      </c>
+      <c r="D66" s="24">
         <v>6565</v>
       </c>
     </row>
@@ -2355,16 +1560,16 @@
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" ht="30.6">
       <c r="A68" s="20"/>
       <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="20.399999999999999">
       <c r="A69" s="17">
@@ -2373,7 +1578,7 @@
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="18">
         <v>150</v>
       </c>
       <c r="D69" s="19">
@@ -2385,7 +1590,7 @@
       <c r="B70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="30.6">
@@ -2393,7 +1598,7 @@
       <c r="B71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="23"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="20.399999999999999">
@@ -2403,10 +1608,10 @@
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="21">
-        <v>150</v>
-      </c>
-      <c r="D72" s="22">
+      <c r="C72" s="27">
+        <v>150</v>
+      </c>
+      <c r="D72" s="24">
         <v>6265</v>
       </c>
     </row>
@@ -2415,16 +1620,16 @@
       <c r="B73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="30.6">
       <c r="A74" s="20"/>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="22"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" ht="20.399999999999999">
       <c r="A75" s="17">
@@ -2433,7 +1638,7 @@
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="18">
         <v>150</v>
       </c>
       <c r="D75" s="19">
@@ -2445,7 +1650,7 @@
       <c r="B76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="23"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" ht="30.6">
@@ -2453,7 +1658,7 @@
       <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="23"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" ht="20.399999999999999">
@@ -2463,10 +1668,10 @@
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="27">
         <v>300</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="24">
         <v>5965</v>
       </c>
     </row>
@@ -2475,16 +1680,16 @@
       <c r="B79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:4" ht="30.6">
       <c r="A80" s="20"/>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" spans="1:4" ht="20.399999999999999">
       <c r="A81" s="17">
@@ -2493,7 +1698,7 @@
       <c r="B81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="18">
         <v>150</v>
       </c>
       <c r="D81" s="19">
@@ -2505,7 +1710,7 @@
       <c r="B82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="23"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4" ht="20.399999999999999">
@@ -2513,7 +1718,7 @@
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="23"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:4" ht="20.399999999999999">
@@ -2523,10 +1728,10 @@
       <c r="B84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="21">
-        <v>150</v>
-      </c>
-      <c r="D84" s="22">
+      <c r="C84" s="27">
+        <v>150</v>
+      </c>
+      <c r="D84" s="24">
         <v>5515</v>
       </c>
     </row>
@@ -2535,16 +1740,16 @@
       <c r="B85" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="22"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="24"/>
     </row>
     <row r="86" spans="1:4" ht="30.6">
       <c r="A86" s="20"/>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="22"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="24"/>
     </row>
     <row r="87" spans="1:4" ht="20.399999999999999">
       <c r="A87" s="17">
@@ -2553,7 +1758,7 @@
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="18">
         <v>150</v>
       </c>
       <c r="D87" s="19">
@@ -2565,7 +1770,7 @@
       <c r="B88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="23"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4" ht="30.6">
@@ -2573,7 +1778,7 @@
       <c r="B89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="23"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4" ht="20.399999999999999">
@@ -2583,10 +1788,10 @@
       <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="21">
-        <v>150</v>
-      </c>
-      <c r="D90" s="22">
+      <c r="C90" s="27">
+        <v>150</v>
+      </c>
+      <c r="D90" s="24">
         <v>5215</v>
       </c>
     </row>
@@ -2595,16 +1800,16 @@
       <c r="B91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="22"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" ht="20.399999999999999">
       <c r="A92" s="20"/>
       <c r="B92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" ht="20.399999999999999">
       <c r="A93" s="17">
@@ -2613,7 +1818,7 @@
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="18">
         <v>150</v>
       </c>
       <c r="D93" s="19">
@@ -2625,7 +1830,7 @@
       <c r="B94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="23"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" ht="30.6">
@@ -2633,7 +1838,7 @@
       <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="23"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" ht="20.399999999999999">
@@ -2643,10 +1848,10 @@
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="21">
-        <v>150</v>
-      </c>
-      <c r="D96" s="22">
+      <c r="C96" s="27">
+        <v>150</v>
+      </c>
+      <c r="D96" s="24">
         <v>4915</v>
       </c>
     </row>
@@ -2655,16 +1860,16 @@
       <c r="B97" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="22"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="24"/>
     </row>
     <row r="98" spans="1:4" ht="30.6">
       <c r="A98" s="20"/>
       <c r="B98" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="22"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="24"/>
     </row>
     <row r="99" spans="1:4" ht="20.399999999999999">
       <c r="A99" s="17">
@@ -2673,7 +1878,7 @@
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="18">
         <v>150</v>
       </c>
       <c r="D99" s="19">
@@ -2685,7 +1890,7 @@
       <c r="B100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="23"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="19"/>
     </row>
     <row r="101" spans="1:4" ht="30.6">
@@ -2693,7 +1898,7 @@
       <c r="B101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="23"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="19"/>
     </row>
     <row r="102" spans="1:4" ht="20.399999999999999">
@@ -2703,10 +1908,10 @@
       <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="21">
-        <v>150</v>
-      </c>
-      <c r="D102" s="22">
+      <c r="C102" s="27">
+        <v>150</v>
+      </c>
+      <c r="D102" s="24">
         <v>4615</v>
       </c>
     </row>
@@ -2715,16 +1920,16 @@
       <c r="B103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="24"/>
     </row>
     <row r="104" spans="1:4" ht="20.399999999999999">
       <c r="A104" s="20"/>
       <c r="B104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="24"/>
     </row>
     <row r="105" spans="1:4" ht="20.399999999999999">
       <c r="A105" s="17">
@@ -2733,7 +1938,7 @@
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="18">
         <v>300</v>
       </c>
       <c r="D105" s="19">
@@ -2745,7 +1950,7 @@
       <c r="B106" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="23"/>
+      <c r="C106" s="18"/>
       <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" ht="30.6">
@@ -2753,7 +1958,7 @@
       <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="23"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="19"/>
     </row>
     <row r="108" spans="1:4" ht="20.399999999999999">
@@ -2763,10 +1968,10 @@
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="21">
-        <v>150</v>
-      </c>
-      <c r="D108" s="22">
+      <c r="C108" s="27">
+        <v>150</v>
+      </c>
+      <c r="D108" s="24">
         <v>4165</v>
       </c>
     </row>
@@ -2775,16 +1980,16 @@
       <c r="B109" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="22"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:4" ht="30.6">
       <c r="A110" s="20"/>
       <c r="B110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="24"/>
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999">
       <c r="A111" s="17">
@@ -2793,7 +1998,7 @@
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="18">
         <v>150</v>
       </c>
       <c r="D111" s="19">
@@ -2805,7 +2010,7 @@
       <c r="B112" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="18"/>
       <c r="D112" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="30.6">
@@ -2813,7 +2018,7 @@
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="23"/>
+      <c r="C113" s="18"/>
       <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" ht="20.399999999999999">
@@ -2823,10 +2028,10 @@
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="21">
-        <v>150</v>
-      </c>
-      <c r="D114" s="22">
+      <c r="C114" s="27">
+        <v>150</v>
+      </c>
+      <c r="D114" s="24">
         <v>3865</v>
       </c>
     </row>
@@ -2835,16 +2040,16 @@
       <c r="B115" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="24"/>
     </row>
     <row r="116" spans="1:4" ht="30.6">
       <c r="A116" s="20"/>
       <c r="B116" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="24"/>
     </row>
     <row r="117" spans="1:4" ht="20.399999999999999">
       <c r="A117" s="17">
@@ -2853,7 +2058,7 @@
       <c r="B117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="18">
         <v>150</v>
       </c>
       <c r="D117" s="19">
@@ -2865,7 +2070,7 @@
       <c r="B118" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="23"/>
+      <c r="C118" s="18"/>
       <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:4" ht="30.6">
@@ -2873,7 +2078,7 @@
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="23"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="19"/>
     </row>
     <row r="120" spans="1:4" ht="20.399999999999999">
@@ -2883,10 +2088,10 @@
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="27">
         <v>300</v>
       </c>
-      <c r="D120" s="22">
+      <c r="D120" s="24">
         <v>3565</v>
       </c>
     </row>
@@ -2895,16 +2100,16 @@
       <c r="B121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="21"/>
-      <c r="D121" s="22"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="24"/>
     </row>
     <row r="122" spans="1:4" ht="30.6">
       <c r="A122" s="20"/>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="24"/>
     </row>
     <row r="123" spans="1:4" ht="20.399999999999999">
       <c r="A123" s="17">
@@ -2913,7 +2118,7 @@
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="23">
+      <c r="C123" s="18">
         <v>150</v>
       </c>
       <c r="D123" s="19">
@@ -2925,7 +2130,7 @@
       <c r="B124" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="23"/>
+      <c r="C124" s="18"/>
       <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:4" ht="20.399999999999999">
@@ -2933,7 +2138,7 @@
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="23"/>
+      <c r="C125" s="18"/>
       <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" ht="20.399999999999999">
@@ -2943,10 +2148,10 @@
       <c r="B126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="21">
-        <v>150</v>
-      </c>
-      <c r="D126" s="22">
+      <c r="C126" s="27">
+        <v>150</v>
+      </c>
+      <c r="D126" s="24">
         <v>3115</v>
       </c>
     </row>
@@ -2955,16 +2160,16 @@
       <c r="B127" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="21"/>
-      <c r="D127" s="22"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="24"/>
     </row>
     <row r="128" spans="1:4" ht="30.6">
       <c r="A128" s="20"/>
       <c r="B128" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="22"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="24"/>
     </row>
     <row r="129" spans="1:4" ht="20.399999999999999">
       <c r="A129" s="17">
@@ -2973,7 +2178,7 @@
       <c r="B129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="18">
         <v>150</v>
       </c>
       <c r="D129" s="19">
@@ -2985,7 +2190,7 @@
       <c r="B130" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="23"/>
+      <c r="C130" s="18"/>
       <c r="D130" s="19"/>
     </row>
     <row r="131" spans="1:4" ht="30.6">
@@ -2993,7 +2198,7 @@
       <c r="B131" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C131" s="23"/>
+      <c r="C131" s="18"/>
       <c r="D131" s="19"/>
     </row>
     <row r="132" spans="1:4" ht="20.399999999999999">
@@ -3003,10 +2208,10 @@
       <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="21">
-        <v>150</v>
-      </c>
-      <c r="D132" s="22">
+      <c r="C132" s="27">
+        <v>150</v>
+      </c>
+      <c r="D132" s="24">
         <v>2815</v>
       </c>
     </row>
@@ -3015,16 +2220,16 @@
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C133" s="21"/>
-      <c r="D133" s="22"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="24"/>
     </row>
     <row r="134" spans="1:4" ht="30.6">
       <c r="A134" s="20"/>
       <c r="B134" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C134" s="21"/>
-      <c r="D134" s="22"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="24"/>
     </row>
     <row r="135" spans="1:4" ht="20.399999999999999">
       <c r="A135" s="17">
@@ -3033,7 +2238,7 @@
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="23">
+      <c r="C135" s="18">
         <v>150</v>
       </c>
       <c r="D135" s="19">
@@ -3045,7 +2250,7 @@
       <c r="B136" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C136" s="23"/>
+      <c r="C136" s="18"/>
       <c r="D136" s="19"/>
     </row>
     <row r="137" spans="1:4" ht="20.399999999999999">
@@ -3053,7 +2258,7 @@
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="23"/>
+      <c r="C137" s="18"/>
       <c r="D137" s="19"/>
     </row>
     <row r="138" spans="1:4" ht="20.399999999999999">
@@ -3063,10 +2268,10 @@
       <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="21">
-        <v>150</v>
-      </c>
-      <c r="D138" s="22">
+      <c r="C138" s="27">
+        <v>150</v>
+      </c>
+      <c r="D138" s="24">
         <v>2515</v>
       </c>
     </row>
@@ -3075,16 +2280,16 @@
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C139" s="21"/>
-      <c r="D139" s="22"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="24"/>
     </row>
     <row r="140" spans="1:4" ht="30.6">
       <c r="A140" s="20"/>
       <c r="B140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="21"/>
-      <c r="D140" s="22"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="24"/>
     </row>
     <row r="141" spans="1:4" ht="20.399999999999999">
       <c r="A141" s="17">
@@ -3093,7 +2298,7 @@
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="23">
+      <c r="C141" s="18">
         <v>600</v>
       </c>
       <c r="D141" s="19">
@@ -3105,7 +2310,7 @@
       <c r="B142" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="23"/>
+      <c r="C142" s="18"/>
       <c r="D142" s="19"/>
     </row>
     <row r="143" spans="1:4" ht="30.6">
@@ -3113,7 +2318,7 @@
       <c r="B143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="23"/>
+      <c r="C143" s="18"/>
       <c r="D143" s="19"/>
     </row>
     <row r="144" spans="1:4" ht="20.399999999999999">
@@ -3123,10 +2328,10 @@
       <c r="B144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="21">
-        <v>150</v>
-      </c>
-      <c r="D144" s="22">
+      <c r="C144" s="27">
+        <v>150</v>
+      </c>
+      <c r="D144" s="24">
         <v>1765</v>
       </c>
     </row>
@@ -3135,16 +2340,16 @@
       <c r="B145" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="24"/>
     </row>
     <row r="146" spans="1:4" ht="30.6">
       <c r="A146" s="20"/>
       <c r="B146" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C146" s="21"/>
-      <c r="D146" s="22"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="24"/>
     </row>
     <row r="147" spans="1:4" ht="20.399999999999999">
       <c r="A147" s="17">
@@ -3153,7 +2358,7 @@
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="23">
+      <c r="C147" s="18">
         <v>150</v>
       </c>
       <c r="D147" s="19">
@@ -3165,7 +2370,7 @@
       <c r="B148" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C148" s="23"/>
+      <c r="C148" s="18"/>
       <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" ht="30.6">
@@ -3173,7 +2378,7 @@
       <c r="B149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C149" s="23"/>
+      <c r="C149" s="18"/>
       <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" ht="20.399999999999999">
@@ -3183,10 +2388,10 @@
       <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="21">
-        <v>150</v>
-      </c>
-      <c r="D150" s="22">
+      <c r="C150" s="27">
+        <v>150</v>
+      </c>
+      <c r="D150" s="24">
         <v>1465</v>
       </c>
     </row>
@@ -3195,16 +2400,16 @@
       <c r="B151" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="24"/>
     </row>
     <row r="152" spans="1:4" ht="30.6">
       <c r="A152" s="20"/>
       <c r="B152" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="24"/>
     </row>
     <row r="153" spans="1:4" ht="30.6">
       <c r="A153" s="17">
@@ -3213,7 +2418,7 @@
       <c r="B153" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C153" s="18">
+      <c r="C153" s="26">
         <v>-6.5</v>
       </c>
       <c r="D153" s="19">
@@ -3225,7 +2430,7 @@
       <c r="B154" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C154" s="18"/>
+      <c r="C154" s="26"/>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" ht="20.399999999999999">
@@ -3235,10 +2440,10 @@
       <c r="B155" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="21">
-        <v>150</v>
-      </c>
-      <c r="D155" s="22">
+      <c r="C155" s="27">
+        <v>150</v>
+      </c>
+      <c r="D155" s="24">
         <v>1321.5</v>
       </c>
     </row>
@@ -3247,16 +2452,16 @@
       <c r="B156" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C156" s="21"/>
-      <c r="D156" s="22"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="24"/>
     </row>
     <row r="157" spans="1:4" ht="20.399999999999999">
       <c r="A157" s="20"/>
       <c r="B157" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="21"/>
-      <c r="D157" s="22"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="24"/>
     </row>
     <row r="158" spans="1:4" ht="20.399999999999999">
       <c r="A158" s="17">
@@ -3265,7 +2470,7 @@
       <c r="B158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="23">
+      <c r="C158" s="18">
         <v>150</v>
       </c>
       <c r="D158" s="19">
@@ -3277,7 +2482,7 @@
       <c r="B159" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C159" s="23"/>
+      <c r="C159" s="18"/>
       <c r="D159" s="19"/>
     </row>
     <row r="160" spans="1:4" ht="30.6">
@@ -3285,7 +2490,7 @@
       <c r="B160" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C160" s="23"/>
+      <c r="C160" s="18"/>
       <c r="D160" s="19"/>
     </row>
     <row r="161" spans="1:4" ht="20.399999999999999">
@@ -3295,10 +2500,10 @@
       <c r="B161" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="21">
-        <v>150</v>
-      </c>
-      <c r="D161" s="22">
+      <c r="C161" s="27">
+        <v>150</v>
+      </c>
+      <c r="D161" s="24">
         <v>1021.5</v>
       </c>
     </row>
@@ -3307,16 +2512,16 @@
       <c r="B162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C162" s="21"/>
-      <c r="D162" s="22"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="24"/>
     </row>
     <row r="163" spans="1:4" ht="30.6">
       <c r="A163" s="20"/>
       <c r="B163" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="21"/>
-      <c r="D163" s="22"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="24"/>
     </row>
     <row r="164" spans="1:4" ht="30.6">
       <c r="A164" s="17">
@@ -3325,7 +2530,7 @@
       <c r="B164" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C164" s="18">
+      <c r="C164" s="26">
         <v>-6.5</v>
       </c>
       <c r="D164" s="19">
@@ -3337,7 +2542,7 @@
       <c r="B165" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C165" s="18"/>
+      <c r="C165" s="26"/>
       <c r="D165" s="19"/>
     </row>
     <row r="166" spans="1:4" ht="30.6">
@@ -3347,10 +2552,10 @@
       <c r="B166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C166" s="24">
+      <c r="C166" s="22">
         <v>-0.6</v>
       </c>
-      <c r="D166" s="22">
+      <c r="D166" s="24">
         <v>878</v>
       </c>
     </row>
@@ -3359,8 +2564,8 @@
       <c r="B167" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C167" s="24"/>
-      <c r="D167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="24"/>
     </row>
     <row r="168" spans="1:4" ht="20.399999999999999">
       <c r="A168" s="17">
@@ -3369,7 +2574,7 @@
       <c r="B168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="23">
+      <c r="C168" s="18">
         <v>300</v>
       </c>
       <c r="D168" s="19">
@@ -3381,7 +2586,7 @@
       <c r="B169" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C169" s="23"/>
+      <c r="C169" s="18"/>
       <c r="D169" s="19"/>
     </row>
     <row r="170" spans="1:4" ht="40.799999999999997">
@@ -3389,7 +2594,7 @@
       <c r="B170" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C170" s="23"/>
+      <c r="C170" s="18"/>
       <c r="D170" s="19"/>
     </row>
     <row r="171" spans="1:4" ht="20.399999999999999">
@@ -3399,10 +2604,10 @@
       <c r="B171" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="21">
-        <v>150</v>
-      </c>
-      <c r="D171" s="22">
+      <c r="C171" s="27">
+        <v>150</v>
+      </c>
+      <c r="D171" s="24">
         <v>578.6</v>
       </c>
     </row>
@@ -3411,16 +2616,16 @@
       <c r="B172" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C172" s="21"/>
-      <c r="D172" s="22"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="24"/>
     </row>
     <row r="173" spans="1:4" ht="30.6">
       <c r="A173" s="20"/>
       <c r="B173" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="21"/>
-      <c r="D173" s="22"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="24"/>
     </row>
     <row r="174" spans="1:4" ht="20.399999999999999">
       <c r="A174" s="17">
@@ -3429,7 +2634,7 @@
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="18">
+      <c r="C174" s="26">
         <v>-2050</v>
       </c>
       <c r="D174" s="19">
@@ -3441,7 +2646,7 @@
       <c r="B175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C175" s="18"/>
+      <c r="C175" s="26"/>
       <c r="D175" s="19"/>
     </row>
     <row r="176" spans="1:4">
@@ -3449,7 +2654,7 @@
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="18"/>
+      <c r="C176" s="26"/>
       <c r="D176" s="19"/>
     </row>
     <row r="177" spans="1:4" ht="20.399999999999999">
@@ -3457,7 +2662,7 @@
       <c r="B177" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C177" s="18"/>
+      <c r="C177" s="26"/>
       <c r="D177" s="19"/>
     </row>
     <row r="178" spans="1:4" ht="20.399999999999999">
@@ -3467,10 +2672,10 @@
       <c r="B178" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C178" s="21">
-        <v>150</v>
-      </c>
-      <c r="D178" s="22">
+      <c r="C178" s="27">
+        <v>150</v>
+      </c>
+      <c r="D178" s="24">
         <v>2478.6</v>
       </c>
     </row>
@@ -3479,16 +2684,16 @@
       <c r="B179" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C179" s="21"/>
-      <c r="D179" s="22"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="24"/>
     </row>
     <row r="180" spans="1:4" ht="20.399999999999999">
       <c r="A180" s="20"/>
       <c r="B180" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="21"/>
-      <c r="D180" s="22"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="24"/>
     </row>
     <row r="181" spans="1:4" ht="20.399999999999999">
       <c r="A181" s="17">
@@ -3497,7 +2702,7 @@
       <c r="B181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="23">
+      <c r="C181" s="18">
         <v>150</v>
       </c>
       <c r="D181" s="19">
@@ -3509,7 +2714,7 @@
       <c r="B182" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C182" s="23"/>
+      <c r="C182" s="18"/>
       <c r="D182" s="19"/>
     </row>
     <row r="183" spans="1:4" ht="30.6">
@@ -3517,7 +2722,7 @@
       <c r="B183" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C183" s="23"/>
+      <c r="C183" s="18"/>
       <c r="D183" s="19"/>
     </row>
     <row r="184" spans="1:4" ht="20.399999999999999">
@@ -3527,10 +2732,10 @@
       <c r="B184" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="21">
-        <v>150</v>
-      </c>
-      <c r="D184" s="22">
+      <c r="C184" s="27">
+        <v>150</v>
+      </c>
+      <c r="D184" s="24">
         <v>2178.6</v>
       </c>
     </row>
@@ -3539,16 +2744,16 @@
       <c r="B185" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C185" s="21"/>
-      <c r="D185" s="22"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="24"/>
     </row>
     <row r="186" spans="1:4" ht="30.6">
       <c r="A186" s="20"/>
       <c r="B186" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="21"/>
-      <c r="D186" s="22"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="24"/>
     </row>
     <row r="187" spans="1:4" ht="30.6">
       <c r="A187" s="17">
@@ -3557,7 +2762,7 @@
       <c r="B187" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C187" s="18">
+      <c r="C187" s="26">
         <v>-6.5</v>
       </c>
       <c r="D187" s="19">
@@ -3569,7 +2774,7 @@
       <c r="B188" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C188" s="18"/>
+      <c r="C188" s="26"/>
       <c r="D188" s="19"/>
     </row>
     <row r="189" spans="1:4" ht="20.399999999999999">
@@ -3579,10 +2784,10 @@
       <c r="B189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="21">
-        <v>150</v>
-      </c>
-      <c r="D189" s="22">
+      <c r="C189" s="27">
+        <v>150</v>
+      </c>
+      <c r="D189" s="24">
         <v>2035.1</v>
       </c>
     </row>
@@ -3591,16 +2796,16 @@
       <c r="B190" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="21"/>
-      <c r="D190" s="22"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="24"/>
     </row>
     <row r="191" spans="1:4" ht="30.6">
       <c r="A191" s="20"/>
       <c r="B191" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C191" s="21"/>
-      <c r="D191" s="22"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="24"/>
     </row>
     <row r="192" spans="1:4" ht="20.399999999999999">
       <c r="A192" s="17">
@@ -3609,7 +2814,7 @@
       <c r="B192" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="23">
+      <c r="C192" s="18">
         <v>300</v>
       </c>
       <c r="D192" s="19">
@@ -3621,7 +2826,7 @@
       <c r="B193" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C193" s="23"/>
+      <c r="C193" s="18"/>
       <c r="D193" s="19"/>
     </row>
     <row r="194" spans="1:4" ht="30.6">
@@ -3629,7 +2834,7 @@
       <c r="B194" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="23"/>
+      <c r="C194" s="18"/>
       <c r="D194" s="19"/>
     </row>
     <row r="195" spans="1:4" ht="20.399999999999999">
@@ -3639,10 +2844,10 @@
       <c r="B195" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C195" s="21">
-        <v>150</v>
-      </c>
-      <c r="D195" s="22">
+      <c r="C195" s="27">
+        <v>150</v>
+      </c>
+      <c r="D195" s="24">
         <v>1585.1</v>
       </c>
     </row>
@@ -3651,16 +2856,16 @@
       <c r="B196" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C196" s="21"/>
-      <c r="D196" s="22"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="24"/>
     </row>
     <row r="197" spans="1:4" ht="20.399999999999999">
       <c r="A197" s="20"/>
       <c r="B197" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="21"/>
-      <c r="D197" s="22"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="24"/>
     </row>
     <row r="198" spans="1:4" ht="20.399999999999999">
       <c r="A198" s="17">
@@ -3669,7 +2874,7 @@
       <c r="B198" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C198" s="23">
+      <c r="C198" s="18">
         <v>150</v>
       </c>
       <c r="D198" s="19">
@@ -3681,7 +2886,7 @@
       <c r="B199" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C199" s="23"/>
+      <c r="C199" s="18"/>
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4" ht="30.6">
@@ -3689,7 +2894,7 @@
       <c r="B200" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C200" s="23"/>
+      <c r="C200" s="18"/>
       <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4" ht="20.399999999999999">
@@ -3699,10 +2904,10 @@
       <c r="B201" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C201" s="21">
+      <c r="C201" s="27">
         <v>300</v>
       </c>
-      <c r="D201" s="22">
+      <c r="D201" s="24">
         <v>1285.0999999999999</v>
       </c>
     </row>
@@ -3711,16 +2916,16 @@
       <c r="B202" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="21"/>
-      <c r="D202" s="22"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="24"/>
     </row>
     <row r="203" spans="1:4" ht="40.799999999999997">
       <c r="A203" s="20"/>
       <c r="B203" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C203" s="21"/>
-      <c r="D203" s="22"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="24"/>
     </row>
     <row r="204" spans="1:4" ht="20.399999999999999">
       <c r="A204" s="17">
@@ -3729,7 +2934,7 @@
       <c r="B204" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="23">
+      <c r="C204" s="18">
         <v>150</v>
       </c>
       <c r="D204" s="19">
@@ -3741,7 +2946,7 @@
       <c r="B205" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C205" s="23"/>
+      <c r="C205" s="18"/>
       <c r="D205" s="19"/>
     </row>
     <row r="206" spans="1:4" ht="30.6">
@@ -3749,7 +2954,7 @@
       <c r="B206" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C206" s="23"/>
+      <c r="C206" s="18"/>
       <c r="D206" s="19"/>
     </row>
     <row r="207" spans="1:4" ht="30.6">
@@ -3759,10 +2964,10 @@
       <c r="B207" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C207" s="24">
+      <c r="C207" s="22">
         <v>-6.5</v>
       </c>
-      <c r="D207" s="22">
+      <c r="D207" s="24">
         <v>835.1</v>
       </c>
     </row>
@@ -3771,8 +2976,8 @@
       <c r="B208" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C208" s="24"/>
-      <c r="D208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="24"/>
     </row>
     <row r="209" spans="1:4" ht="30.6">
       <c r="A209" s="17">
@@ -3781,7 +2986,7 @@
       <c r="B209" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C209" s="18">
+      <c r="C209" s="26">
         <v>-2.1</v>
       </c>
       <c r="D209" s="19">
@@ -3793,7 +2998,7 @@
       <c r="B210" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C210" s="18"/>
+      <c r="C210" s="26"/>
       <c r="D210" s="19"/>
     </row>
     <row r="211" spans="1:4" ht="20.399999999999999">
@@ -3803,10 +3008,10 @@
       <c r="B211" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C211" s="21">
-        <v>150</v>
-      </c>
-      <c r="D211" s="22">
+      <c r="C211" s="27">
+        <v>150</v>
+      </c>
+      <c r="D211" s="24">
         <v>843.7</v>
       </c>
     </row>
@@ -3815,16 +3020,16 @@
       <c r="B212" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C212" s="21"/>
-      <c r="D212" s="22"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="24"/>
     </row>
     <row r="213" spans="1:4" ht="30.6">
       <c r="A213" s="20"/>
       <c r="B213" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C213" s="21"/>
-      <c r="D213" s="22"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="24"/>
     </row>
     <row r="214" spans="1:4" ht="20.399999999999999">
       <c r="A214" s="17">
@@ -3833,7 +3038,7 @@
       <c r="B214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="23">
+      <c r="C214" s="18">
         <v>150</v>
       </c>
       <c r="D214" s="19">
@@ -3845,7 +3050,7 @@
       <c r="B215" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C215" s="23"/>
+      <c r="C215" s="18"/>
       <c r="D215" s="19"/>
     </row>
     <row r="216" spans="1:4" ht="20.399999999999999">
@@ -3853,7 +3058,7 @@
       <c r="B216" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C216" s="23"/>
+      <c r="C216" s="18"/>
       <c r="D216" s="19"/>
     </row>
     <row r="217" spans="1:4" ht="30.6" customHeight="1">
@@ -3863,10 +3068,10 @@
       <c r="B217" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C217" s="24">
+      <c r="C217" s="22">
         <v>-341.67</v>
       </c>
-      <c r="D217" s="22">
+      <c r="D217" s="24">
         <v>543.70000000000005</v>
       </c>
     </row>
@@ -3875,36 +3080,246 @@
       <c r="B218" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C218" s="24"/>
-      <c r="D218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="24"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="20"/>
       <c r="B219" s="2">
         <v>10100086160634</v>
       </c>
-      <c r="C219" s="24"/>
-      <c r="D219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="24"/>
     </row>
     <row r="220" spans="1:4" ht="30.6" customHeight="1">
       <c r="A220" s="20"/>
       <c r="B220" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C220" s="24"/>
-      <c r="D220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="24"/>
     </row>
     <row r="221" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A221" s="25"/>
+      <c r="A221" s="21"/>
       <c r="B221" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C221" s="26"/>
-      <c r="D221" s="27"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C221" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="222">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="D201:D203"/>
     <mergeCell ref="A214:A216"/>
     <mergeCell ref="C214:C216"/>
     <mergeCell ref="D214:D216"/>
@@ -3917,216 +3332,6 @@
     <mergeCell ref="A211:A213"/>
     <mergeCell ref="C211:C213"/>
     <mergeCell ref="D211:D213"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4137,8 +3342,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5658,1224 +4863,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA793499-2F87-4161-B660-7261413A1647}">
-  <dimension ref="A1:E66"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11">
-        <v>45112</v>
-      </c>
-      <c r="B2" s="12">
-        <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8">
-        <v>45111</v>
-      </c>
-      <c r="B3" s="14">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11">
-        <v>45108</v>
-      </c>
-      <c r="B4" s="12">
-        <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
-        <v>45107</v>
-      </c>
-      <c r="B5" s="14">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11">
-        <v>45083</v>
-      </c>
-      <c r="B6" s="12">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8">
-        <v>45076</v>
-      </c>
-      <c r="B7" s="14">
-        <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11">
-        <v>45047</v>
-      </c>
-      <c r="B8" s="12">
-        <v>300</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8">
-        <v>45047</v>
-      </c>
-      <c r="B9" s="14">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11">
-        <v>45047</v>
-      </c>
-      <c r="B10" s="12">
-        <v>150</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8">
-        <v>45047</v>
-      </c>
-      <c r="B11" s="14">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11">
-        <v>45047</v>
-      </c>
-      <c r="B12" s="12">
-        <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8">
-        <v>45047</v>
-      </c>
-      <c r="B13" s="14">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11">
-        <v>45044</v>
-      </c>
-      <c r="B14" s="12">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8">
-        <v>45017</v>
-      </c>
-      <c r="B15" s="14">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11">
-        <v>45016</v>
-      </c>
-      <c r="B16" s="12">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8">
-        <v>45016</v>
-      </c>
-      <c r="B17" s="14">
-        <v>300</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11">
-        <v>45015</v>
-      </c>
-      <c r="B18" s="12">
-        <v>150</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8">
-        <v>44987</v>
-      </c>
-      <c r="B19" s="14">
-        <v>150</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11">
-        <v>44987</v>
-      </c>
-      <c r="B20" s="12">
-        <v>150</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8">
-        <v>44987</v>
-      </c>
-      <c r="B21" s="14">
-        <v>150</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11">
-        <v>44986</v>
-      </c>
-      <c r="B22" s="12">
-        <v>150</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8">
-        <v>44986</v>
-      </c>
-      <c r="B23" s="14">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11">
-        <v>44981</v>
-      </c>
-      <c r="B24" s="12">
-        <v>150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8">
-        <v>44958</v>
-      </c>
-      <c r="B25" s="14">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11">
-        <v>44958</v>
-      </c>
-      <c r="B26" s="12">
-        <v>300</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8">
-        <v>44958</v>
-      </c>
-      <c r="B27" s="14">
-        <v>150</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11">
-        <v>44957</v>
-      </c>
-      <c r="B28" s="12">
-        <v>150</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8">
-        <v>44928</v>
-      </c>
-      <c r="B29" s="14">
-        <v>150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11">
-        <v>44927</v>
-      </c>
-      <c r="B30" s="12">
-        <v>150</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8">
-        <v>44926</v>
-      </c>
-      <c r="B31" s="14">
-        <v>150</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11">
-        <v>44922</v>
-      </c>
-      <c r="B32" s="12">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8">
-        <v>44922</v>
-      </c>
-      <c r="B33" s="14">
-        <v>150</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11">
-        <v>44900</v>
-      </c>
-      <c r="B34" s="12">
-        <v>150</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8">
-        <v>44900</v>
-      </c>
-      <c r="B35" s="14">
-        <v>300</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11">
-        <v>44896</v>
-      </c>
-      <c r="B36" s="12">
-        <v>150</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8">
-        <v>44896</v>
-      </c>
-      <c r="B37" s="14">
-        <v>150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11">
-        <v>44879</v>
-      </c>
-      <c r="B38" s="12">
-        <v>150</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8">
-        <v>44866</v>
-      </c>
-      <c r="B39" s="14">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11">
-        <v>44866</v>
-      </c>
-      <c r="B40" s="12">
-        <v>300</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8">
-        <v>44866</v>
-      </c>
-      <c r="B41" s="14">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="11">
-        <v>44862</v>
-      </c>
-      <c r="B42" s="12">
-        <v>150</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8">
-        <v>44838</v>
-      </c>
-      <c r="B43" s="14">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="11">
-        <v>44836</v>
-      </c>
-      <c r="B44" s="12">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8">
-        <v>44836</v>
-      </c>
-      <c r="B45" s="14">
-        <v>150</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="11">
-        <v>44834</v>
-      </c>
-      <c r="B46" s="12">
-        <v>150</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8">
-        <v>44833</v>
-      </c>
-      <c r="B47" s="14">
-        <v>600</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="11">
-        <v>44813</v>
-      </c>
-      <c r="B48" s="12">
-        <v>150</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8">
-        <v>44805</v>
-      </c>
-      <c r="B49" s="14">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="11">
-        <v>44805</v>
-      </c>
-      <c r="B50" s="12">
-        <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="11">
-        <v>44804</v>
-      </c>
-      <c r="B51" s="12">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="8">
-        <v>44774</v>
-      </c>
-      <c r="B52" s="14">
-        <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="11">
-        <v>44774</v>
-      </c>
-      <c r="B53" s="12">
-        <v>150</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="8">
-        <v>44773</v>
-      </c>
-      <c r="B54" s="14">
-        <v>300</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="11">
-        <v>44772</v>
-      </c>
-      <c r="B55" s="12">
-        <v>150</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="11">
-        <v>44771</v>
-      </c>
-      <c r="B56" s="12">
-        <v>150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8">
-        <v>44743</v>
-      </c>
-      <c r="B57" s="14">
-        <v>150</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>163</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="11">
-        <v>44743</v>
-      </c>
-      <c r="B58" s="12">
-        <v>150</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="11">
-        <v>44742</v>
-      </c>
-      <c r="B59" s="12">
-        <v>150</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="8">
-        <v>44741</v>
-      </c>
-      <c r="B60" s="14">
-        <v>300</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="11">
-        <v>44741</v>
-      </c>
-      <c r="B61" s="12">
-        <v>150</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>167</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="8">
-        <v>44715</v>
-      </c>
-      <c r="B62" s="14">
-        <v>150</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="11">
-        <v>44715</v>
-      </c>
-      <c r="B63" s="12">
-        <v>300</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>169</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="8">
-        <v>44714</v>
-      </c>
-      <c r="B64" s="14">
-        <v>150</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="11">
-        <v>44712</v>
-      </c>
-      <c r="B65" s="12">
-        <v>150</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8">
-        <v>44708</v>
-      </c>
-      <c r="B66" s="14">
-        <v>150</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F580CDC-3659-4457-B801-C0F2976CA71C}">
-  <dimension ref="A3:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="29">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="29">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="29">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="29">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="29">
-        <v>11550</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/raw_data_100087848963_2023-07-21.xlsx
+++ b/raw_data_100087848963_2023-07-21.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43206B60-629D-4509-99D9-E11DD44A838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84602905-BD47-49B8-8DAA-8BB290CE2D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
     <sheet name="clean_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">clean_data!$A$1:$G$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$C$1:$C$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">clean_data!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$C$1:$C$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -359,6 +359,24 @@
   </si>
   <si>
     <t>DONGLI LIU</t>
+  </si>
+  <si>
+    <t>Ref 20230801214714813541</t>
+  </si>
+  <si>
+    <t>Ref 20230801211757814947</t>
+  </si>
+  <si>
+    <t>Ref 20230731182908814316</t>
+  </si>
+  <si>
+    <t>Ref 20230728171013813687</t>
+  </si>
+  <si>
+    <t>Ref 20230726192100813959</t>
+  </si>
+  <si>
+    <t>Ref 20230726192014813954</t>
   </si>
 </sst>
 </file>
@@ -368,7 +386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +415,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -511,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -562,7 +592,7 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,27 +601,49 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -889,7 +941,7 @@
     <col min="9" max="9" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -903,1114 +955,1178 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="17">
-        <v>45118</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="26">
-        <v>-2310</v>
-      </c>
-      <c r="D2" s="19">
-        <v>7705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.6" customHeight="1">
+    <row r="2" spans="1:7" ht="20.399999999999999">
+      <c r="A2" s="29">
+        <v>45140</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30">
+        <v>150</v>
+      </c>
+      <c r="D2" s="32">
+        <v>9955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30.6">
       <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="26"/>
+        <v>106</v>
+      </c>
+      <c r="C3" s="31"/>
       <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="0">B3</f>
+        <v>Ref 20230801214714813541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30.6">
       <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="31"/>
       <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.399999999999999">
-      <c r="A6" s="20">
-        <v>45112</v>
-      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Memo XIAOPENGFENG</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.399999999999999">
+      <c r="A5" s="20">
+        <v>45140</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21">
+        <v>150</v>
+      </c>
+      <c r="D5" s="22">
+        <v>9805</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>e-Transfer credit</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30.6">
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="27">
-        <v>150</v>
-      </c>
-      <c r="D6" s="24">
-        <v>10015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.6">
+        <v>107</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="G6" t="str">
+        <f>B6</f>
+        <v>Ref 20230801211757814947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999">
       <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.399999999999999">
-      <c r="A8" s="20"/>
-      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.399999999999999">
-      <c r="A9" s="17">
-        <v>45111</v>
-      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G18" si="1">B7</f>
+        <v>Memo DONGLILIU</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.399999999999999">
+      <c r="A8" s="17">
+        <v>45138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="19">
+        <v>9655</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>e-Transfer credit</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.6">
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="18">
-        <v>300</v>
-      </c>
-      <c r="D9" s="19">
-        <v>9865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30.6">
+        <v>108</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>Ref 20230731182908814316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.6">
       <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="30.6">
-      <c r="A11" s="17"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.399999999999999">
-      <c r="A12" s="20">
-        <v>45108</v>
-      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>Memo EDWINALBERTIMHOFF</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.399999999999999">
+      <c r="A11" s="20">
+        <v>45135</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21">
+        <v>150</v>
+      </c>
+      <c r="D11" s="22">
+        <v>8155</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>e-Transfer credit</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.6">
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="27">
-        <v>150</v>
-      </c>
-      <c r="D12" s="24">
-        <v>9565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30.6">
+        <v>109</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>Ref 20230728171013813687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30.6">
       <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" ht="30.6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.399999999999999">
-      <c r="A15" s="17">
-        <v>45107</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>Memo TRACYCARRIER</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.399999999999999">
+      <c r="A14" s="17">
+        <v>45133</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="23">
+        <v>150</v>
+      </c>
+      <c r="D14" s="19">
+        <v>8005</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>e-Transfer credit</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30.6">
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="18">
-        <v>150</v>
-      </c>
-      <c r="D15" s="19">
-        <v>9415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30.6">
+        <v>110</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>Ref 20230726192100813959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30.6">
       <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" ht="30.6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.399999999999999">
-      <c r="A18" s="20">
-        <v>45083</v>
-      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>Memo SIDDHARTHSINHA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.399999999999999">
+      <c r="A17" s="20">
+        <v>45133</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="21">
+        <v>150</v>
+      </c>
+      <c r="D17" s="22">
+        <v>7855</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>e-Transfer credit</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30.6">
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="27">
-        <v>150</v>
-      </c>
-      <c r="D18" s="24">
-        <v>9265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.6">
-      <c r="A19" s="20"/>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.399999999999999">
-      <c r="A20" s="20"/>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.399999999999999">
-      <c r="A21" s="17">
-        <v>45076</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>Ref 20230726192014813954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="31.2" thickBot="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A20" s="17">
+        <v>45118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-2310</v>
+      </c>
+      <c r="D20" s="19">
+        <v>7705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.6" customHeight="1">
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="18">
-        <v>150</v>
-      </c>
-      <c r="D21" s="19">
-        <v>9115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30.6">
+        <v>5</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:4" ht="30.6">
+    <row r="23" spans="1:7" ht="20.399999999999999" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" ht="20.399999999999999">
+    <row r="24" spans="1:7" ht="20.399999999999999">
       <c r="A24" s="20">
-        <v>45047</v>
+        <v>45112</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="27">
-        <v>300</v>
-      </c>
-      <c r="D24" s="24">
-        <v>8965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30.6">
+      <c r="C24" s="21">
+        <v>150</v>
+      </c>
+      <c r="D24" s="22">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30.6">
       <c r="A25" s="20"/>
       <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" ht="30.6">
+        <v>9</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.399999999999999">
       <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.399999999999999">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.399999999999999">
       <c r="A27" s="17">
-        <v>45047</v>
+        <v>45111</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="18">
-        <v>150</v>
+      <c r="C27" s="23">
+        <v>300</v>
       </c>
       <c r="D27" s="19">
-        <v>8665</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.6">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30.6">
       <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="C28" s="23"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="20.399999999999999">
+    <row r="29" spans="1:7" ht="30.6">
       <c r="A29" s="17"/>
       <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="1:4" ht="20.399999999999999">
+    <row r="30" spans="1:7" ht="20.399999999999999">
       <c r="A30" s="20">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="27">
-        <v>150</v>
-      </c>
-      <c r="D30" s="24">
-        <v>8515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30.6">
+      <c r="C30" s="21">
+        <v>150</v>
+      </c>
+      <c r="D30" s="22">
+        <v>9565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30.6">
       <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="1:4" ht="30.6">
+        <v>13</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.6">
       <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="20.399999999999999">
       <c r="A33" s="17">
-        <v>45047</v>
+        <v>45107</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="23">
         <v>150</v>
       </c>
       <c r="D33" s="19">
-        <v>8365</v>
+        <v>9415</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30.6">
       <c r="A34" s="17"/>
       <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="C34" s="23"/>
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="30.6">
       <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C35" s="23"/>
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="20.399999999999999">
       <c r="A36" s="20">
-        <v>45047</v>
+        <v>45083</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="27">
-        <v>150</v>
-      </c>
-      <c r="D36" s="24">
-        <v>8215</v>
+      <c r="C36" s="21">
+        <v>150</v>
+      </c>
+      <c r="D36" s="22">
+        <v>9265</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30.6">
       <c r="A37" s="20"/>
       <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="30.6">
+        <v>17</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" ht="20.399999999999999">
       <c r="A38" s="20"/>
       <c r="B38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="20.399999999999999">
       <c r="A39" s="17">
-        <v>45047</v>
+        <v>45076</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="23">
         <v>150</v>
       </c>
       <c r="D39" s="19">
-        <v>8065</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30.6">
       <c r="A40" s="17"/>
       <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="C40" s="23"/>
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="30.6">
       <c r="A41" s="17"/>
       <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C41" s="23"/>
       <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="20.399999999999999">
       <c r="A42" s="20">
-        <v>45044</v>
+        <v>45047</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="27">
-        <v>150</v>
-      </c>
-      <c r="D42" s="24">
-        <v>7915</v>
+      <c r="C42" s="21">
+        <v>300</v>
+      </c>
+      <c r="D42" s="22">
+        <v>8965</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30.6">
       <c r="A43" s="20"/>
       <c r="B43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" ht="30.6">
       <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" ht="20.399999999999999">
       <c r="A45" s="17">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="23">
         <v>150</v>
       </c>
       <c r="D45" s="19">
-        <v>7765</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.6">
       <c r="A46" s="17"/>
       <c r="B46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C46" s="23"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="30.6">
+    <row r="47" spans="1:4" ht="20.399999999999999">
       <c r="A47" s="17"/>
       <c r="B47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="C47" s="23"/>
       <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="20.399999999999999">
       <c r="A48" s="20">
-        <v>45016</v>
+        <v>45047</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="27">
-        <v>150</v>
-      </c>
-      <c r="D48" s="24">
-        <v>7615</v>
+      <c r="C48" s="21">
+        <v>150</v>
+      </c>
+      <c r="D48" s="22">
+        <v>8515</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30.6">
       <c r="A49" s="20"/>
       <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" ht="30.6">
       <c r="A50" s="20"/>
       <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="20.399999999999999">
       <c r="A51" s="17">
-        <v>45016</v>
+        <v>45047</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="18">
-        <v>300</v>
+      <c r="C51" s="23">
+        <v>150</v>
       </c>
       <c r="D51" s="19">
-        <v>7465</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30.6">
       <c r="A52" s="17"/>
       <c r="B52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="C52" s="23"/>
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="30.6">
       <c r="A53" s="17"/>
       <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C53" s="23"/>
       <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" ht="20.399999999999999">
       <c r="A54" s="20">
-        <v>45015</v>
+        <v>45047</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="27">
-        <v>150</v>
-      </c>
-      <c r="D54" s="24">
-        <v>7165</v>
+      <c r="C54" s="21">
+        <v>150</v>
+      </c>
+      <c r="D54" s="22">
+        <v>8215</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30.6">
       <c r="A55" s="20"/>
       <c r="B55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="24"/>
-    </row>
-    <row r="56" spans="1:4" ht="20.399999999999999">
+        <v>24</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="30.6">
       <c r="A56" s="20"/>
       <c r="B56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="20.399999999999999">
       <c r="A57" s="17">
-        <v>44987</v>
+        <v>45047</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="23">
         <v>150</v>
       </c>
       <c r="D57" s="19">
-        <v>7015</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30.6">
       <c r="A58" s="17"/>
       <c r="B58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C58" s="23"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="1:4" ht="20.399999999999999">
+    <row r="59" spans="1:4" ht="30.6">
       <c r="A59" s="17"/>
       <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C59" s="23"/>
       <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" ht="20.399999999999999">
       <c r="A60" s="20">
-        <v>44987</v>
+        <v>45044</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="27">
-        <v>150</v>
-      </c>
-      <c r="D60" s="24">
-        <v>6865</v>
+      <c r="C60" s="21">
+        <v>150</v>
+      </c>
+      <c r="D60" s="22">
+        <v>7915</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30.6">
       <c r="A61" s="20"/>
       <c r="B61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="30.6">
       <c r="A62" s="20"/>
       <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="20.399999999999999">
       <c r="A63" s="17">
-        <v>44987</v>
+        <v>45017</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="23">
         <v>150</v>
       </c>
       <c r="D63" s="19">
-        <v>6715</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30.6">
       <c r="A64" s="17"/>
       <c r="B64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C64" s="23"/>
       <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="30.6">
       <c r="A65" s="17"/>
       <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="C65" s="23"/>
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="20.399999999999999">
       <c r="A66" s="20">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="27">
-        <v>150</v>
-      </c>
-      <c r="D66" s="24">
-        <v>6565</v>
+      <c r="C66" s="21">
+        <v>150</v>
+      </c>
+      <c r="D66" s="22">
+        <v>7615</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30.6">
       <c r="A67" s="20"/>
       <c r="B67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" ht="30.6">
       <c r="A68" s="20"/>
       <c r="B68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="20.399999999999999">
       <c r="A69" s="17">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="18">
-        <v>150</v>
+      <c r="C69" s="23">
+        <v>300</v>
       </c>
       <c r="D69" s="19">
-        <v>6415</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30.6">
       <c r="A70" s="17"/>
       <c r="B70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="C70" s="23"/>
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="30.6">
       <c r="A71" s="17"/>
       <c r="B71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="C71" s="23"/>
       <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="20.399999999999999">
       <c r="A72" s="20">
-        <v>44981</v>
+        <v>45015</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="27">
-        <v>150</v>
-      </c>
-      <c r="D72" s="24">
-        <v>6265</v>
+      <c r="C72" s="21">
+        <v>150</v>
+      </c>
+      <c r="D72" s="22">
+        <v>7165</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30.6">
       <c r="A73" s="20"/>
       <c r="B73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4" ht="30.6">
+        <v>30</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" spans="1:4" ht="20.399999999999999">
       <c r="A74" s="20"/>
       <c r="B74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" ht="20.399999999999999">
       <c r="A75" s="17">
-        <v>44958</v>
+        <v>44987</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="23">
         <v>150</v>
       </c>
       <c r="D75" s="19">
-        <v>6115</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30.6">
       <c r="A76" s="17"/>
       <c r="B76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="C76" s="23"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="1:4" ht="30.6">
+    <row r="77" spans="1:4" ht="20.399999999999999">
       <c r="A77" s="17"/>
       <c r="B77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="C77" s="23"/>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" ht="20.399999999999999">
       <c r="A78" s="20">
-        <v>44958</v>
+        <v>44987</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="27">
-        <v>300</v>
-      </c>
-      <c r="D78" s="24">
-        <v>5965</v>
+      <c r="C78" s="21">
+        <v>150</v>
+      </c>
+      <c r="D78" s="22">
+        <v>6865</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30.6">
       <c r="A79" s="20"/>
       <c r="B79" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="1:4" ht="30.6">
       <c r="A80" s="20"/>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="24"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4" ht="20.399999999999999">
       <c r="A81" s="17">
-        <v>44958</v>
+        <v>44987</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="23">
         <v>150</v>
       </c>
       <c r="D81" s="19">
-        <v>5665</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30.6">
       <c r="A82" s="17"/>
       <c r="B82" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="C82" s="23"/>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:4" ht="20.399999999999999">
+    <row r="83" spans="1:4" ht="30.6">
       <c r="A83" s="17"/>
       <c r="B83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="C83" s="23"/>
       <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:4" ht="20.399999999999999">
       <c r="A84" s="20">
-        <v>44957</v>
+        <v>44986</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="27">
-        <v>150</v>
-      </c>
-      <c r="D84" s="24">
-        <v>5515</v>
+      <c r="C84" s="21">
+        <v>150</v>
+      </c>
+      <c r="D84" s="22">
+        <v>6565</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30.6">
       <c r="A85" s="20"/>
       <c r="B85" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4" ht="30.6">
       <c r="A86" s="20"/>
       <c r="B86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4" ht="20.399999999999999">
       <c r="A87" s="17">
-        <v>44928</v>
+        <v>44986</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="23">
         <v>150</v>
       </c>
       <c r="D87" s="19">
-        <v>5365</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30.6">
       <c r="A88" s="17"/>
       <c r="B88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C88" s="23"/>
       <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4" ht="30.6">
       <c r="A89" s="17"/>
       <c r="B89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C89" s="23"/>
       <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4" ht="20.399999999999999">
       <c r="A90" s="20">
-        <v>44927</v>
+        <v>44981</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="27">
-        <v>150</v>
-      </c>
-      <c r="D90" s="24">
-        <v>5215</v>
+      <c r="C90" s="21">
+        <v>150</v>
+      </c>
+      <c r="D90" s="22">
+        <v>6265</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30.6">
       <c r="A91" s="20"/>
       <c r="B91" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="24"/>
-    </row>
-    <row r="92" spans="1:4" ht="20.399999999999999">
+        <v>36</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+    </row>
+    <row r="92" spans="1:4" ht="30.6">
       <c r="A92" s="20"/>
       <c r="B92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4" ht="20.399999999999999">
       <c r="A93" s="17">
-        <v>44926</v>
+        <v>44958</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="23">
         <v>150</v>
       </c>
       <c r="D93" s="19">
-        <v>5065</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30.6">
       <c r="A94" s="17"/>
       <c r="B94" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="C94" s="23"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" ht="30.6">
       <c r="A95" s="17"/>
       <c r="B95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="C95" s="23"/>
       <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:4" ht="20.399999999999999">
       <c r="A96" s="20">
-        <v>44922</v>
+        <v>44958</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="27">
-        <v>150</v>
-      </c>
-      <c r="D96" s="24">
-        <v>4915</v>
+      <c r="C96" s="21">
+        <v>300</v>
+      </c>
+      <c r="D96" s="22">
+        <v>5965</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30.6">
       <c r="A97" s="20"/>
       <c r="B97" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4" ht="30.6">
       <c r="A98" s="20"/>
       <c r="B98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4" ht="20.399999999999999">
       <c r="A99" s="17">
-        <v>44922</v>
+        <v>44958</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="23">
         <v>150</v>
       </c>
       <c r="D99" s="19">
-        <v>4765</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30.6">
       <c r="A100" s="17"/>
       <c r="B100" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="C100" s="23"/>
       <c r="D100" s="19"/>
     </row>
-    <row r="101" spans="1:4" ht="30.6">
+    <row r="101" spans="1:4" ht="20.399999999999999">
       <c r="A101" s="17"/>
       <c r="B101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="C101" s="23"/>
       <c r="D101" s="19"/>
     </row>
     <row r="102" spans="1:4" ht="20.399999999999999">
       <c r="A102" s="20">
-        <v>44900</v>
+        <v>44957</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="27">
-        <v>150</v>
-      </c>
-      <c r="D102" s="24">
-        <v>4615</v>
+      <c r="C102" s="21">
+        <v>150</v>
+      </c>
+      <c r="D102" s="22">
+        <v>5515</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30.6">
       <c r="A103" s="20"/>
       <c r="B103" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="24"/>
-    </row>
-    <row r="104" spans="1:4" ht="20.399999999999999">
+        <v>40</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+    </row>
+    <row r="104" spans="1:4" ht="30.6">
       <c r="A104" s="20"/>
       <c r="B104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" spans="1:4" ht="20.399999999999999">
       <c r="A105" s="17">
-        <v>44900</v>
+        <v>44928</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="18">
-        <v>300</v>
+      <c r="C105" s="23">
+        <v>150</v>
       </c>
       <c r="D105" s="19">
-        <v>4465</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30.6">
       <c r="A106" s="17"/>
       <c r="B106" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="C106" s="23"/>
       <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" ht="30.6">
       <c r="A107" s="17"/>
       <c r="B107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="C107" s="23"/>
       <c r="D107" s="19"/>
     </row>
     <row r="108" spans="1:4" ht="20.399999999999999">
       <c r="A108" s="20">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="27">
-        <v>150</v>
-      </c>
-      <c r="D108" s="24">
-        <v>4165</v>
+      <c r="C108" s="21">
+        <v>150</v>
+      </c>
+      <c r="D108" s="22">
+        <v>5215</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30.6">
       <c r="A109" s="20"/>
       <c r="B109" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="24"/>
-    </row>
-    <row r="110" spans="1:4" ht="30.6">
+        <v>42</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="22"/>
+    </row>
+    <row r="110" spans="1:4" ht="20.399999999999999">
       <c r="A110" s="20"/>
       <c r="B110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999">
       <c r="A111" s="17">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="18">
+      <c r="C111" s="23">
         <v>150</v>
       </c>
       <c r="D111" s="19">
-        <v>4015</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30.6">
       <c r="A112" s="17"/>
       <c r="B112" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="C112" s="23"/>
       <c r="D112" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="30.6">
@@ -2018,1140 +2134,1482 @@
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="18"/>
+      <c r="C113" s="23"/>
       <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" ht="20.399999999999999">
       <c r="A114" s="20">
-        <v>44879</v>
+        <v>44922</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="27">
-        <v>150</v>
-      </c>
-      <c r="D114" s="24">
-        <v>3865</v>
+      <c r="C114" s="21">
+        <v>150</v>
+      </c>
+      <c r="D114" s="22">
+        <v>4915</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="30.6">
       <c r="A115" s="20"/>
       <c r="B115" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C115" s="27"/>
-      <c r="D115" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" ht="30.6">
       <c r="A116" s="20"/>
       <c r="B116" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="27"/>
-      <c r="D116" s="24"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" spans="1:4" ht="20.399999999999999">
       <c r="A117" s="17">
-        <v>44866</v>
+        <v>44922</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C117" s="23">
         <v>150</v>
       </c>
       <c r="D117" s="19">
-        <v>3715</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="30.6">
       <c r="A118" s="17"/>
       <c r="B118" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C118" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="C118" s="23"/>
       <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:4" ht="30.6">
       <c r="A119" s="17"/>
       <c r="B119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C119" s="23"/>
       <c r="D119" s="19"/>
     </row>
     <row r="120" spans="1:4" ht="20.399999999999999">
       <c r="A120" s="20">
-        <v>44866</v>
+        <v>44900</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="27">
-        <v>300</v>
-      </c>
-      <c r="D120" s="24">
-        <v>3565</v>
+      <c r="C120" s="21">
+        <v>150</v>
+      </c>
+      <c r="D120" s="22">
+        <v>4615</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30.6">
       <c r="A121" s="20"/>
       <c r="B121" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="27"/>
-      <c r="D121" s="24"/>
-    </row>
-    <row r="122" spans="1:4" ht="30.6">
+        <v>46</v>
+      </c>
+      <c r="C121" s="21"/>
+      <c r="D121" s="22"/>
+    </row>
+    <row r="122" spans="1:4" ht="20.399999999999999">
       <c r="A122" s="20"/>
       <c r="B122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" spans="1:4" ht="20.399999999999999">
       <c r="A123" s="17">
-        <v>44866</v>
+        <v>44900</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="18">
-        <v>150</v>
+      <c r="C123" s="23">
+        <v>300</v>
       </c>
       <c r="D123" s="19">
-        <v>3265</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="30.6">
       <c r="A124" s="17"/>
       <c r="B124" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="C124" s="23"/>
       <c r="D124" s="19"/>
     </row>
-    <row r="125" spans="1:4" ht="20.399999999999999">
+    <row r="125" spans="1:4" ht="30.6">
       <c r="A125" s="17"/>
       <c r="B125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="C125" s="23"/>
       <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" ht="20.399999999999999">
       <c r="A126" s="20">
-        <v>44862</v>
+        <v>44896</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="27">
-        <v>150</v>
-      </c>
-      <c r="D126" s="24">
-        <v>3115</v>
+      <c r="C126" s="21">
+        <v>150</v>
+      </c>
+      <c r="D126" s="22">
+        <v>4165</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="30.6">
       <c r="A127" s="20"/>
       <c r="B127" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="27"/>
-      <c r="D127" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="C127" s="21"/>
+      <c r="D127" s="22"/>
     </row>
     <row r="128" spans="1:4" ht="30.6">
       <c r="A128" s="20"/>
       <c r="B128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="C128" s="21"/>
+      <c r="D128" s="22"/>
     </row>
     <row r="129" spans="1:4" ht="20.399999999999999">
       <c r="A129" s="17">
-        <v>44838</v>
+        <v>44896</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C129" s="23">
         <v>150</v>
       </c>
       <c r="D129" s="19">
-        <v>2965</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="30.6">
       <c r="A130" s="17"/>
       <c r="B130" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="C130" s="23"/>
       <c r="D130" s="19"/>
     </row>
     <row r="131" spans="1:4" ht="30.6">
       <c r="A131" s="17"/>
       <c r="B131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C131" s="23"/>
       <c r="D131" s="19"/>
     </row>
     <row r="132" spans="1:4" ht="20.399999999999999">
       <c r="A132" s="20">
-        <v>44836</v>
+        <v>44879</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="27">
-        <v>150</v>
-      </c>
-      <c r="D132" s="24">
-        <v>2815</v>
+      <c r="C132" s="21">
+        <v>150</v>
+      </c>
+      <c r="D132" s="22">
+        <v>3865</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="30.6">
       <c r="A133" s="20"/>
       <c r="B133" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C133" s="27"/>
-      <c r="D133" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="22"/>
     </row>
     <row r="134" spans="1:4" ht="30.6">
       <c r="A134" s="20"/>
       <c r="B134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="27"/>
-      <c r="D134" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="C134" s="21"/>
+      <c r="D134" s="22"/>
     </row>
     <row r="135" spans="1:4" ht="20.399999999999999">
       <c r="A135" s="17">
-        <v>44836</v>
+        <v>44866</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="18">
+      <c r="C135" s="23">
         <v>150</v>
       </c>
       <c r="D135" s="19">
-        <v>2665</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="30.6">
       <c r="A136" s="17"/>
       <c r="B136" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C136" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="C136" s="23"/>
       <c r="D136" s="19"/>
     </row>
-    <row r="137" spans="1:4" ht="20.399999999999999">
+    <row r="137" spans="1:4" ht="30.6">
       <c r="A137" s="17"/>
       <c r="B137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="C137" s="23"/>
       <c r="D137" s="19"/>
     </row>
     <row r="138" spans="1:4" ht="20.399999999999999">
       <c r="A138" s="20">
-        <v>44834</v>
+        <v>44866</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="27">
-        <v>150</v>
-      </c>
-      <c r="D138" s="24">
-        <v>2515</v>
+      <c r="C138" s="21">
+        <v>300</v>
+      </c>
+      <c r="D138" s="22">
+        <v>3565</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="30.6">
       <c r="A139" s="20"/>
       <c r="B139" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C139" s="27"/>
-      <c r="D139" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C139" s="21"/>
+      <c r="D139" s="22"/>
     </row>
     <row r="140" spans="1:4" ht="30.6">
       <c r="A140" s="20"/>
       <c r="B140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="27"/>
-      <c r="D140" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="22"/>
     </row>
     <row r="141" spans="1:4" ht="20.399999999999999">
       <c r="A141" s="17">
-        <v>44833</v>
+        <v>44866</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="18">
-        <v>600</v>
+      <c r="C141" s="23">
+        <v>150</v>
       </c>
       <c r="D141" s="19">
-        <v>2365</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="30.6">
       <c r="A142" s="17"/>
       <c r="B142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="C142" s="23"/>
       <c r="D142" s="19"/>
     </row>
-    <row r="143" spans="1:4" ht="30.6">
+    <row r="143" spans="1:4" ht="20.399999999999999">
       <c r="A143" s="17"/>
       <c r="B143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="C143" s="23"/>
       <c r="D143" s="19"/>
     </row>
     <row r="144" spans="1:4" ht="20.399999999999999">
       <c r="A144" s="20">
-        <v>44813</v>
+        <v>44862</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="27">
-        <v>150</v>
-      </c>
-      <c r="D144" s="24">
-        <v>1765</v>
+      <c r="C144" s="21">
+        <v>150</v>
+      </c>
+      <c r="D144" s="22">
+        <v>3115</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="30.6">
       <c r="A145" s="20"/>
       <c r="B145" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C145" s="27"/>
-      <c r="D145" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="22"/>
     </row>
     <row r="146" spans="1:4" ht="30.6">
       <c r="A146" s="20"/>
       <c r="B146" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C146" s="27"/>
-      <c r="D146" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="C146" s="21"/>
+      <c r="D146" s="22"/>
     </row>
     <row r="147" spans="1:4" ht="20.399999999999999">
       <c r="A147" s="17">
-        <v>44805</v>
+        <v>44838</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="18">
+      <c r="C147" s="23">
         <v>150</v>
       </c>
       <c r="D147" s="19">
-        <v>1615</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="30.6">
       <c r="A148" s="17"/>
       <c r="B148" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="C148" s="23"/>
       <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" ht="30.6">
       <c r="A149" s="17"/>
       <c r="B149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C149" s="23"/>
       <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" ht="20.399999999999999">
       <c r="A150" s="20">
-        <v>44805</v>
+        <v>44836</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="27">
-        <v>150</v>
-      </c>
-      <c r="D150" s="24">
-        <v>1465</v>
+      <c r="C150" s="21">
+        <v>150</v>
+      </c>
+      <c r="D150" s="22">
+        <v>2815</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="30.6">
       <c r="A151" s="20"/>
       <c r="B151" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C151" s="27"/>
-      <c r="D151" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="22"/>
     </row>
     <row r="152" spans="1:4" ht="30.6">
       <c r="A152" s="20"/>
       <c r="B152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152" s="27"/>
-      <c r="D152" s="24"/>
-    </row>
-    <row r="153" spans="1:4" ht="30.6">
+        <v>14</v>
+      </c>
+      <c r="C152" s="21"/>
+      <c r="D152" s="22"/>
+    </row>
+    <row r="153" spans="1:4" ht="20.399999999999999">
       <c r="A153" s="17">
-        <v>44804</v>
+        <v>44836</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C153" s="26">
-        <v>-6.5</v>
+        <v>8</v>
+      </c>
+      <c r="C153" s="23">
+        <v>150</v>
       </c>
       <c r="D153" s="19">
-        <v>1315</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="30.6">
       <c r="A154" s="17"/>
       <c r="B154" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C154" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="C154" s="23"/>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" ht="20.399999999999999">
-      <c r="A155" s="20">
-        <v>44804</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="27">
-        <v>150</v>
-      </c>
-      <c r="D155" s="24">
-        <v>1321.5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="30.6">
-      <c r="A156" s="20"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="23"/>
+      <c r="D155" s="19"/>
+    </row>
+    <row r="156" spans="1:4" ht="20.399999999999999">
+      <c r="A156" s="20">
+        <v>44834</v>
+      </c>
       <c r="B156" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C156" s="27"/>
-      <c r="D156" s="24"/>
-    </row>
-    <row r="157" spans="1:4" ht="20.399999999999999">
+        <v>8</v>
+      </c>
+      <c r="C156" s="21">
+        <v>150</v>
+      </c>
+      <c r="D156" s="22">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30.6">
       <c r="A157" s="20"/>
       <c r="B157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" s="27"/>
-      <c r="D157" s="24"/>
-    </row>
-    <row r="158" spans="1:4" ht="20.399999999999999">
-      <c r="A158" s="17">
-        <v>44774</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="18">
-        <v>150</v>
-      </c>
-      <c r="D158" s="19">
-        <v>1171.5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="30.6">
-      <c r="A159" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="C157" s="21"/>
+      <c r="D157" s="22"/>
+    </row>
+    <row r="158" spans="1:4" ht="30.6">
+      <c r="A158" s="20"/>
+      <c r="B158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="21"/>
+      <c r="D158" s="22"/>
+    </row>
+    <row r="159" spans="1:4" ht="20.399999999999999">
+      <c r="A159" s="17">
+        <v>44833</v>
+      </c>
       <c r="B159" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C159" s="18"/>
-      <c r="D159" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="C159" s="23">
+        <v>600</v>
+      </c>
+      <c r="D159" s="19">
+        <v>2365</v>
+      </c>
     </row>
     <row r="160" spans="1:4" ht="30.6">
       <c r="A160" s="17"/>
       <c r="B160" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C160" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="C160" s="23"/>
       <c r="D160" s="19"/>
     </row>
-    <row r="161" spans="1:4" ht="20.399999999999999">
-      <c r="A161" s="20">
-        <v>44774</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="27">
-        <v>150</v>
-      </c>
-      <c r="D161" s="24">
-        <v>1021.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="30.6">
-      <c r="A162" s="20"/>
+    <row r="161" spans="1:4" ht="30.6">
+      <c r="A161" s="17"/>
+      <c r="B161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="23"/>
+      <c r="D161" s="19"/>
+    </row>
+    <row r="162" spans="1:4" ht="20.399999999999999">
+      <c r="A162" s="20">
+        <v>44813</v>
+      </c>
       <c r="B162" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C162" s="27"/>
-      <c r="D162" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="C162" s="21">
+        <v>150</v>
+      </c>
+      <c r="D162" s="22">
+        <v>1765</v>
+      </c>
     </row>
     <row r="163" spans="1:4" ht="30.6">
       <c r="A163" s="20"/>
       <c r="B163" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="22"/>
+    </row>
+    <row r="164" spans="1:4" ht="30.6">
+      <c r="A164" s="20"/>
+      <c r="B164" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="21"/>
+      <c r="D164" s="22"/>
+    </row>
+    <row r="165" spans="1:4" ht="20.399999999999999">
+      <c r="A165" s="17">
+        <v>44805</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="23">
+        <v>150</v>
+      </c>
+      <c r="D165" s="19">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="30.6">
+      <c r="A166" s="17"/>
+      <c r="B166" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166" s="23"/>
+      <c r="D166" s="19"/>
+    </row>
+    <row r="167" spans="1:4" ht="30.6">
+      <c r="A167" s="17"/>
+      <c r="B167" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="27"/>
-      <c r="D163" s="24"/>
-    </row>
-    <row r="164" spans="1:4" ht="30.6">
-      <c r="A164" s="17">
-        <v>44773</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="C167" s="23"/>
+      <c r="D167" s="19"/>
+    </row>
+    <row r="168" spans="1:4" ht="20.399999999999999">
+      <c r="A168" s="20">
+        <v>44805</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="21">
+        <v>150</v>
+      </c>
+      <c r="D168" s="22">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="30.6">
+      <c r="A169" s="20"/>
+      <c r="B169" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="21"/>
+      <c r="D169" s="22"/>
+    </row>
+    <row r="170" spans="1:4" ht="30.6">
+      <c r="A170" s="20"/>
+      <c r="B170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="21"/>
+      <c r="D170" s="22"/>
+    </row>
+    <row r="171" spans="1:4" ht="30.6">
+      <c r="A171" s="17">
+        <v>44804</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C164" s="26">
+      <c r="C171" s="18">
         <v>-6.5</v>
       </c>
-      <c r="D164" s="19">
-        <v>871.5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="30.6">
-      <c r="A165" s="17"/>
-      <c r="B165" s="1" t="s">
+      <c r="D171" s="19">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="30.6">
+      <c r="A172" s="17"/>
+      <c r="B172" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C165" s="26"/>
-      <c r="D165" s="19"/>
-    </row>
-    <row r="166" spans="1:4" ht="30.6">
-      <c r="A166" s="20">
-        <v>44773</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C166" s="22">
-        <v>-0.6</v>
-      </c>
-      <c r="D166" s="24">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="30.6">
-      <c r="A167" s="20"/>
-      <c r="B167" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C167" s="22"/>
-      <c r="D167" s="24"/>
-    </row>
-    <row r="168" spans="1:4" ht="20.399999999999999">
-      <c r="A168" s="17">
-        <v>44773</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="18">
-        <v>300</v>
-      </c>
-      <c r="D168" s="19">
-        <v>878.6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="30.6">
-      <c r="A169" s="17"/>
-      <c r="B169" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="19"/>
-    </row>
-    <row r="170" spans="1:4" ht="40.799999999999997">
-      <c r="A170" s="17"/>
-      <c r="B170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C170" s="18"/>
-      <c r="D170" s="19"/>
-    </row>
-    <row r="171" spans="1:4" ht="20.399999999999999">
-      <c r="A171" s="20">
-        <v>44772</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="27">
-        <v>150</v>
-      </c>
-      <c r="D171" s="24">
-        <v>578.6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="30.6">
-      <c r="A172" s="20"/>
-      <c r="B172" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C172" s="27"/>
-      <c r="D172" s="24"/>
-    </row>
-    <row r="173" spans="1:4" ht="30.6">
-      <c r="A173" s="20"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="19"/>
+    </row>
+    <row r="173" spans="1:4" ht="20.399999999999999">
+      <c r="A173" s="20">
+        <v>44804</v>
+      </c>
       <c r="B173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" s="27"/>
-      <c r="D173" s="24"/>
-    </row>
-    <row r="174" spans="1:4" ht="20.399999999999999">
-      <c r="A174" s="17">
-        <v>44771</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="26">
-        <v>-2050</v>
-      </c>
-      <c r="D174" s="19">
-        <v>428.6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="40.799999999999997" customHeight="1">
-      <c r="A175" s="17"/>
-      <c r="B175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="26"/>
-      <c r="D175" s="19"/>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="C173" s="21">
+        <v>150</v>
+      </c>
+      <c r="D173" s="22">
+        <v>1321.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="30.6">
+      <c r="A174" s="20"/>
+      <c r="B174" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" s="21"/>
+      <c r="D174" s="22"/>
+    </row>
+    <row r="175" spans="1:4" ht="20.399999999999999">
+      <c r="A175" s="20"/>
+      <c r="B175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="21"/>
+      <c r="D175" s="22"/>
+    </row>
+    <row r="176" spans="1:4" ht="20.399999999999999">
+      <c r="A176" s="17">
+        <v>44774</v>
+      </c>
       <c r="B176" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="26"/>
-      <c r="D176" s="19"/>
-    </row>
-    <row r="177" spans="1:4" ht="20.399999999999999">
+        <v>8</v>
+      </c>
+      <c r="C176" s="23">
+        <v>150</v>
+      </c>
+      <c r="D176" s="19">
+        <v>1171.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="30.6">
       <c r="A177" s="17"/>
       <c r="B177" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C177" s="26"/>
+        <v>66</v>
+      </c>
+      <c r="C177" s="23"/>
       <c r="D177" s="19"/>
     </row>
-    <row r="178" spans="1:4" ht="20.399999999999999">
-      <c r="A178" s="20">
-        <v>44771</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="27">
-        <v>150</v>
-      </c>
-      <c r="D178" s="24">
-        <v>2478.6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="30.6">
-      <c r="A179" s="20"/>
+    <row r="178" spans="1:4" ht="30.6">
+      <c r="A178" s="17"/>
+      <c r="B178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="23"/>
+      <c r="D178" s="19"/>
+    </row>
+    <row r="179" spans="1:4" ht="20.399999999999999">
+      <c r="A179" s="20">
+        <v>44774</v>
+      </c>
       <c r="B179" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C179" s="27"/>
-      <c r="D179" s="24"/>
-    </row>
-    <row r="180" spans="1:4" ht="20.399999999999999">
+        <v>8</v>
+      </c>
+      <c r="C179" s="21">
+        <v>150</v>
+      </c>
+      <c r="D179" s="22">
+        <v>1021.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="30.6">
       <c r="A180" s="20"/>
       <c r="B180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" s="27"/>
-      <c r="D180" s="24"/>
-    </row>
-    <row r="181" spans="1:4" ht="20.399999999999999">
-      <c r="A181" s="17">
-        <v>44743</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="18">
-        <v>150</v>
-      </c>
-      <c r="D181" s="19">
-        <v>2328.6</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C180" s="21"/>
+      <c r="D180" s="22"/>
+    </row>
+    <row r="181" spans="1:4" ht="30.6">
+      <c r="A181" s="20"/>
+      <c r="B181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="21"/>
+      <c r="D181" s="22"/>
     </row>
     <row r="182" spans="1:4" ht="30.6">
-      <c r="A182" s="17"/>
+      <c r="A182" s="17">
+        <v>44773</v>
+      </c>
       <c r="B182" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C182" s="18"/>
-      <c r="D182" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="C182" s="18">
+        <v>-6.5</v>
+      </c>
+      <c r="D182" s="19">
+        <v>871.5</v>
+      </c>
     </row>
     <row r="183" spans="1:4" ht="30.6">
       <c r="A183" s="17"/>
       <c r="B183" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="19"/>
     </row>
-    <row r="184" spans="1:4" ht="20.399999999999999">
+    <row r="184" spans="1:4" ht="30.6">
       <c r="A184" s="20">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="27">
-        <v>150</v>
-      </c>
-      <c r="D184" s="24">
-        <v>2178.6</v>
+        <v>63</v>
+      </c>
+      <c r="C184" s="24">
+        <v>-0.6</v>
+      </c>
+      <c r="D184" s="22">
+        <v>878</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="30.6">
       <c r="A185" s="20"/>
       <c r="B185" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C185" s="27"/>
-      <c r="D185" s="24"/>
-    </row>
-    <row r="186" spans="1:4" ht="30.6">
-      <c r="A186" s="20"/>
-      <c r="B186" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" s="27"/>
-      <c r="D186" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C185" s="24"/>
+      <c r="D185" s="22"/>
+    </row>
+    <row r="186" spans="1:4" ht="20.399999999999999">
+      <c r="A186" s="17">
+        <v>44773</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="23">
+        <v>300</v>
+      </c>
+      <c r="D186" s="19">
+        <v>878.6</v>
+      </c>
     </row>
     <row r="187" spans="1:4" ht="30.6">
-      <c r="A187" s="17">
-        <v>44742</v>
-      </c>
+      <c r="A187" s="17"/>
       <c r="B187" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C187" s="26">
-        <v>-6.5</v>
-      </c>
-      <c r="D187" s="19">
-        <v>2028.6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="30.6">
+        <v>69</v>
+      </c>
+      <c r="C187" s="23"/>
+      <c r="D187" s="19"/>
+    </row>
+    <row r="188" spans="1:4" ht="40.799999999999997">
       <c r="A188" s="17"/>
       <c r="B188" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C188" s="26"/>
+        <v>70</v>
+      </c>
+      <c r="C188" s="23"/>
       <c r="D188" s="19"/>
     </row>
     <row r="189" spans="1:4" ht="20.399999999999999">
       <c r="A189" s="20">
-        <v>44742</v>
+        <v>44772</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="27">
-        <v>150</v>
-      </c>
-      <c r="D189" s="24">
-        <v>2035.1</v>
+      <c r="C189" s="21">
+        <v>150</v>
+      </c>
+      <c r="D189" s="22">
+        <v>578.6</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="30.6">
       <c r="A190" s="20"/>
       <c r="B190" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C190" s="27"/>
-      <c r="D190" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="22"/>
     </row>
     <row r="191" spans="1:4" ht="30.6">
       <c r="A191" s="20"/>
       <c r="B191" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" s="27"/>
-      <c r="D191" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="C191" s="21"/>
+      <c r="D191" s="22"/>
     </row>
     <row r="192" spans="1:4" ht="20.399999999999999">
       <c r="A192" s="17">
-        <v>44741</v>
+        <v>44771</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C192" s="18">
-        <v>300</v>
+        <v>-2050</v>
       </c>
       <c r="D192" s="19">
-        <v>1885.1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="30.6">
+        <v>428.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="40.799999999999997" customHeight="1">
       <c r="A193" s="17"/>
       <c r="B193" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="19"/>
     </row>
-    <row r="194" spans="1:4" ht="30.6">
+    <row r="194" spans="1:4">
       <c r="A194" s="17"/>
       <c r="B194" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="19"/>
     </row>
     <row r="195" spans="1:4" ht="20.399999999999999">
-      <c r="A195" s="20">
-        <v>44741</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="27">
-        <v>150</v>
-      </c>
-      <c r="D195" s="24">
-        <v>1585.1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="30.6">
-      <c r="A196" s="20"/>
+      <c r="A195" s="17"/>
+      <c r="B195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="18"/>
+      <c r="D195" s="19"/>
+    </row>
+    <row r="196" spans="1:4" ht="20.399999999999999">
+      <c r="A196" s="20">
+        <v>44771</v>
+      </c>
       <c r="B196" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C196" s="27"/>
-      <c r="D196" s="24"/>
-    </row>
-    <row r="197" spans="1:4" ht="20.399999999999999">
+        <v>8</v>
+      </c>
+      <c r="C196" s="21">
+        <v>150</v>
+      </c>
+      <c r="D196" s="22">
+        <v>2478.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="30.6">
       <c r="A197" s="20"/>
       <c r="B197" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C197" s="21"/>
+      <c r="D197" s="22"/>
+    </row>
+    <row r="198" spans="1:4" ht="20.399999999999999">
+      <c r="A198" s="20"/>
+      <c r="B198" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="27"/>
-      <c r="D197" s="24"/>
-    </row>
-    <row r="198" spans="1:4" ht="20.399999999999999">
-      <c r="A198" s="17">
-        <v>44715</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="18">
-        <v>150</v>
-      </c>
-      <c r="D198" s="19">
-        <v>1435.1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="30.6">
-      <c r="A199" s="17"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="22"/>
+    </row>
+    <row r="199" spans="1:4" ht="20.399999999999999">
+      <c r="A199" s="17">
+        <v>44743</v>
+      </c>
       <c r="B199" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C199" s="18"/>
-      <c r="D199" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="C199" s="23">
+        <v>150</v>
+      </c>
+      <c r="D199" s="19">
+        <v>2328.6</v>
+      </c>
     </row>
     <row r="200" spans="1:4" ht="30.6">
       <c r="A200" s="17"/>
       <c r="B200" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C200" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="C200" s="23"/>
       <c r="D200" s="19"/>
     </row>
-    <row r="201" spans="1:4" ht="20.399999999999999">
-      <c r="A201" s="20">
-        <v>44715</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="27">
-        <v>300</v>
-      </c>
-      <c r="D201" s="24">
-        <v>1285.0999999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30.6">
-      <c r="A202" s="20"/>
+    <row r="201" spans="1:4" ht="30.6">
+      <c r="A201" s="17"/>
+      <c r="B201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="23"/>
+      <c r="D201" s="19"/>
+    </row>
+    <row r="202" spans="1:4" ht="20.399999999999999">
+      <c r="A202" s="20">
+        <v>44743</v>
+      </c>
       <c r="B202" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C202" s="27"/>
-      <c r="D202" s="24"/>
-    </row>
-    <row r="203" spans="1:4" ht="40.799999999999997">
+        <v>8</v>
+      </c>
+      <c r="C202" s="21">
+        <v>150</v>
+      </c>
+      <c r="D202" s="22">
+        <v>2178.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="30.6">
       <c r="A203" s="20"/>
       <c r="B203" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C203" s="27"/>
-      <c r="D203" s="24"/>
-    </row>
-    <row r="204" spans="1:4" ht="20.399999999999999">
-      <c r="A204" s="17">
-        <v>44714</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="18">
-        <v>150</v>
-      </c>
-      <c r="D204" s="19">
-        <v>985.1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C203" s="21"/>
+      <c r="D203" s="22"/>
+    </row>
+    <row r="204" spans="1:4" ht="30.6">
+      <c r="A204" s="20"/>
+      <c r="B204" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="21"/>
+      <c r="D204" s="22"/>
     </row>
     <row r="205" spans="1:4" ht="30.6">
-      <c r="A205" s="17"/>
+      <c r="A205" s="17">
+        <v>44742</v>
+      </c>
       <c r="B205" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C205" s="18"/>
-      <c r="D205" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="C205" s="18">
+        <v>-6.5</v>
+      </c>
+      <c r="D205" s="19">
+        <v>2028.6</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="30.6">
       <c r="A206" s="17"/>
       <c r="B206" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="19"/>
     </row>
-    <row r="207" spans="1:4" ht="30.6">
+    <row r="207" spans="1:4" ht="20.399999999999999">
       <c r="A207" s="20">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C207" s="22">
-        <v>-6.5</v>
-      </c>
-      <c r="D207" s="24">
-        <v>835.1</v>
+        <v>8</v>
+      </c>
+      <c r="C207" s="21">
+        <v>150</v>
+      </c>
+      <c r="D207" s="22">
+        <v>2035.1</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="30.6">
       <c r="A208" s="20"/>
       <c r="B208" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C208" s="22"/>
-      <c r="D208" s="24"/>
+        <v>76</v>
+      </c>
+      <c r="C208" s="21"/>
+      <c r="D208" s="22"/>
     </row>
     <row r="209" spans="1:4" ht="30.6">
-      <c r="A209" s="17">
-        <v>44712</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C209" s="26">
-        <v>-2.1</v>
-      </c>
-      <c r="D209" s="19">
-        <v>841.6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="30.6">
-      <c r="A210" s="17"/>
+      <c r="A209" s="20"/>
+      <c r="B209" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="21"/>
+      <c r="D209" s="22"/>
+    </row>
+    <row r="210" spans="1:4" ht="20.399999999999999">
+      <c r="A210" s="17">
+        <v>44741</v>
+      </c>
       <c r="B210" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C210" s="26"/>
-      <c r="D210" s="19"/>
-    </row>
-    <row r="211" spans="1:4" ht="20.399999999999999">
-      <c r="A211" s="20">
-        <v>44712</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="27">
-        <v>150</v>
-      </c>
-      <c r="D211" s="24">
-        <v>843.7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C210" s="23">
+        <v>300</v>
+      </c>
+      <c r="D210" s="19">
+        <v>1885.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="30.6">
+      <c r="A211" s="17"/>
+      <c r="B211" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C211" s="23"/>
+      <c r="D211" s="19"/>
     </row>
     <row r="212" spans="1:4" ht="30.6">
-      <c r="A212" s="20"/>
-      <c r="B212" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C212" s="27"/>
-      <c r="D212" s="24"/>
-    </row>
-    <row r="213" spans="1:4" ht="30.6">
-      <c r="A213" s="20"/>
+      <c r="A212" s="17"/>
+      <c r="B212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="23"/>
+      <c r="D212" s="19"/>
+    </row>
+    <row r="213" spans="1:4" ht="20.399999999999999">
+      <c r="A213" s="20">
+        <v>44741</v>
+      </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C213" s="27"/>
-      <c r="D213" s="24"/>
-    </row>
-    <row r="214" spans="1:4" ht="20.399999999999999">
-      <c r="A214" s="17">
-        <v>44708</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="18">
-        <v>150</v>
-      </c>
-      <c r="D214" s="19">
-        <v>693.7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="30.6">
-      <c r="A215" s="17"/>
-      <c r="B215" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C215" s="18"/>
-      <c r="D215" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="C213" s="21">
+        <v>150</v>
+      </c>
+      <c r="D213" s="22">
+        <v>1585.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="30.6">
+      <c r="A214" s="20"/>
+      <c r="B214" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C214" s="21"/>
+      <c r="D214" s="22"/>
+    </row>
+    <row r="215" spans="1:4" ht="20.399999999999999">
+      <c r="A215" s="20"/>
+      <c r="B215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="21"/>
+      <c r="D215" s="22"/>
     </row>
     <row r="216" spans="1:4" ht="20.399999999999999">
-      <c r="A216" s="17"/>
+      <c r="A216" s="17">
+        <v>44715</v>
+      </c>
       <c r="B216" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C216" s="18"/>
-      <c r="D216" s="19"/>
-    </row>
-    <row r="217" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A217" s="20">
-        <v>44705</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C217" s="22">
-        <v>-341.67</v>
-      </c>
-      <c r="D217" s="24">
-        <v>543.70000000000005</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="20"/>
-      <c r="B218" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C218" s="22"/>
-      <c r="D218" s="24"/>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="20"/>
-      <c r="B219" s="2">
-        <v>10100086160634</v>
-      </c>
-      <c r="C219" s="22"/>
-      <c r="D219" s="24"/>
-    </row>
-    <row r="220" spans="1:4" ht="30.6" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C216" s="23">
+        <v>150</v>
+      </c>
+      <c r="D216" s="19">
+        <v>1435.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="30.6">
+      <c r="A217" s="17"/>
+      <c r="B217" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" s="23"/>
+      <c r="D217" s="19"/>
+    </row>
+    <row r="218" spans="1:4" ht="30.6">
+      <c r="A218" s="17"/>
+      <c r="B218" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C218" s="23"/>
+      <c r="D218" s="19"/>
+    </row>
+    <row r="219" spans="1:4" ht="20.399999999999999">
+      <c r="A219" s="20">
+        <v>44715</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="21">
+        <v>300</v>
+      </c>
+      <c r="D219" s="22">
+        <v>1285.0999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="30.6">
       <c r="A220" s="20"/>
       <c r="B220" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C220" s="21"/>
+      <c r="D220" s="22"/>
+    </row>
+    <row r="221" spans="1:4" ht="40.799999999999997">
+      <c r="A221" s="20"/>
+      <c r="B221" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C221" s="21"/>
+      <c r="D221" s="22"/>
+    </row>
+    <row r="222" spans="1:4" ht="20.399999999999999">
+      <c r="A222" s="17">
+        <v>44714</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="23">
+        <v>150</v>
+      </c>
+      <c r="D222" s="19">
+        <v>985.1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="30.6">
+      <c r="A223" s="17"/>
+      <c r="B223" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" s="23"/>
+      <c r="D223" s="19"/>
+    </row>
+    <row r="224" spans="1:4" ht="30.6">
+      <c r="A224" s="17"/>
+      <c r="B224" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C224" s="23"/>
+      <c r="D224" s="19"/>
+    </row>
+    <row r="225" spans="1:4" ht="30.6">
+      <c r="A225" s="20">
+        <v>44712</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C225" s="24">
+        <v>-6.5</v>
+      </c>
+      <c r="D225" s="22">
+        <v>835.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="30.6">
+      <c r="A226" s="20"/>
+      <c r="B226" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="24"/>
+      <c r="D226" s="22"/>
+    </row>
+    <row r="227" spans="1:4" ht="30.6">
+      <c r="A227" s="17">
+        <v>44712</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C227" s="18">
+        <v>-2.1</v>
+      </c>
+      <c r="D227" s="19">
+        <v>841.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="30.6">
+      <c r="A228" s="17"/>
+      <c r="B228" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C228" s="18"/>
+      <c r="D228" s="19"/>
+    </row>
+    <row r="229" spans="1:4" ht="20.399999999999999">
+      <c r="A229" s="20">
+        <v>44712</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="21">
+        <v>150</v>
+      </c>
+      <c r="D229" s="22">
+        <v>843.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="30.6">
+      <c r="A230" s="20"/>
+      <c r="B230" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C230" s="21"/>
+      <c r="D230" s="22"/>
+    </row>
+    <row r="231" spans="1:4" ht="30.6">
+      <c r="A231" s="20"/>
+      <c r="B231" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C231" s="21"/>
+      <c r="D231" s="22"/>
+    </row>
+    <row r="232" spans="1:4" ht="20.399999999999999">
+      <c r="A232" s="17">
+        <v>44708</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="23">
+        <v>150</v>
+      </c>
+      <c r="D232" s="19">
+        <v>693.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="30.6">
+      <c r="A233" s="17"/>
+      <c r="B233" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C233" s="23"/>
+      <c r="D233" s="19"/>
+    </row>
+    <row r="234" spans="1:4" ht="20.399999999999999">
+      <c r="A234" s="17"/>
+      <c r="B234" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C234" s="23"/>
+      <c r="D234" s="19"/>
+    </row>
+    <row r="235" spans="1:4" ht="30.6" customHeight="1">
+      <c r="A235" s="20">
+        <v>44705</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C235" s="24">
+        <v>-341.67</v>
+      </c>
+      <c r="D235" s="22">
+        <v>543.70000000000005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="20"/>
+      <c r="B236" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C236" s="24"/>
+      <c r="D236" s="22"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="20"/>
+      <c r="B237" s="2">
+        <v>10100086160634</v>
+      </c>
+      <c r="C237" s="24"/>
+      <c r="D237" s="22"/>
+    </row>
+    <row r="238" spans="1:4" ht="30.6" customHeight="1">
+      <c r="A238" s="20"/>
+      <c r="B238" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C220" s="22"/>
-      <c r="D220" s="24"/>
-    </row>
-    <row r="221" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A221" s="21"/>
-      <c r="B221" s="7" t="s">
+      <c r="C238" s="24"/>
+      <c r="D238" s="22"/>
+    </row>
+    <row r="239" spans="1:4" ht="31.2" thickBot="1">
+      <c r="A239" s="25"/>
+      <c r="B239" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C221" s="23"/>
-      <c r="D221" s="25"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C221" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="222">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
+  <autoFilter ref="C1:C239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="240">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="D216:D218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="D219:D221"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="D51:D53"/>
@@ -3164,186 +3622,42 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="C217:C221"/>
-    <mergeCell ref="D217:D221"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3379,204 +3693,210 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="8">
-        <v>45118</v>
-      </c>
-      <c r="B2" s="9">
-        <v>-2310</v>
-      </c>
-      <c r="C2" s="10">
-        <v>7705</v>
+        <v>45140</v>
+      </c>
+      <c r="B2" s="12">
+        <v>150</v>
+      </c>
+      <c r="C2" s="13">
+        <f t="shared" ref="C2:C6" si="0">C3+B2</f>
+        <v>9955</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11">
-        <v>45112</v>
+      <c r="A3" s="8">
+        <v>45140</v>
       </c>
       <c r="B3" s="12">
         <v>150</v>
       </c>
       <c r="C3" s="13">
-        <v>10015</v>
+        <f t="shared" si="0"/>
+        <v>9805</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8">
-        <v>45111</v>
-      </c>
-      <c r="B4" s="14">
-        <v>300</v>
-      </c>
-      <c r="C4" s="10">
-        <v>9865</v>
+        <v>45138</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>9655</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11">
-        <v>45108</v>
+      <c r="A5" s="8">
+        <v>45135</v>
       </c>
       <c r="B5" s="12">
         <v>150</v>
       </c>
       <c r="C5" s="13">
-        <v>9565</v>
+        <f t="shared" si="0"/>
+        <v>8155</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8">
-        <v>45107</v>
-      </c>
-      <c r="B6" s="14">
-        <v>150</v>
-      </c>
-      <c r="C6" s="10">
-        <v>9415</v>
+        <v>45133</v>
+      </c>
+      <c r="B6" s="12">
+        <v>150</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>8005</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11">
-        <v>45083</v>
+      <c r="A7" s="8">
+        <v>45133</v>
       </c>
       <c r="B7" s="12">
         <v>150</v>
       </c>
       <c r="C7" s="13">
-        <v>9265</v>
+        <f>C8+B7</f>
+        <v>7855</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8">
-        <v>45076</v>
-      </c>
-      <c r="B8" s="14">
-        <v>150</v>
+        <v>45118</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-2310</v>
       </c>
       <c r="C8" s="10">
-        <v>9115</v>
+        <v>7705</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11">
-        <v>45047</v>
+        <v>45112</v>
       </c>
       <c r="B9" s="12">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C9" s="13">
-        <v>8965</v>
+        <v>10015</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8">
-        <v>45047</v>
+        <v>45111</v>
       </c>
       <c r="B10" s="14">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C10" s="10">
-        <v>8665</v>
+        <v>9865</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="11">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B11" s="12">
         <v>150</v>
       </c>
       <c r="C11" s="13">
-        <v>8515</v>
+        <v>9565</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -3584,319 +3904,319 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8">
-        <v>45047</v>
+        <v>45107</v>
       </c>
       <c r="B12" s="14">
         <v>150</v>
       </c>
       <c r="C12" s="10">
-        <v>8365</v>
+        <v>9415</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="11">
-        <v>45047</v>
+        <v>45083</v>
       </c>
       <c r="B13" s="12">
         <v>150</v>
       </c>
       <c r="C13" s="13">
-        <v>8215</v>
+        <v>9265</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8">
-        <v>45047</v>
+        <v>45076</v>
       </c>
       <c r="B14" s="14">
         <v>150</v>
       </c>
       <c r="C14" s="10">
-        <v>8065</v>
+        <v>9115</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11">
-        <v>45044</v>
+        <v>45047</v>
       </c>
       <c r="B15" s="12">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C15" s="13">
-        <v>7915</v>
+        <v>8965</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B16" s="14">
         <v>150</v>
       </c>
       <c r="C16" s="10">
-        <v>7765</v>
+        <v>8665</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11">
-        <v>45016</v>
+        <v>45047</v>
       </c>
       <c r="B17" s="12">
         <v>150</v>
       </c>
       <c r="C17" s="13">
-        <v>7615</v>
+        <v>8515</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8">
-        <v>45016</v>
+        <v>45047</v>
       </c>
       <c r="B18" s="14">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C18" s="10">
-        <v>7465</v>
+        <v>8365</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11">
-        <v>45015</v>
+        <v>45047</v>
       </c>
       <c r="B19" s="12">
         <v>150</v>
       </c>
       <c r="C19" s="13">
-        <v>7165</v>
+        <v>8215</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8">
-        <v>44987</v>
+        <v>45047</v>
       </c>
       <c r="B20" s="14">
         <v>150</v>
       </c>
       <c r="C20" s="10">
-        <v>7015</v>
+        <v>8065</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11">
-        <v>44987</v>
+        <v>45044</v>
       </c>
       <c r="B21" s="12">
         <v>150</v>
       </c>
       <c r="C21" s="13">
-        <v>6865</v>
+        <v>7915</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8">
-        <v>44987</v>
+        <v>45017</v>
       </c>
       <c r="B22" s="14">
         <v>150</v>
       </c>
       <c r="C22" s="10">
-        <v>6715</v>
+        <v>7765</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B23" s="12">
         <v>150</v>
       </c>
       <c r="C23" s="13">
-        <v>6565</v>
+        <v>7615</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B24" s="14">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C24" s="10">
-        <v>6415</v>
+        <v>7465</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11">
-        <v>44981</v>
+        <v>45015</v>
       </c>
       <c r="B25" s="12">
         <v>150</v>
       </c>
       <c r="C25" s="13">
-        <v>6265</v>
+        <v>7165</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8">
-        <v>44958</v>
+        <v>44987</v>
       </c>
       <c r="B26" s="14">
         <v>150</v>
       </c>
       <c r="C26" s="10">
-        <v>6115</v>
+        <v>7015</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11">
-        <v>44958</v>
+        <v>44987</v>
       </c>
       <c r="B27" s="12">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C27" s="13">
-        <v>5965</v>
+        <v>6865</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>97</v>
@@ -3904,219 +4224,219 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8">
-        <v>44958</v>
+        <v>44987</v>
       </c>
       <c r="B28" s="14">
         <v>150</v>
       </c>
       <c r="C28" s="10">
-        <v>5665</v>
+        <v>6715</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11">
-        <v>44957</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="12">
         <v>150</v>
       </c>
       <c r="C29" s="13">
-        <v>5515</v>
+        <v>6565</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8">
-        <v>44928</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="14">
         <v>150</v>
       </c>
       <c r="C30" s="10">
-        <v>5365</v>
+        <v>6415</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11">
-        <v>44927</v>
+        <v>44981</v>
       </c>
       <c r="B31" s="12">
         <v>150</v>
       </c>
       <c r="C31" s="13">
-        <v>5215</v>
+        <v>6265</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8">
-        <v>44926</v>
+        <v>44958</v>
       </c>
       <c r="B32" s="14">
         <v>150</v>
       </c>
       <c r="C32" s="10">
-        <v>5065</v>
+        <v>6115</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11">
-        <v>44922</v>
+        <v>44958</v>
       </c>
       <c r="B33" s="12">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C33" s="13">
-        <v>4915</v>
+        <v>5965</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8">
-        <v>44922</v>
+        <v>44958</v>
       </c>
       <c r="B34" s="14">
         <v>150</v>
       </c>
       <c r="C34" s="10">
-        <v>4765</v>
+        <v>5665</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="11">
-        <v>44900</v>
+        <v>44957</v>
       </c>
       <c r="B35" s="12">
         <v>150</v>
       </c>
       <c r="C35" s="13">
-        <v>4615</v>
+        <v>5515</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8">
-        <v>44900</v>
+        <v>44928</v>
       </c>
       <c r="B36" s="14">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C36" s="10">
-        <v>4465</v>
+        <v>5365</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="11">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B37" s="12">
         <v>150</v>
       </c>
       <c r="C37" s="13">
-        <v>4165</v>
+        <v>5215</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B38" s="14">
         <v>150</v>
       </c>
       <c r="C38" s="10">
-        <v>4015</v>
+        <v>5065</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
         <v>99</v>
@@ -4124,19 +4444,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="11">
-        <v>44879</v>
+        <v>44922</v>
       </c>
       <c r="B39" s="12">
         <v>150</v>
       </c>
       <c r="C39" s="13">
-        <v>3865</v>
+        <v>4915</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
         <v>100</v>
@@ -4144,550 +4464,553 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8">
-        <v>44866</v>
+        <v>44922</v>
       </c>
       <c r="B40" s="14">
         <v>150</v>
       </c>
       <c r="C40" s="10">
-        <v>3715</v>
+        <v>4765</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="11">
-        <v>44866</v>
+        <v>44900</v>
       </c>
       <c r="B41" s="12">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C41" s="13">
-        <v>3565</v>
+        <v>4615</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8">
-        <v>44866</v>
+        <v>44900</v>
       </c>
       <c r="B42" s="14">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C42" s="10">
-        <v>3265</v>
+        <v>4465</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="11">
-        <v>44862</v>
+        <v>44896</v>
       </c>
       <c r="B43" s="12">
         <v>150</v>
       </c>
       <c r="C43" s="13">
-        <v>3115</v>
+        <v>4165</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8">
-        <v>44838</v>
+        <v>44896</v>
       </c>
       <c r="B44" s="14">
         <v>150</v>
       </c>
       <c r="C44" s="10">
-        <v>2965</v>
+        <v>4015</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="11">
-        <v>44836</v>
+        <v>44879</v>
       </c>
       <c r="B45" s="12">
         <v>150</v>
       </c>
       <c r="C45" s="13">
-        <v>2815</v>
+        <v>3865</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <v>44836</v>
+        <v>44866</v>
       </c>
       <c r="B46" s="14">
         <v>150</v>
       </c>
       <c r="C46" s="10">
-        <v>2665</v>
+        <v>3715</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="11">
-        <v>44834</v>
+        <v>44866</v>
       </c>
       <c r="B47" s="12">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C47" s="13">
-        <v>2515</v>
+        <v>3565</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="8">
+        <v>44866</v>
+      </c>
+      <c r="B48" s="14">
+        <v>150</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3265</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="11">
+        <v>44862</v>
+      </c>
+      <c r="B49" s="12">
+        <v>150</v>
+      </c>
+      <c r="C49" s="13">
+        <v>3115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
+        <v>44838</v>
+      </c>
+      <c r="B50" s="14">
+        <v>150</v>
+      </c>
+      <c r="C50" s="10">
+        <v>2965</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="11">
+        <v>44836</v>
+      </c>
+      <c r="B51" s="12">
+        <v>150</v>
+      </c>
+      <c r="C51" s="13">
+        <v>2815</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8">
+        <v>44836</v>
+      </c>
+      <c r="B52" s="14">
+        <v>150</v>
+      </c>
+      <c r="C52" s="10">
+        <v>2665</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="11">
+        <v>44834</v>
+      </c>
+      <c r="B53" s="12">
+        <v>150</v>
+      </c>
+      <c r="C53" s="13">
+        <v>2515</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8">
         <v>44833</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B54" s="14">
         <v>600</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C54" s="10">
         <v>2365</v>
       </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="11">
+    <row r="55" spans="1:6">
+      <c r="A55" s="11">
         <v>44813</v>
       </c>
-      <c r="B49" s="12">
-        <v>150</v>
-      </c>
-      <c r="C49" s="13">
+      <c r="B55" s="12">
+        <v>150</v>
+      </c>
+      <c r="C55" s="13">
         <v>1765</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
         <v>60</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="8">
+    <row r="56" spans="1:6">
+      <c r="A56" s="8">
         <v>44805</v>
       </c>
-      <c r="B50" s="14">
-        <v>150</v>
-      </c>
-      <c r="C50" s="10">
+      <c r="B56" s="14">
+        <v>150</v>
+      </c>
+      <c r="C56" s="10">
         <v>1615</v>
       </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
         <v>61</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="11">
+    <row r="57" spans="1:6">
+      <c r="A57" s="11">
         <v>44805</v>
       </c>
-      <c r="B51" s="12">
-        <v>150</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B57" s="12">
+        <v>150</v>
+      </c>
+      <c r="C57" s="13">
         <v>1465</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
         <v>62</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
-      <c r="A52" s="8">
+    <row r="58" spans="1:6">
+      <c r="A58" s="8">
         <v>44804</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B58" s="9">
         <v>-6.5</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C58" s="10">
         <v>1315</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D58" t="s">
         <v>63</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="11">
+    <row r="59" spans="1:6">
+      <c r="A59" s="11">
         <v>44804</v>
       </c>
-      <c r="B53" s="12">
-        <v>150</v>
-      </c>
-      <c r="C53" s="13">
+      <c r="B59" s="12">
+        <v>150</v>
+      </c>
+      <c r="C59" s="13">
         <v>1321.5</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
         <v>65</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="8">
+    <row r="60" spans="1:6">
+      <c r="A60" s="8">
         <v>44774</v>
       </c>
-      <c r="B54" s="14">
-        <v>150</v>
-      </c>
-      <c r="C54" s="10">
+      <c r="B60" s="14">
+        <v>150</v>
+      </c>
+      <c r="C60" s="10">
         <v>1171.5</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
         <v>66</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F60" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="11">
+    <row r="61" spans="1:6">
+      <c r="A61" s="11">
         <v>44774</v>
       </c>
-      <c r="B55" s="12">
-        <v>150</v>
-      </c>
-      <c r="C55" s="13">
+      <c r="B61" s="12">
+        <v>150</v>
+      </c>
+      <c r="C61" s="13">
         <v>1021.5</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
         <v>67</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1">
-      <c r="A56" s="8">
+    <row r="62" spans="1:6">
+      <c r="A62" s="8">
         <v>44773</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B62" s="9">
         <v>-6.5</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C62" s="10">
         <v>871.5</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D62" t="s">
         <v>63</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
-      <c r="A57" s="11">
+    <row r="63" spans="1:6">
+      <c r="A63" s="11">
         <v>44773</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B63" s="15">
         <v>-0.6</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C63" s="13">
         <v>878</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D63" t="s">
         <v>63</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="8">
+    <row r="64" spans="1:6">
+      <c r="A64" s="8">
         <v>44773</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B64" s="14">
         <v>300</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C64" s="10">
         <v>878.6</v>
       </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
         <v>69</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F64" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="11">
-        <v>44772</v>
-      </c>
-      <c r="B59" s="12">
-        <v>150</v>
-      </c>
-      <c r="C59" s="13">
-        <v>578.6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1">
-      <c r="A60" s="8">
-        <v>44771</v>
-      </c>
-      <c r="B60" s="9">
-        <v>-2050</v>
-      </c>
-      <c r="C60" s="10">
-        <v>428.6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="11">
-        <v>44771</v>
-      </c>
-      <c r="B61" s="12">
-        <v>150</v>
-      </c>
-      <c r="C61" s="13">
-        <v>2478.6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="8">
-        <v>44743</v>
-      </c>
-      <c r="B62" s="14">
-        <v>150</v>
-      </c>
-      <c r="C62" s="10">
-        <v>2328.6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="11">
-        <v>44743</v>
-      </c>
-      <c r="B63" s="12">
-        <v>150</v>
-      </c>
-      <c r="C63" s="13">
-        <v>2178.6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1">
-      <c r="A64" s="8">
-        <v>44742</v>
-      </c>
-      <c r="B64" s="9">
-        <v>-6.5</v>
-      </c>
-      <c r="C64" s="10">
-        <v>2028.6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="11">
-        <v>44742</v>
+        <v>44772</v>
       </c>
       <c r="B65" s="12">
         <v>150</v>
       </c>
       <c r="C65" s="13">
-        <v>2035.1</v>
+        <v>578.6</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8">
-        <v>44741</v>
-      </c>
-      <c r="B66" s="14">
-        <v>300</v>
+        <v>44771</v>
+      </c>
+      <c r="B66" s="9">
+        <v>-2050</v>
       </c>
       <c r="C66" s="10">
-        <v>1885.1</v>
+        <v>428.6</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="11">
-        <v>44741</v>
+        <v>44771</v>
       </c>
       <c r="B67" s="12">
         <v>150</v>
       </c>
       <c r="C67" s="13">
-        <v>1585.1</v>
+        <v>2478.6</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
         <v>96</v>
@@ -4695,171 +5018,280 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8">
-        <v>44715</v>
+        <v>44743</v>
       </c>
       <c r="B68" s="14">
         <v>150</v>
       </c>
       <c r="C68" s="10">
-        <v>1435.1</v>
+        <v>2328.6</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="11">
-        <v>44715</v>
+        <v>44743</v>
       </c>
       <c r="B69" s="12">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C69" s="13">
-        <v>1285.0999999999999</v>
+        <v>2178.6</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="8">
-        <v>44714</v>
-      </c>
-      <c r="B70" s="14">
-        <v>150</v>
+        <v>44742</v>
+      </c>
+      <c r="B70" s="9">
+        <v>-6.5</v>
       </c>
       <c r="C70" s="10">
-        <v>985.1</v>
+        <v>2028.6</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="11">
-        <v>44712</v>
-      </c>
-      <c r="B71" s="15">
-        <v>-6.5</v>
+        <v>44742</v>
+      </c>
+      <c r="B71" s="12">
+        <v>150</v>
       </c>
       <c r="C71" s="13">
-        <v>835.1</v>
+        <v>2035.1</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="8">
-        <v>44712</v>
-      </c>
-      <c r="B72" s="9">
-        <v>-2.1</v>
+        <v>44741</v>
+      </c>
+      <c r="B72" s="14">
+        <v>300</v>
       </c>
       <c r="C72" s="10">
-        <v>841.6</v>
+        <v>1885.1</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="11">
-        <v>44712</v>
+        <v>44741</v>
       </c>
       <c r="B73" s="12">
         <v>150</v>
       </c>
       <c r="C73" s="13">
-        <v>843.7</v>
+        <v>1585.1</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8">
+        <v>44715</v>
+      </c>
+      <c r="B74" s="14">
+        <v>150</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1435.1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="11">
+        <v>44715</v>
+      </c>
+      <c r="B75" s="12">
+        <v>300</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1285.0999999999999</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="8">
+        <v>44714</v>
+      </c>
+      <c r="B76" s="14">
+        <v>150</v>
+      </c>
+      <c r="C76" s="10">
+        <v>985.1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="11">
+        <v>44712</v>
+      </c>
+      <c r="B77" s="15">
+        <v>-6.5</v>
+      </c>
+      <c r="C77" s="13">
+        <v>835.1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="8">
+        <v>44712</v>
+      </c>
+      <c r="B78" s="9">
+        <v>-2.1</v>
+      </c>
+      <c r="C78" s="10">
+        <v>841.6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="11">
+        <v>44712</v>
+      </c>
+      <c r="B79" s="12">
+        <v>150</v>
+      </c>
+      <c r="C79" s="13">
+        <v>843.7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="8">
         <v>44708</v>
       </c>
-      <c r="B74" s="14">
-        <v>150</v>
-      </c>
-      <c r="C74" s="10">
+      <c r="B80" s="14">
+        <v>150</v>
+      </c>
+      <c r="C80" s="10">
         <v>693.7</v>
       </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
         <v>86</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1">
-      <c r="A75" s="11">
+    <row r="81" spans="1:7">
+      <c r="A81" s="11">
         <v>44705</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B81" s="15">
         <v>-341.67</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C81" s="13">
         <v>543.70000000000005</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D81" t="s">
         <v>88</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E81" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F81" s="16">
         <v>10100086160634</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G81" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G75" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="$150.00"/>
-        <filter val="$300.00"/>
-        <filter val="$600.00"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G81" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data_100087848963_2023-07-21.xlsx
+++ b/raw_data_100087848963_2023-07-21.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315B118-C71C-464C-A54B-D80C69BAF1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F71B77-A344-46CD-9AD8-4F253B02AABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_963" sheetId="1" r:id="rId1"/>
-    <sheet name="clean_data" sheetId="2" r:id="rId2"/>
-    <sheet name="raw_375" sheetId="3" r:id="rId3"/>
+    <sheet name="raw_375" sheetId="3" r:id="rId2"/>
+    <sheet name="clean_963" sheetId="2" r:id="rId3"/>
+    <sheet name="clean_375" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">clean_data!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">clean_963!$A$1:$E$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_963!$C$1:$C$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -320,30 +321,6 @@
     <t>Memo Strata share of insurance</t>
   </si>
   <si>
-    <t>Desc2</t>
-  </si>
-  <si>
-    <t>Desc3</t>
-  </si>
-  <si>
-    <t>Desc4</t>
-  </si>
-  <si>
-    <t>DONGLILIU</t>
-  </si>
-  <si>
-    <t>EDWINALBERTIMHOFF</t>
-  </si>
-  <si>
-    <t>XIAOPENGFENG</t>
-  </si>
-  <si>
-    <t>TRACYCARRIER</t>
-  </si>
-  <si>
-    <t>SIDDHARTHSINHA</t>
-  </si>
-  <si>
     <t>EDWIN ALBERT IMHOFF</t>
   </si>
   <si>
@@ -447,6 +424,45 @@
   </si>
   <si>
     <t>Independent Business Account 100087848963</t>
+  </si>
+  <si>
+    <t>FUND SHARES</t>
+  </si>
+  <si>
+    <t>VANCITY</t>
+  </si>
+  <si>
+    <t>payer/payee</t>
+  </si>
+  <si>
+    <t>Pay As You Go 10100068626137</t>
+  </si>
+  <si>
+    <t>F938, Confirmation # 625937</t>
+  </si>
+  <si>
+    <t>F938, Confirmation # 302614</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>to 10100086160634</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Account Deposit</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -633,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -761,6 +777,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1044,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1073,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999">
@@ -1093,7 +1110,7 @@
     <row r="3" spans="1:7" ht="30.6">
       <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
@@ -1123,7 +1140,7 @@
     <row r="6" spans="1:7" ht="30.6">
       <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
@@ -1153,7 +1170,7 @@
     <row r="9" spans="1:7" ht="30.6">
       <c r="A9" s="24"/>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
@@ -1183,7 +1200,7 @@
     <row r="12" spans="1:7" ht="30.6">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
@@ -1213,7 +1230,7 @@
     <row r="15" spans="1:7" ht="30.6">
       <c r="A15" s="24"/>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -1243,7 +1260,7 @@
     <row r="18" spans="1:4" ht="30.6">
       <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
@@ -3477,7 +3494,7 @@
     <row r="241" spans="1:4" ht="30.6">
       <c r="A241" s="24"/>
       <c r="B241" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C241" s="36"/>
       <c r="D241" s="26"/>
@@ -3495,7 +3512,7 @@
         <v>44684</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C243" s="22">
         <v>150</v>
@@ -3507,7 +3524,7 @@
     <row r="244" spans="1:4" ht="20.399999999999999">
       <c r="A244" s="21"/>
       <c r="B244" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C244" s="22"/>
       <c r="D244" s="23"/>
@@ -3517,7 +3534,7 @@
         <v>44684</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C245" s="25">
         <v>150</v>
@@ -3529,7 +3546,7 @@
     <row r="246" spans="1:4" ht="20.399999999999999">
       <c r="A246" s="24"/>
       <c r="B246" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="26"/>
@@ -3551,7 +3568,7 @@
     <row r="248" spans="1:4" ht="30.6">
       <c r="A248" s="21"/>
       <c r="B248" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C248" s="22"/>
       <c r="D248" s="23"/>
@@ -3581,7 +3598,7 @@
     <row r="251" spans="1:4" ht="30.6">
       <c r="A251" s="24"/>
       <c r="B251" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="26"/>
@@ -3621,7 +3638,7 @@
         <v>44681</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C255" s="35">
         <v>-0.13</v>
@@ -3633,7 +3650,7 @@
     <row r="256" spans="1:4" ht="30.6">
       <c r="A256" s="24"/>
       <c r="B256" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C256" s="35"/>
       <c r="D256" s="26"/>
@@ -3655,7 +3672,7 @@
     <row r="258" spans="1:4" ht="30.6">
       <c r="A258" s="21"/>
       <c r="B258" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C258" s="22"/>
       <c r="D258" s="23"/>
@@ -3679,7 +3696,7 @@
     <row r="261" spans="1:4" ht="30.6">
       <c r="A261" s="21"/>
       <c r="B261" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C261" s="22"/>
       <c r="D261" s="23"/>
@@ -3733,7 +3750,7 @@
         <v>44644</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C266" s="35">
         <v>-5</v>
@@ -3745,7 +3762,7 @@
     <row r="267" spans="1:4" ht="30.6">
       <c r="A267" s="24"/>
       <c r="B267" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C267" s="35"/>
       <c r="D267" s="26"/>
@@ -3753,7 +3770,7 @@
     <row r="268" spans="1:4" ht="20.399999999999999">
       <c r="A268" s="24"/>
       <c r="B268" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C268" s="35"/>
       <c r="D268" s="26"/>
@@ -3763,7 +3780,7 @@
         <v>44644</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C269" s="18">
         <v>5</v>
@@ -4055,1877 +4072,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
-  <dimension ref="A1:H93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="39">
-        <v>45140</v>
-      </c>
-      <c r="B2" s="40">
-        <v>150</v>
-      </c>
-      <c r="C2" s="41">
-        <f t="shared" ref="C2:C6" si="0">C3+B2</f>
-        <v>9955</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="39">
-        <v>45140</v>
-      </c>
-      <c r="B3" s="40">
-        <v>150</v>
-      </c>
-      <c r="C3" s="41">
-        <f t="shared" si="0"/>
-        <v>9805</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="39">
-        <v>45138</v>
-      </c>
-      <c r="B4" s="40">
-        <v>1500</v>
-      </c>
-      <c r="C4" s="41">
-        <f t="shared" si="0"/>
-        <v>9655</v>
-      </c>
-      <c r="D4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="39">
-        <v>45135</v>
-      </c>
-      <c r="B5" s="40">
-        <v>150</v>
-      </c>
-      <c r="C5" s="41">
-        <f t="shared" si="0"/>
-        <v>8155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="39">
-        <v>45133</v>
-      </c>
-      <c r="B6" s="40">
-        <v>150</v>
-      </c>
-      <c r="C6" s="41">
-        <f t="shared" si="0"/>
-        <v>8005</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="39">
-        <v>45133</v>
-      </c>
-      <c r="B7" s="40">
-        <v>150</v>
-      </c>
-      <c r="C7" s="41">
-        <f>C8+B7</f>
-        <v>7855</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="39">
-        <v>45118</v>
-      </c>
-      <c r="B8" s="40">
-        <v>-2310</v>
-      </c>
-      <c r="C8" s="41">
-        <v>7705</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="39">
-        <v>45112</v>
-      </c>
-      <c r="B9" s="40">
-        <v>150</v>
-      </c>
-      <c r="C9" s="41">
-        <v>10015</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="39">
-        <v>45111</v>
-      </c>
-      <c r="B10" s="40">
-        <v>300</v>
-      </c>
-      <c r="C10" s="41">
-        <v>9865</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B11" s="40">
-        <v>150</v>
-      </c>
-      <c r="C11" s="41">
-        <v>9565</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="39">
-        <v>45107</v>
-      </c>
-      <c r="B12" s="40">
-        <v>150</v>
-      </c>
-      <c r="C12" s="41">
-        <v>9415</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="39">
-        <v>45083</v>
-      </c>
-      <c r="B13" s="40">
-        <v>150</v>
-      </c>
-      <c r="C13" s="41">
-        <v>9265</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="39">
-        <v>45076</v>
-      </c>
-      <c r="B14" s="40">
-        <v>150</v>
-      </c>
-      <c r="C14" s="41">
-        <v>9115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B15" s="40">
-        <v>300</v>
-      </c>
-      <c r="C15" s="41">
-        <v>8965</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B16" s="40">
-        <v>150</v>
-      </c>
-      <c r="C16" s="41">
-        <v>8665</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B17" s="40">
-        <v>150</v>
-      </c>
-      <c r="C17" s="41">
-        <v>8515</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B18" s="40">
-        <v>150</v>
-      </c>
-      <c r="C18" s="41">
-        <v>8365</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B19" s="40">
-        <v>150</v>
-      </c>
-      <c r="C19" s="41">
-        <v>8215</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="39">
-        <v>45047</v>
-      </c>
-      <c r="B20" s="40">
-        <v>150</v>
-      </c>
-      <c r="C20" s="41">
-        <v>8065</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="39">
-        <v>45044</v>
-      </c>
-      <c r="B21" s="40">
-        <v>150</v>
-      </c>
-      <c r="C21" s="41">
-        <v>7915</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="39">
-        <v>45017</v>
-      </c>
-      <c r="B22" s="40">
-        <v>150</v>
-      </c>
-      <c r="C22" s="41">
-        <v>7765</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="39">
-        <v>45016</v>
-      </c>
-      <c r="B23" s="40">
-        <v>150</v>
-      </c>
-      <c r="C23" s="41">
-        <v>7615</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="39">
-        <v>45016</v>
-      </c>
-      <c r="B24" s="40">
-        <v>300</v>
-      </c>
-      <c r="C24" s="41">
-        <v>7465</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="39">
-        <v>45015</v>
-      </c>
-      <c r="B25" s="40">
-        <v>150</v>
-      </c>
-      <c r="C25" s="41">
-        <v>7165</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="39">
-        <v>44987</v>
-      </c>
-      <c r="B26" s="40">
-        <v>150</v>
-      </c>
-      <c r="C26" s="41">
-        <v>7015</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="39">
-        <v>44987</v>
-      </c>
-      <c r="B27" s="40">
-        <v>150</v>
-      </c>
-      <c r="C27" s="41">
-        <v>6865</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="39">
-        <v>44987</v>
-      </c>
-      <c r="B28" s="40">
-        <v>150</v>
-      </c>
-      <c r="C28" s="41">
-        <v>6715</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="39">
-        <v>44986</v>
-      </c>
-      <c r="B29" s="40">
-        <v>150</v>
-      </c>
-      <c r="C29" s="41">
-        <v>6565</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="39">
-        <v>44986</v>
-      </c>
-      <c r="B30" s="40">
-        <v>150</v>
-      </c>
-      <c r="C30" s="41">
-        <v>6415</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="39">
-        <v>44981</v>
-      </c>
-      <c r="B31" s="40">
-        <v>150</v>
-      </c>
-      <c r="C31" s="41">
-        <v>6265</v>
-      </c>
-      <c r="D31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="39">
-        <v>44958</v>
-      </c>
-      <c r="B32" s="40">
-        <v>150</v>
-      </c>
-      <c r="C32" s="41">
-        <v>6115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="39">
-        <v>44958</v>
-      </c>
-      <c r="B33" s="40">
-        <v>300</v>
-      </c>
-      <c r="C33" s="41">
-        <v>5965</v>
-      </c>
-      <c r="D33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="39">
-        <v>44958</v>
-      </c>
-      <c r="B34" s="40">
-        <v>150</v>
-      </c>
-      <c r="C34" s="41">
-        <v>5665</v>
-      </c>
-      <c r="D34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="39">
-        <v>44957</v>
-      </c>
-      <c r="B35" s="40">
-        <v>150</v>
-      </c>
-      <c r="C35" s="41">
-        <v>5515</v>
-      </c>
-      <c r="D35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="39">
-        <v>44928</v>
-      </c>
-      <c r="B36" s="40">
-        <v>150</v>
-      </c>
-      <c r="C36" s="41">
-        <v>5365</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="39">
-        <v>44927</v>
-      </c>
-      <c r="B37" s="40">
-        <v>150</v>
-      </c>
-      <c r="C37" s="41">
-        <v>5215</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="39">
-        <v>44926</v>
-      </c>
-      <c r="B38" s="40">
-        <v>150</v>
-      </c>
-      <c r="C38" s="41">
-        <v>5065</v>
-      </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="39">
-        <v>44922</v>
-      </c>
-      <c r="B39" s="40">
-        <v>150</v>
-      </c>
-      <c r="C39" s="41">
-        <v>4915</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="39">
-        <v>44922</v>
-      </c>
-      <c r="B40" s="40">
-        <v>150</v>
-      </c>
-      <c r="C40" s="41">
-        <v>4765</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="39">
-        <v>44900</v>
-      </c>
-      <c r="B41" s="40">
-        <v>150</v>
-      </c>
-      <c r="C41" s="41">
-        <v>4615</v>
-      </c>
-      <c r="D41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="39">
-        <v>44900</v>
-      </c>
-      <c r="B42" s="40">
-        <v>300</v>
-      </c>
-      <c r="C42" s="41">
-        <v>4465</v>
-      </c>
-      <c r="D42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="39">
-        <v>44896</v>
-      </c>
-      <c r="B43" s="40">
-        <v>150</v>
-      </c>
-      <c r="C43" s="41">
-        <v>4165</v>
-      </c>
-      <c r="D43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="39">
-        <v>44896</v>
-      </c>
-      <c r="B44" s="40">
-        <v>150</v>
-      </c>
-      <c r="C44" s="41">
-        <v>4015</v>
-      </c>
-      <c r="D44" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="39">
-        <v>44879</v>
-      </c>
-      <c r="B45" s="40">
-        <v>150</v>
-      </c>
-      <c r="C45" s="41">
-        <v>3865</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="39">
-        <v>44866</v>
-      </c>
-      <c r="B46" s="40">
-        <v>150</v>
-      </c>
-      <c r="C46" s="41">
-        <v>3715</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="39">
-        <v>44866</v>
-      </c>
-      <c r="B47" s="40">
-        <v>300</v>
-      </c>
-      <c r="C47" s="41">
-        <v>3565</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="39">
-        <v>44866</v>
-      </c>
-      <c r="B48" s="40">
-        <v>150</v>
-      </c>
-      <c r="C48" s="41">
-        <v>3265</v>
-      </c>
-      <c r="D48" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="39">
-        <v>44862</v>
-      </c>
-      <c r="B49" s="40">
-        <v>150</v>
-      </c>
-      <c r="C49" s="41">
-        <v>3115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="39">
-        <v>44838</v>
-      </c>
-      <c r="B50" s="40">
-        <v>150</v>
-      </c>
-      <c r="C50" s="41">
-        <v>2965</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="39">
-        <v>44836</v>
-      </c>
-      <c r="B51" s="40">
-        <v>150</v>
-      </c>
-      <c r="C51" s="41">
-        <v>2815</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="39">
-        <v>44836</v>
-      </c>
-      <c r="B52" s="40">
-        <v>150</v>
-      </c>
-      <c r="C52" s="41">
-        <v>2665</v>
-      </c>
-      <c r="D52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="39">
-        <v>44834</v>
-      </c>
-      <c r="B53" s="40">
-        <v>150</v>
-      </c>
-      <c r="C53" s="41">
-        <v>2515</v>
-      </c>
-      <c r="D53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="39">
-        <v>44833</v>
-      </c>
-      <c r="B54" s="40">
-        <v>600</v>
-      </c>
-      <c r="C54" s="41">
-        <v>2365</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="39">
-        <v>44813</v>
-      </c>
-      <c r="B55" s="40">
-        <v>150</v>
-      </c>
-      <c r="C55" s="41">
-        <v>1765</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="39">
-        <v>44805</v>
-      </c>
-      <c r="B56" s="40">
-        <v>150</v>
-      </c>
-      <c r="C56" s="41">
-        <v>1615</v>
-      </c>
-      <c r="D56" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="39">
-        <v>44805</v>
-      </c>
-      <c r="B57" s="40">
-        <v>150</v>
-      </c>
-      <c r="C57" s="41">
-        <v>1465</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="39">
-        <v>44804</v>
-      </c>
-      <c r="B58" s="40">
-        <v>-6.5</v>
-      </c>
-      <c r="C58" s="41">
-        <v>1315</v>
-      </c>
-      <c r="D58" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="39">
-        <v>44804</v>
-      </c>
-      <c r="B59" s="40">
-        <v>150</v>
-      </c>
-      <c r="C59" s="41">
-        <v>1321.5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="39">
-        <v>44774</v>
-      </c>
-      <c r="B60" s="40">
-        <v>150</v>
-      </c>
-      <c r="C60" s="41">
-        <v>1171.5</v>
-      </c>
-      <c r="D60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="39">
-        <v>44774</v>
-      </c>
-      <c r="B61" s="40">
-        <v>150</v>
-      </c>
-      <c r="C61" s="41">
-        <v>1021.5</v>
-      </c>
-      <c r="D61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="39">
-        <v>44773</v>
-      </c>
-      <c r="B62" s="40">
-        <v>-6.5</v>
-      </c>
-      <c r="C62" s="41">
-        <v>871.5</v>
-      </c>
-      <c r="D62" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="39">
-        <v>44773</v>
-      </c>
-      <c r="B63" s="40">
-        <v>-0.6</v>
-      </c>
-      <c r="C63" s="41">
-        <v>878</v>
-      </c>
-      <c r="D63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="39">
-        <v>44773</v>
-      </c>
-      <c r="B64" s="40">
-        <v>300</v>
-      </c>
-      <c r="C64" s="41">
-        <v>878.6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>112</v>
-      </c>
-      <c r="E64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="39">
-        <v>44772</v>
-      </c>
-      <c r="B65" s="40">
-        <v>150</v>
-      </c>
-      <c r="C65" s="41">
-        <v>578.6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E65" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="39">
-        <v>44771</v>
-      </c>
-      <c r="B66" s="40">
-        <v>-2050</v>
-      </c>
-      <c r="C66" s="41">
-        <v>428.6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="39">
-        <v>44771</v>
-      </c>
-      <c r="B67" s="40">
-        <v>150</v>
-      </c>
-      <c r="C67" s="41">
-        <v>2478.6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="39">
-        <v>44743</v>
-      </c>
-      <c r="B68" s="40">
-        <v>150</v>
-      </c>
-      <c r="C68" s="41">
-        <v>2328.6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="39">
-        <v>44743</v>
-      </c>
-      <c r="B69" s="40">
-        <v>150</v>
-      </c>
-      <c r="C69" s="41">
-        <v>2178.6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="39">
-        <v>44742</v>
-      </c>
-      <c r="B70" s="40">
-        <v>-6.5</v>
-      </c>
-      <c r="C70" s="41">
-        <v>2028.6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="39">
-        <v>44742</v>
-      </c>
-      <c r="B71" s="40">
-        <v>150</v>
-      </c>
-      <c r="C71" s="41">
-        <v>2035.1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="39">
-        <v>44741</v>
-      </c>
-      <c r="B72" s="40">
-        <v>300</v>
-      </c>
-      <c r="C72" s="41">
-        <v>1885.1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="39">
-        <v>44741</v>
-      </c>
-      <c r="B73" s="40">
-        <v>150</v>
-      </c>
-      <c r="C73" s="41">
-        <v>1585.1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="39">
-        <v>44715</v>
-      </c>
-      <c r="B74" s="40">
-        <v>150</v>
-      </c>
-      <c r="C74" s="41">
-        <v>1435.1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="39">
-        <v>44715</v>
-      </c>
-      <c r="B75" s="40">
-        <v>300</v>
-      </c>
-      <c r="C75" s="41">
-        <v>1285.0999999999999</v>
-      </c>
-      <c r="D75" t="s">
-        <v>112</v>
-      </c>
-      <c r="E75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="39">
-        <v>44714</v>
-      </c>
-      <c r="B76" s="40">
-        <v>150</v>
-      </c>
-      <c r="C76" s="41">
-        <v>985.1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>112</v>
-      </c>
-      <c r="E76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="39">
-        <v>44712</v>
-      </c>
-      <c r="B77" s="40">
-        <v>-6.5</v>
-      </c>
-      <c r="C77" s="41">
-        <v>835.1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="39">
-        <v>44712</v>
-      </c>
-      <c r="B78" s="40">
-        <v>-2.1</v>
-      </c>
-      <c r="C78" s="41">
-        <v>841.6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="39">
-        <v>44712</v>
-      </c>
-      <c r="B79" s="40">
-        <v>150</v>
-      </c>
-      <c r="C79" s="41">
-        <v>843.7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>112</v>
-      </c>
-      <c r="E79" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="39">
-        <v>44708</v>
-      </c>
-      <c r="B80" s="40">
-        <v>150</v>
-      </c>
-      <c r="C80" s="41">
-        <v>693.7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="39">
-        <v>44705</v>
-      </c>
-      <c r="B81" s="40">
-        <v>-341.67</v>
-      </c>
-      <c r="C81" s="41">
-        <v>543.70000000000005</v>
-      </c>
-      <c r="D81" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="42">
-        <v>10100086160634</v>
-      </c>
-      <c r="G81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="39">
-        <v>44685</v>
-      </c>
-      <c r="B82" s="40">
-        <v>150</v>
-      </c>
-      <c r="C82" s="41">
-        <v>885.37</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>115</v>
-      </c>
-      <c r="F82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="39">
-        <v>44684</v>
-      </c>
-      <c r="B83" s="40">
-        <v>150</v>
-      </c>
-      <c r="C83" s="41">
-        <v>735.37</v>
-      </c>
-      <c r="D83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="39">
-        <v>44684</v>
-      </c>
-      <c r="B84" s="40">
-        <v>150</v>
-      </c>
-      <c r="C84" s="41">
-        <v>585.37</v>
-      </c>
-      <c r="D84" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="39">
-        <v>44682</v>
-      </c>
-      <c r="B85" s="40">
-        <v>150</v>
-      </c>
-      <c r="C85" s="41">
-        <v>435.37</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>119</v>
-      </c>
-      <c r="F85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="39">
-        <v>44682</v>
-      </c>
-      <c r="B86" s="40">
-        <v>150</v>
-      </c>
-      <c r="C86" s="41">
-        <v>285.37</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
-        <v>120</v>
-      </c>
-      <c r="F86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="39">
-        <v>44681</v>
-      </c>
-      <c r="B87" s="40">
-        <v>-6.5</v>
-      </c>
-      <c r="C87" s="41">
-        <v>135.37</v>
-      </c>
-      <c r="D87" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="39">
-        <v>44681</v>
-      </c>
-      <c r="B88" s="40">
-        <v>-0.13</v>
-      </c>
-      <c r="C88" s="41">
-        <v>141.87</v>
-      </c>
-      <c r="D88" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1">
-      <c r="A89" s="39">
-        <v>44680</v>
-      </c>
-      <c r="B89" s="40">
-        <v>150</v>
-      </c>
-      <c r="C89" s="41">
-        <v>142</v>
-      </c>
-      <c r="D89" t="s">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" s="42">
-        <v>10100068626137</v>
-      </c>
-      <c r="H89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="39">
-        <v>44651</v>
-      </c>
-      <c r="B90" s="40">
-        <v>-6.5</v>
-      </c>
-      <c r="C90" s="41">
-        <v>-8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="39">
-        <v>44651</v>
-      </c>
-      <c r="B91" s="40">
-        <v>-1.5</v>
-      </c>
-      <c r="C91" s="41">
-        <v>-1.5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>63</v>
-      </c>
-      <c r="E91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="39">
-        <v>44644</v>
-      </c>
-      <c r="B92" s="40">
-        <v>-5</v>
-      </c>
-      <c r="C92" s="41">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>125</v>
-      </c>
-      <c r="E92" t="s">
-        <v>126</v>
-      </c>
-      <c r="F92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="39">
-        <v>44644</v>
-      </c>
-      <c r="B93" s="40">
-        <v>5</v>
-      </c>
-      <c r="C93" s="41">
-        <v>5</v>
-      </c>
-      <c r="D93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD116C0-D06B-4057-8F01-87DEDBE3B684}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5933,12 +4083,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="43" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="44" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -5963,7 +4113,7 @@
         <v>45138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C4" s="14">
         <v>0.81</v>
@@ -5977,7 +4127,7 @@
         <v>45107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C5" s="12">
         <v>0.74</v>
@@ -5991,7 +4141,7 @@
         <v>45077</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C6" s="14">
         <v>0.75</v>
@@ -6005,7 +4155,7 @@
         <v>45046</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C7" s="12">
         <v>0.72</v>
@@ -6019,7 +4169,7 @@
         <v>45016</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C8" s="14">
         <v>0.75</v>
@@ -6033,7 +4183,7 @@
         <v>44985</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C9" s="12">
         <v>0.67</v>
@@ -6047,7 +4197,7 @@
         <v>44957</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C10" s="14">
         <v>0.74</v>
@@ -6061,7 +4211,7 @@
         <v>44926</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C11" s="12">
         <v>0.7</v>
@@ -6075,7 +4225,7 @@
         <v>44895</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C12" s="14">
         <v>0.62</v>
@@ -6089,7 +4239,7 @@
         <v>44865</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C13" s="12">
         <v>0.5</v>
@@ -6103,7 +4253,7 @@
         <v>44834</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C14" s="14">
         <v>0.41</v>
@@ -6117,7 +4267,7 @@
         <v>44804</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C15" s="12">
         <v>0.37</v>
@@ -6131,7 +4281,7 @@
         <v>44773</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C16" s="14">
         <v>0.27</v>
@@ -6145,7 +4295,7 @@
         <v>44742</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C17" s="12">
         <v>0.21</v>
@@ -6159,7 +4309,7 @@
         <v>44712</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C18" s="14">
         <v>0.12</v>
@@ -6173,7 +4323,7 @@
         <v>44681</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C19" s="12">
         <v>0.02</v>
@@ -6187,7 +4337,7 @@
         <v>44681</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C20" s="9">
         <v>-0.02</v>
@@ -6201,7 +4351,7 @@
         <v>44681</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C21" s="12">
         <v>0.02</v>
@@ -6215,7 +4365,7 @@
         <v>44645</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C22" s="25">
         <v>145</v>
@@ -6227,7 +4377,7 @@
     <row r="23" spans="1:4" ht="30.6">
       <c r="A23" s="24"/>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
@@ -6249,7 +4399,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
@@ -6273,7 +4423,7 @@
     <row r="28" spans="1:4" ht="31.2" thickBot="1">
       <c r="A28" s="27"/>
       <c r="B28" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
@@ -6290,4 +4440,1897 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39">
+        <v>45140</v>
+      </c>
+      <c r="B2" s="40">
+        <v>150</v>
+      </c>
+      <c r="C2" s="41">
+        <f t="shared" ref="C2:C6" si="0">C3+B2</f>
+        <v>9955</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39">
+        <v>45140</v>
+      </c>
+      <c r="B3" s="40">
+        <v>150</v>
+      </c>
+      <c r="C3" s="41">
+        <f t="shared" si="0"/>
+        <v>9805</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="39">
+        <v>45138</v>
+      </c>
+      <c r="B4" s="40">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="41">
+        <f t="shared" si="0"/>
+        <v>9655</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="39">
+        <v>45135</v>
+      </c>
+      <c r="B5" s="40">
+        <v>150</v>
+      </c>
+      <c r="C5" s="41">
+        <f t="shared" si="0"/>
+        <v>8155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="39">
+        <v>45133</v>
+      </c>
+      <c r="B6" s="40">
+        <v>150</v>
+      </c>
+      <c r="C6" s="41">
+        <f t="shared" si="0"/>
+        <v>8005</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="39">
+        <v>45133</v>
+      </c>
+      <c r="B7" s="40">
+        <v>150</v>
+      </c>
+      <c r="C7" s="41">
+        <f>C8+B7</f>
+        <v>7855</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="39">
+        <v>45118</v>
+      </c>
+      <c r="B8" s="40">
+        <v>-2310</v>
+      </c>
+      <c r="C8" s="41">
+        <v>7705</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39">
+        <v>45112</v>
+      </c>
+      <c r="B9" s="40">
+        <v>150</v>
+      </c>
+      <c r="C9" s="41">
+        <v>10015</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39">
+        <v>45111</v>
+      </c>
+      <c r="B10" s="40">
+        <v>300</v>
+      </c>
+      <c r="C10" s="41">
+        <v>9865</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="39">
+        <v>45108</v>
+      </c>
+      <c r="B11" s="40">
+        <v>150</v>
+      </c>
+      <c r="C11" s="41">
+        <v>9565</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="39">
+        <v>45107</v>
+      </c>
+      <c r="B12" s="40">
+        <v>150</v>
+      </c>
+      <c r="C12" s="41">
+        <v>9415</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="39">
+        <v>45083</v>
+      </c>
+      <c r="B13" s="40">
+        <v>150</v>
+      </c>
+      <c r="C13" s="41">
+        <v>9265</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="39">
+        <v>45076</v>
+      </c>
+      <c r="B14" s="40">
+        <v>150</v>
+      </c>
+      <c r="C14" s="41">
+        <v>9115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B15" s="40">
+        <v>300</v>
+      </c>
+      <c r="C15" s="41">
+        <v>8965</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B16" s="40">
+        <v>150</v>
+      </c>
+      <c r="C16" s="41">
+        <v>8665</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B17" s="40">
+        <v>150</v>
+      </c>
+      <c r="C17" s="41">
+        <v>8515</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="40">
+        <v>150</v>
+      </c>
+      <c r="C18" s="41">
+        <v>8365</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B19" s="40">
+        <v>150</v>
+      </c>
+      <c r="C19" s="41">
+        <v>8215</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B20" s="40">
+        <v>150</v>
+      </c>
+      <c r="C20" s="41">
+        <v>8065</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39">
+        <v>45044</v>
+      </c>
+      <c r="B21" s="40">
+        <v>150</v>
+      </c>
+      <c r="C21" s="41">
+        <v>7915</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="39">
+        <v>45017</v>
+      </c>
+      <c r="B22" s="40">
+        <v>150</v>
+      </c>
+      <c r="C22" s="41">
+        <v>7765</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="39">
+        <v>45016</v>
+      </c>
+      <c r="B23" s="40">
+        <v>150</v>
+      </c>
+      <c r="C23" s="41">
+        <v>7615</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="39">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="40">
+        <v>300</v>
+      </c>
+      <c r="C24" s="41">
+        <v>7465</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="39">
+        <v>45015</v>
+      </c>
+      <c r="B25" s="40">
+        <v>150</v>
+      </c>
+      <c r="C25" s="41">
+        <v>7165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="39">
+        <v>44987</v>
+      </c>
+      <c r="B26" s="40">
+        <v>150</v>
+      </c>
+      <c r="C26" s="41">
+        <v>7015</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="39">
+        <v>44987</v>
+      </c>
+      <c r="B27" s="40">
+        <v>150</v>
+      </c>
+      <c r="C27" s="41">
+        <v>6865</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="39">
+        <v>44987</v>
+      </c>
+      <c r="B28" s="40">
+        <v>150</v>
+      </c>
+      <c r="C28" s="41">
+        <v>6715</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="39">
+        <v>44986</v>
+      </c>
+      <c r="B29" s="40">
+        <v>150</v>
+      </c>
+      <c r="C29" s="41">
+        <v>6565</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="39">
+        <v>44986</v>
+      </c>
+      <c r="B30" s="40">
+        <v>150</v>
+      </c>
+      <c r="C30" s="41">
+        <v>6415</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="39">
+        <v>44981</v>
+      </c>
+      <c r="B31" s="40">
+        <v>150</v>
+      </c>
+      <c r="C31" s="41">
+        <v>6265</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="39">
+        <v>44958</v>
+      </c>
+      <c r="B32" s="40">
+        <v>150</v>
+      </c>
+      <c r="C32" s="41">
+        <v>6115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="39">
+        <v>44958</v>
+      </c>
+      <c r="B33" s="40">
+        <v>300</v>
+      </c>
+      <c r="C33" s="41">
+        <v>5965</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="39">
+        <v>44958</v>
+      </c>
+      <c r="B34" s="40">
+        <v>150</v>
+      </c>
+      <c r="C34" s="41">
+        <v>5665</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="39">
+        <v>44957</v>
+      </c>
+      <c r="B35" s="40">
+        <v>150</v>
+      </c>
+      <c r="C35" s="41">
+        <v>5515</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="39">
+        <v>44928</v>
+      </c>
+      <c r="B36" s="40">
+        <v>150</v>
+      </c>
+      <c r="C36" s="41">
+        <v>5365</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="39">
+        <v>44927</v>
+      </c>
+      <c r="B37" s="40">
+        <v>150</v>
+      </c>
+      <c r="C37" s="41">
+        <v>5215</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="39">
+        <v>44926</v>
+      </c>
+      <c r="B38" s="40">
+        <v>150</v>
+      </c>
+      <c r="C38" s="41">
+        <v>5065</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="39">
+        <v>44922</v>
+      </c>
+      <c r="B39" s="40">
+        <v>150</v>
+      </c>
+      <c r="C39" s="41">
+        <v>4915</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="39">
+        <v>44922</v>
+      </c>
+      <c r="B40" s="40">
+        <v>150</v>
+      </c>
+      <c r="C40" s="41">
+        <v>4765</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="39">
+        <v>44900</v>
+      </c>
+      <c r="B41" s="40">
+        <v>150</v>
+      </c>
+      <c r="C41" s="41">
+        <v>4615</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="39">
+        <v>44900</v>
+      </c>
+      <c r="B42" s="40">
+        <v>300</v>
+      </c>
+      <c r="C42" s="41">
+        <v>4465</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="39">
+        <v>44896</v>
+      </c>
+      <c r="B43" s="40">
+        <v>150</v>
+      </c>
+      <c r="C43" s="41">
+        <v>4165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="39">
+        <v>44896</v>
+      </c>
+      <c r="B44" s="40">
+        <v>150</v>
+      </c>
+      <c r="C44" s="41">
+        <v>4015</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="39">
+        <v>44879</v>
+      </c>
+      <c r="B45" s="40">
+        <v>150</v>
+      </c>
+      <c r="C45" s="41">
+        <v>3865</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="39">
+        <v>44866</v>
+      </c>
+      <c r="B46" s="40">
+        <v>150</v>
+      </c>
+      <c r="C46" s="41">
+        <v>3715</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="39">
+        <v>44866</v>
+      </c>
+      <c r="B47" s="40">
+        <v>300</v>
+      </c>
+      <c r="C47" s="41">
+        <v>3565</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="39">
+        <v>44866</v>
+      </c>
+      <c r="B48" s="40">
+        <v>150</v>
+      </c>
+      <c r="C48" s="41">
+        <v>3265</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="39">
+        <v>44862</v>
+      </c>
+      <c r="B49" s="40">
+        <v>150</v>
+      </c>
+      <c r="C49" s="41">
+        <v>3115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="39">
+        <v>44838</v>
+      </c>
+      <c r="B50" s="40">
+        <v>150</v>
+      </c>
+      <c r="C50" s="41">
+        <v>2965</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="39">
+        <v>44836</v>
+      </c>
+      <c r="B51" s="40">
+        <v>150</v>
+      </c>
+      <c r="C51" s="41">
+        <v>2815</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="39">
+        <v>44836</v>
+      </c>
+      <c r="B52" s="40">
+        <v>150</v>
+      </c>
+      <c r="C52" s="41">
+        <v>2665</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="39">
+        <v>44834</v>
+      </c>
+      <c r="B53" s="40">
+        <v>150</v>
+      </c>
+      <c r="C53" s="41">
+        <v>2515</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="39">
+        <v>44833</v>
+      </c>
+      <c r="B54" s="40">
+        <v>600</v>
+      </c>
+      <c r="C54" s="41">
+        <v>2365</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="39">
+        <v>44813</v>
+      </c>
+      <c r="B55" s="40">
+        <v>150</v>
+      </c>
+      <c r="C55" s="41">
+        <v>1765</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="39">
+        <v>44805</v>
+      </c>
+      <c r="B56" s="40">
+        <v>150</v>
+      </c>
+      <c r="C56" s="41">
+        <v>1615</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="39">
+        <v>44805</v>
+      </c>
+      <c r="B57" s="40">
+        <v>150</v>
+      </c>
+      <c r="C57" s="41">
+        <v>1465</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="39">
+        <v>44804</v>
+      </c>
+      <c r="B58" s="40">
+        <v>-6.5</v>
+      </c>
+      <c r="C58" s="41">
+        <v>1315</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="str">
+        <f>IF(D58="Bank Charges", "VANCITY")</f>
+        <v>VANCITY</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="39">
+        <v>44804</v>
+      </c>
+      <c r="B59" s="40">
+        <v>150</v>
+      </c>
+      <c r="C59" s="41">
+        <v>1321.5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="39">
+        <v>44774</v>
+      </c>
+      <c r="B60" s="40">
+        <v>150</v>
+      </c>
+      <c r="C60" s="41">
+        <v>1171.5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="39">
+        <v>44774</v>
+      </c>
+      <c r="B61" s="40">
+        <v>150</v>
+      </c>
+      <c r="C61" s="41">
+        <v>1021.5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="39">
+        <v>44773</v>
+      </c>
+      <c r="B62" s="40">
+        <v>-6.5</v>
+      </c>
+      <c r="C62" s="41">
+        <v>871.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="39">
+        <v>44773</v>
+      </c>
+      <c r="B63" s="40">
+        <v>-0.6</v>
+      </c>
+      <c r="C63" s="41">
+        <v>878</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="39">
+        <v>44773</v>
+      </c>
+      <c r="B64" s="40">
+        <v>300</v>
+      </c>
+      <c r="C64" s="41">
+        <v>878.6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="39">
+        <v>44772</v>
+      </c>
+      <c r="B65" s="40">
+        <v>150</v>
+      </c>
+      <c r="C65" s="41">
+        <v>578.6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="39">
+        <v>44771</v>
+      </c>
+      <c r="B66" s="40">
+        <v>-2050</v>
+      </c>
+      <c r="C66" s="41">
+        <v>428.6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="39">
+        <v>44771</v>
+      </c>
+      <c r="B67" s="40">
+        <v>150</v>
+      </c>
+      <c r="C67" s="41">
+        <v>2478.6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="39">
+        <v>44743</v>
+      </c>
+      <c r="B68" s="40">
+        <v>150</v>
+      </c>
+      <c r="C68" s="41">
+        <v>2328.6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="39">
+        <v>44743</v>
+      </c>
+      <c r="B69" s="40">
+        <v>150</v>
+      </c>
+      <c r="C69" s="41">
+        <v>2178.6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="39">
+        <v>44742</v>
+      </c>
+      <c r="B70" s="40">
+        <v>-6.5</v>
+      </c>
+      <c r="C70" s="41">
+        <v>2028.6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="39">
+        <v>44742</v>
+      </c>
+      <c r="B71" s="40">
+        <v>150</v>
+      </c>
+      <c r="C71" s="41">
+        <v>2035.1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="39">
+        <v>44741</v>
+      </c>
+      <c r="B72" s="40">
+        <v>300</v>
+      </c>
+      <c r="C72" s="41">
+        <v>1885.1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="39">
+        <v>44741</v>
+      </c>
+      <c r="B73" s="40">
+        <v>150</v>
+      </c>
+      <c r="C73" s="41">
+        <v>1585.1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="39">
+        <v>44715</v>
+      </c>
+      <c r="B74" s="40">
+        <v>150</v>
+      </c>
+      <c r="C74" s="41">
+        <v>1435.1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="39">
+        <v>44715</v>
+      </c>
+      <c r="B75" s="40">
+        <v>300</v>
+      </c>
+      <c r="C75" s="41">
+        <v>1285.0999999999999</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="39">
+        <v>44714</v>
+      </c>
+      <c r="B76" s="40">
+        <v>150</v>
+      </c>
+      <c r="C76" s="41">
+        <v>985.1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="39">
+        <v>44712</v>
+      </c>
+      <c r="B77" s="40">
+        <v>-6.5</v>
+      </c>
+      <c r="C77" s="41">
+        <v>835.1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="39">
+        <v>44712</v>
+      </c>
+      <c r="B78" s="40">
+        <v>-2.1</v>
+      </c>
+      <c r="C78" s="41">
+        <v>841.6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="39">
+        <v>44712</v>
+      </c>
+      <c r="B79" s="40">
+        <v>150</v>
+      </c>
+      <c r="C79" s="41">
+        <v>843.7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="39">
+        <v>44708</v>
+      </c>
+      <c r="B80" s="40">
+        <v>150</v>
+      </c>
+      <c r="C80" s="41">
+        <v>693.7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="39">
+        <v>44705</v>
+      </c>
+      <c r="B81" s="40">
+        <v>-341.67</v>
+      </c>
+      <c r="C81" s="41">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="D81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="39">
+        <v>44685</v>
+      </c>
+      <c r="B82" s="40">
+        <v>150</v>
+      </c>
+      <c r="C82" s="41">
+        <v>885.37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="39">
+        <v>44684</v>
+      </c>
+      <c r="B83" s="40">
+        <v>150</v>
+      </c>
+      <c r="C83" s="41">
+        <v>735.37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="39">
+        <v>44684</v>
+      </c>
+      <c r="B84" s="40">
+        <v>150</v>
+      </c>
+      <c r="C84" s="41">
+        <v>585.37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="39">
+        <v>44682</v>
+      </c>
+      <c r="B85" s="40">
+        <v>150</v>
+      </c>
+      <c r="C85" s="41">
+        <v>435.37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="39">
+        <v>44682</v>
+      </c>
+      <c r="B86" s="40">
+        <v>150</v>
+      </c>
+      <c r="C86" s="41">
+        <v>285.37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="39">
+        <v>44681</v>
+      </c>
+      <c r="B87" s="40">
+        <v>-6.5</v>
+      </c>
+      <c r="C87" s="41">
+        <v>135.37</v>
+      </c>
+      <c r="D87" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="39">
+        <v>44681</v>
+      </c>
+      <c r="B88" s="40">
+        <v>-0.13</v>
+      </c>
+      <c r="C88" s="41">
+        <v>141.87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1">
+      <c r="A89" s="39">
+        <v>44680</v>
+      </c>
+      <c r="B89" s="40">
+        <v>150</v>
+      </c>
+      <c r="C89" s="41">
+        <v>142</v>
+      </c>
+      <c r="D89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="39">
+        <v>44651</v>
+      </c>
+      <c r="B90" s="40">
+        <v>-6.5</v>
+      </c>
+      <c r="C90" s="41">
+        <v>-8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="39">
+        <v>44651</v>
+      </c>
+      <c r="B91" s="40">
+        <v>-1.5</v>
+      </c>
+      <c r="C91" s="41">
+        <v>-1.5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="39">
+        <v>44644</v>
+      </c>
+      <c r="B92" s="40">
+        <v>-5</v>
+      </c>
+      <c r="C92" s="41">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="39">
+        <v>44644</v>
+      </c>
+      <c r="B93" s="40">
+        <v>5</v>
+      </c>
+      <c r="C93" s="41">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E93" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FECBA6-F4F0-4DBA-A3FA-0614C9ACA0F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>